--- a/database/industries/darou/desobhan/product/monthly.xlsx
+++ b/database/industries/darou/desobhan/product/monthly.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\desobhan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBD8E3B-E893-45EA-8BE4-236FED19345D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521C5DA3-EC66-4C81-842E-4FEF81AC5CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="89">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 6 منتهی به 1397/06</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 7 منتهی به 1401/07</t>
+  </si>
+  <si>
+    <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>کپسول</t>
@@ -1445,154 +1445,154 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>2945820</v>
+        <v>11858720</v>
       </c>
       <c r="F11" s="11">
-        <v>16714920</v>
+        <v>1965390</v>
       </c>
       <c r="G11" s="11">
-        <v>11858720</v>
+        <v>5629180</v>
       </c>
       <c r="H11" s="11">
-        <v>1965390</v>
+        <v>0</v>
       </c>
       <c r="I11" s="11">
-        <v>5629180</v>
+        <v>1421400</v>
       </c>
       <c r="J11" s="11">
         <v>0</v>
       </c>
       <c r="K11" s="11">
-        <v>1421400</v>
+        <v>6757430</v>
       </c>
       <c r="L11" s="11">
-        <v>0</v>
+        <v>3698900</v>
       </c>
       <c r="M11" s="11">
-        <v>6757430</v>
+        <v>17754200</v>
       </c>
       <c r="N11" s="11">
-        <v>3698900</v>
+        <v>8151450</v>
       </c>
       <c r="O11" s="11">
-        <v>17754200</v>
+        <v>0</v>
       </c>
       <c r="P11" s="11">
-        <v>8151450</v>
+        <v>11355800</v>
       </c>
       <c r="Q11" s="11">
-        <v>0</v>
+        <v>15880572</v>
       </c>
       <c r="R11" s="11">
-        <v>11355800</v>
+        <v>7392280</v>
       </c>
       <c r="S11" s="11">
-        <v>15880572</v>
+        <v>8872060</v>
       </c>
       <c r="T11" s="11">
-        <v>7392280</v>
+        <v>6086980</v>
       </c>
       <c r="U11" s="11">
-        <v>8872060</v>
+        <v>10024360</v>
       </c>
       <c r="V11" s="11">
-        <v>6086980</v>
+        <v>0</v>
       </c>
       <c r="W11" s="11">
-        <v>10024360</v>
+        <v>14396</v>
       </c>
       <c r="X11" s="11">
-        <v>0</v>
+        <v>17477</v>
       </c>
       <c r="Y11" s="11">
-        <v>14396</v>
+        <v>11800</v>
       </c>
       <c r="Z11" s="11">
-        <v>17477</v>
+        <v>859</v>
       </c>
       <c r="AA11" s="11">
-        <v>11800</v>
+        <v>7792</v>
       </c>
       <c r="AB11" s="11">
-        <v>859</v>
+        <v>11158</v>
       </c>
       <c r="AC11" s="11">
-        <v>7792</v>
+        <v>3107</v>
       </c>
       <c r="AD11" s="11">
-        <v>11158</v>
+        <v>11045</v>
       </c>
       <c r="AE11" s="11">
-        <v>3107</v>
+        <v>3258</v>
       </c>
       <c r="AF11" s="11">
-        <v>11045</v>
+        <v>9632</v>
       </c>
       <c r="AG11" s="11">
-        <v>3258</v>
+        <v>12533</v>
       </c>
       <c r="AH11" s="11">
-        <v>9632</v>
+        <v>1331</v>
       </c>
       <c r="AI11" s="11">
-        <v>12533</v>
+        <v>10505</v>
       </c>
       <c r="AJ11" s="11">
-        <v>1331</v>
+        <v>12587</v>
       </c>
       <c r="AK11" s="11">
-        <v>10505</v>
+        <v>3124</v>
       </c>
       <c r="AL11" s="11">
-        <v>12587</v>
+        <v>15087</v>
       </c>
       <c r="AM11" s="11">
-        <v>3124</v>
+        <v>19050</v>
       </c>
       <c r="AN11" s="11">
-        <v>15087</v>
+        <v>16463</v>
       </c>
       <c r="AO11" s="11">
-        <v>19050</v>
+        <v>16389</v>
       </c>
       <c r="AP11" s="11">
-        <v>16463</v>
+        <v>6933</v>
       </c>
       <c r="AQ11" s="11">
-        <v>16389</v>
+        <v>20758</v>
       </c>
       <c r="AR11" s="11">
-        <v>6933</v>
+        <v>12736</v>
       </c>
       <c r="AS11" s="11">
-        <v>20758</v>
+        <v>5007</v>
       </c>
       <c r="AT11" s="11">
-        <v>12736</v>
+        <v>9924</v>
       </c>
       <c r="AU11" s="11">
-        <v>5007</v>
+        <v>14129</v>
       </c>
       <c r="AV11" s="11">
-        <v>11391</v>
+        <v>14506</v>
       </c>
       <c r="AW11" s="11">
-        <v>14129</v>
+        <v>19263</v>
       </c>
       <c r="AX11" s="11">
-        <v>14506</v>
+        <v>10507</v>
       </c>
       <c r="AY11" s="11">
-        <v>19263</v>
+        <v>6731</v>
       </c>
       <c r="AZ11" s="11">
-        <v>10507</v>
+        <v>13171</v>
       </c>
       <c r="BA11" s="11">
-        <v>6731</v>
+        <v>2030</v>
       </c>
       <c r="BB11" s="11">
-        <v>13171</v>
+        <v>14335</v>
       </c>
     </row>
     <row r="12" spans="2:54" x14ac:dyDescent="0.3">
@@ -1654,89 +1654,89 @@
       <c r="U12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
+      <c r="V12" s="13">
+        <v>145947</v>
+      </c>
+      <c r="W12" s="13">
+        <v>236415</v>
       </c>
       <c r="X12" s="13">
-        <v>145947</v>
+        <v>176353</v>
       </c>
       <c r="Y12" s="13">
-        <v>236415</v>
+        <v>252168</v>
       </c>
       <c r="Z12" s="13">
-        <v>176353</v>
+        <v>442389</v>
       </c>
       <c r="AA12" s="13">
-        <v>252168</v>
+        <v>328679</v>
       </c>
       <c r="AB12" s="13">
-        <v>442389</v>
+        <v>220255</v>
       </c>
       <c r="AC12" s="13">
-        <v>328679</v>
+        <v>318170</v>
       </c>
       <c r="AD12" s="13">
-        <v>220255</v>
+        <v>340943</v>
       </c>
       <c r="AE12" s="13">
-        <v>318170</v>
+        <v>325353</v>
       </c>
       <c r="AF12" s="13">
-        <v>340943</v>
+        <v>275345</v>
       </c>
       <c r="AG12" s="13">
-        <v>325353</v>
+        <v>321575</v>
       </c>
       <c r="AH12" s="13">
-        <v>275345</v>
+        <v>236035</v>
       </c>
       <c r="AI12" s="13">
-        <v>321575</v>
+        <v>341898</v>
       </c>
       <c r="AJ12" s="13">
-        <v>236035</v>
+        <v>257870</v>
       </c>
       <c r="AK12" s="13">
-        <v>341898</v>
+        <v>283228</v>
       </c>
       <c r="AL12" s="13">
-        <v>257870</v>
+        <v>202727</v>
       </c>
       <c r="AM12" s="13">
-        <v>283228</v>
+        <v>334981</v>
       </c>
       <c r="AN12" s="13">
-        <v>202727</v>
+        <v>344551</v>
       </c>
       <c r="AO12" s="13">
-        <v>334981</v>
+        <v>284301</v>
       </c>
       <c r="AP12" s="13">
-        <v>344551</v>
+        <v>271738</v>
       </c>
       <c r="AQ12" s="13">
-        <v>284301</v>
+        <v>302959</v>
       </c>
       <c r="AR12" s="13">
-        <v>271738</v>
+        <v>321910</v>
       </c>
       <c r="AS12" s="13">
-        <v>302959</v>
+        <v>264716</v>
       </c>
       <c r="AT12" s="13">
-        <v>321910</v>
+        <v>197954</v>
       </c>
       <c r="AU12" s="13">
-        <v>264716</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>223022</v>
-      </c>
-      <c r="AW12" s="13">
         <v>340733</v>
+      </c>
+      <c r="AV12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW12" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX12" s="13" t="s">
         <v>58</v>
@@ -1763,154 +1763,154 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>68092</v>
+        <v>83053</v>
       </c>
       <c r="F13" s="11">
-        <v>23334</v>
+        <v>66177</v>
       </c>
       <c r="G13" s="11">
-        <v>83053</v>
+        <v>0</v>
       </c>
       <c r="H13" s="11">
-        <v>66177</v>
+        <v>12000</v>
       </c>
       <c r="I13" s="11">
-        <v>0</v>
+        <v>26233</v>
       </c>
       <c r="J13" s="11">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="11">
-        <v>26233</v>
+        <v>0</v>
       </c>
       <c r="L13" s="11">
         <v>0</v>
       </c>
       <c r="M13" s="11">
-        <v>0</v>
+        <v>21087</v>
       </c>
       <c r="N13" s="11">
-        <v>0</v>
+        <v>30914</v>
       </c>
       <c r="O13" s="11">
-        <v>21087</v>
+        <v>68647</v>
       </c>
       <c r="P13" s="11">
-        <v>30914</v>
+        <v>100460</v>
       </c>
       <c r="Q13" s="11">
-        <v>68647</v>
+        <v>98684</v>
       </c>
       <c r="R13" s="11">
-        <v>100460</v>
+        <v>112658</v>
       </c>
       <c r="S13" s="11">
-        <v>98684</v>
+        <v>125133</v>
       </c>
       <c r="T13" s="11">
-        <v>112658</v>
+        <v>76246</v>
       </c>
       <c r="U13" s="11">
-        <v>125133</v>
+        <v>0</v>
       </c>
       <c r="V13" s="11">
-        <v>76246</v>
+        <v>49</v>
       </c>
       <c r="W13" s="11">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="X13" s="11">
+        <v>78</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>119</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>59</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>122</v>
+      </c>
+      <c r="AB13" s="11">
+        <v>69</v>
+      </c>
+      <c r="AC13" s="11">
+        <v>56</v>
+      </c>
+      <c r="AD13" s="11">
         <v>49</v>
       </c>
-      <c r="Y13" s="11">
-        <v>133</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>78</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>119</v>
-      </c>
-      <c r="AB13" s="11">
+      <c r="AE13" s="11">
+        <v>24</v>
+      </c>
+      <c r="AF13" s="11">
+        <v>98</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>20</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>48</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>87</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>9</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>80</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>102</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>144</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>157</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>132</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>90</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>25</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>104</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>116</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>26</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>146</v>
+      </c>
+      <c r="AV13" s="11">
+        <v>118</v>
+      </c>
+      <c r="AW13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AX13" s="11">
         <v>59</v>
       </c>
-      <c r="AC13" s="11">
-        <v>122</v>
-      </c>
-      <c r="AD13" s="11">
-        <v>69</v>
-      </c>
-      <c r="AE13" s="11">
-        <v>56</v>
-      </c>
-      <c r="AF13" s="11">
-        <v>49</v>
-      </c>
-      <c r="AG13" s="11">
-        <v>24</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>98</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>20</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>48</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>87</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>9</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>80</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>102</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>144</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>157</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>132</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>90</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>25</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>104</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>116</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>26</v>
-      </c>
-      <c r="AW13" s="11">
-        <v>146</v>
-      </c>
-      <c r="AX13" s="11">
-        <v>118</v>
-      </c>
       <c r="AY13" s="11">
         <v>0</v>
       </c>
       <c r="AZ13" s="11">
-        <v>98</v>
+        <v>45</v>
       </c>
       <c r="BA13" s="11">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="BB13" s="11">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1922,61 +1922,61 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>252647700</v>
+        <v>260974470</v>
       </c>
       <c r="F14" s="13">
-        <v>252741995</v>
+        <v>269035385</v>
       </c>
       <c r="G14" s="13">
-        <v>260974470</v>
+        <v>228822031</v>
       </c>
       <c r="H14" s="13">
-        <v>269035385</v>
+        <v>219891160</v>
       </c>
       <c r="I14" s="13">
-        <v>228822031</v>
+        <v>181457150</v>
       </c>
       <c r="J14" s="13">
-        <v>219891160</v>
+        <v>104625560</v>
       </c>
       <c r="K14" s="13">
-        <v>181457150</v>
+        <v>177681440</v>
       </c>
       <c r="L14" s="13">
-        <v>104625560</v>
+        <v>184031090</v>
       </c>
       <c r="M14" s="13">
-        <v>177681440</v>
+        <v>207459160</v>
       </c>
       <c r="N14" s="13">
-        <v>184031090</v>
+        <v>177895940</v>
       </c>
       <c r="O14" s="13">
-        <v>207459160</v>
+        <v>256339260</v>
       </c>
       <c r="P14" s="13">
-        <v>177895940</v>
+        <v>273692740</v>
       </c>
       <c r="Q14" s="13">
-        <v>256339260</v>
+        <v>311757590</v>
       </c>
       <c r="R14" s="13">
-        <v>273692740</v>
+        <v>255580610</v>
       </c>
       <c r="S14" s="13">
-        <v>311757590</v>
+        <v>344862390</v>
       </c>
       <c r="T14" s="13">
-        <v>255580610</v>
+        <v>265232000</v>
       </c>
       <c r="U14" s="13">
-        <v>344862390</v>
-      </c>
-      <c r="V14" s="13">
-        <v>265232000</v>
-      </c>
-      <c r="W14" s="13">
         <v>193529810</v>
+      </c>
+      <c r="V14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="X14" s="13" t="s">
         <v>58</v>
@@ -2081,61 +2081,61 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>514880</v>
+        <v>866142</v>
       </c>
       <c r="F15" s="11">
-        <v>474974</v>
+        <v>808633</v>
       </c>
       <c r="G15" s="11">
-        <v>866142</v>
+        <v>765800</v>
       </c>
       <c r="H15" s="11">
-        <v>808633</v>
+        <v>531952</v>
       </c>
       <c r="I15" s="11">
-        <v>765800</v>
+        <v>622791</v>
       </c>
       <c r="J15" s="11">
-        <v>531952</v>
+        <v>108812</v>
       </c>
       <c r="K15" s="11">
-        <v>622791</v>
+        <v>727233</v>
       </c>
       <c r="L15" s="11">
-        <v>108812</v>
+        <v>634008</v>
       </c>
       <c r="M15" s="11">
-        <v>727233</v>
+        <v>636595</v>
       </c>
       <c r="N15" s="11">
-        <v>634008</v>
+        <v>565281</v>
       </c>
       <c r="O15" s="11">
-        <v>636595</v>
+        <v>786539</v>
       </c>
       <c r="P15" s="11">
-        <v>565281</v>
+        <v>698732</v>
       </c>
       <c r="Q15" s="11">
-        <v>786539</v>
+        <v>818906</v>
       </c>
       <c r="R15" s="11">
-        <v>698732</v>
+        <v>795974</v>
       </c>
       <c r="S15" s="11">
-        <v>818906</v>
+        <v>857944</v>
       </c>
       <c r="T15" s="11">
-        <v>795974</v>
+        <v>681018</v>
       </c>
       <c r="U15" s="11">
-        <v>857944</v>
-      </c>
-      <c r="V15" s="11">
-        <v>681018</v>
-      </c>
-      <c r="W15" s="11">
         <v>827978</v>
+      </c>
+      <c r="V15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W15" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="X15" s="11" t="s">
         <v>58</v>
@@ -2290,104 +2290,104 @@
       <c r="U16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W16" s="13" t="s">
-        <v>58</v>
+      <c r="V16" s="13">
+        <v>677</v>
+      </c>
+      <c r="W16" s="13">
+        <v>808</v>
       </c>
       <c r="X16" s="13">
-        <v>677</v>
+        <v>853</v>
       </c>
       <c r="Y16" s="13">
-        <v>808</v>
+        <v>995</v>
       </c>
       <c r="Z16" s="13">
-        <v>853</v>
+        <v>887</v>
       </c>
       <c r="AA16" s="13">
-        <v>995</v>
+        <v>955</v>
       </c>
       <c r="AB16" s="13">
-        <v>887</v>
+        <v>634</v>
       </c>
       <c r="AC16" s="13">
-        <v>955</v>
+        <v>709</v>
       </c>
       <c r="AD16" s="13">
-        <v>634</v>
+        <v>975</v>
       </c>
       <c r="AE16" s="13">
-        <v>709</v>
+        <v>821</v>
       </c>
       <c r="AF16" s="13">
-        <v>975</v>
+        <v>851</v>
       </c>
       <c r="AG16" s="13">
-        <v>821</v>
+        <v>501</v>
       </c>
       <c r="AH16" s="13">
-        <v>851</v>
+        <v>538</v>
       </c>
       <c r="AI16" s="13">
-        <v>501</v>
+        <v>1095</v>
       </c>
       <c r="AJ16" s="13">
-        <v>538</v>
+        <v>928</v>
       </c>
       <c r="AK16" s="13">
-        <v>1095</v>
+        <v>907</v>
       </c>
       <c r="AL16" s="13">
-        <v>928</v>
+        <v>682</v>
       </c>
       <c r="AM16" s="13">
-        <v>907</v>
+        <v>562</v>
       </c>
       <c r="AN16" s="13">
-        <v>682</v>
+        <v>923</v>
       </c>
       <c r="AO16" s="13">
-        <v>562</v>
+        <v>745</v>
       </c>
       <c r="AP16" s="13">
-        <v>923</v>
+        <v>850</v>
       </c>
       <c r="AQ16" s="13">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="AR16" s="13">
-        <v>850</v>
+        <v>1049</v>
       </c>
       <c r="AS16" s="13">
-        <v>749</v>
+        <v>700</v>
       </c>
       <c r="AT16" s="13">
-        <v>1049</v>
+        <v>601</v>
       </c>
       <c r="AU16" s="13">
-        <v>700</v>
+        <v>942</v>
       </c>
       <c r="AV16" s="13">
-        <v>23383</v>
+        <v>1033</v>
       </c>
       <c r="AW16" s="13">
-        <v>942</v>
+        <v>1032</v>
       </c>
       <c r="AX16" s="13">
-        <v>1033</v>
+        <v>822</v>
       </c>
       <c r="AY16" s="13">
-        <v>1032</v>
+        <v>278</v>
       </c>
       <c r="AZ16" s="13">
-        <v>642</v>
+        <v>1192</v>
       </c>
       <c r="BA16" s="13">
-        <v>458</v>
+        <v>820</v>
       </c>
       <c r="BB16" s="13">
-        <v>1192</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2527,26 +2527,26 @@
       <c r="AU17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW17" s="11" t="s">
-        <v>58</v>
+      <c r="AV17" s="11">
+        <v>340407</v>
+      </c>
+      <c r="AW17" s="11">
+        <v>310411</v>
       </c>
       <c r="AX17" s="11">
-        <v>340407</v>
+        <v>286837</v>
       </c>
       <c r="AY17" s="11">
-        <v>310411</v>
+        <v>245533</v>
       </c>
       <c r="AZ17" s="11">
-        <v>299341</v>
+        <v>403886</v>
       </c>
       <c r="BA17" s="11">
-        <v>245533</v>
+        <v>401364</v>
       </c>
       <c r="BB17" s="11">
-        <v>403886</v>
+        <v>368577</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2701,14 +2701,14 @@
       <c r="AG19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH19" s="11" t="s">
-        <v>58</v>
+      <c r="AH19" s="11">
+        <v>0</v>
       </c>
       <c r="AI19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ19" s="11">
-        <v>0</v>
+      <c r="AJ19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK19" s="11" t="s">
         <v>58</v>
@@ -2831,11 +2831,11 @@
       <c r="X20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z20" s="15" t="s">
-        <v>58</v>
+      <c r="Y20" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="15">
+        <v>0</v>
       </c>
       <c r="AA20" s="15">
         <v>0</v>
@@ -2929,154 +2929,154 @@
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17">
-        <v>256176492</v>
+        <v>273782385</v>
       </c>
       <c r="F21" s="17">
-        <v>269955223</v>
+        <v>271875585</v>
       </c>
       <c r="G21" s="17">
-        <v>273782385</v>
+        <v>235217011</v>
       </c>
       <c r="H21" s="17">
-        <v>271875585</v>
+        <v>220435112</v>
       </c>
       <c r="I21" s="17">
-        <v>235217011</v>
+        <v>183527574</v>
       </c>
       <c r="J21" s="17">
-        <v>220435112</v>
+        <v>104734372</v>
       </c>
       <c r="K21" s="17">
-        <v>183527574</v>
+        <v>185166103</v>
       </c>
       <c r="L21" s="17">
-        <v>104734372</v>
+        <v>188363998</v>
       </c>
       <c r="M21" s="17">
-        <v>185166103</v>
+        <v>225871042</v>
       </c>
       <c r="N21" s="17">
-        <v>188363998</v>
+        <v>186643585</v>
       </c>
       <c r="O21" s="17">
-        <v>225871042</v>
+        <v>257194446</v>
       </c>
       <c r="P21" s="17">
-        <v>186643585</v>
+        <v>285847732</v>
       </c>
       <c r="Q21" s="17">
-        <v>257194446</v>
+        <v>328555752</v>
       </c>
       <c r="R21" s="17">
-        <v>285847732</v>
+        <v>263881522</v>
       </c>
       <c r="S21" s="17">
-        <v>328555752</v>
+        <v>354717527</v>
       </c>
       <c r="T21" s="17">
-        <v>263881522</v>
+        <v>272076244</v>
       </c>
       <c r="U21" s="17">
-        <v>354717527</v>
+        <v>204382148</v>
       </c>
       <c r="V21" s="17">
-        <v>272076244</v>
+        <v>146673</v>
       </c>
       <c r="W21" s="17">
-        <v>204382148</v>
+        <v>251752</v>
       </c>
       <c r="X21" s="17">
-        <v>146673</v>
+        <v>194761</v>
       </c>
       <c r="Y21" s="17">
-        <v>251752</v>
+        <v>265082</v>
       </c>
       <c r="Z21" s="17">
-        <v>194761</v>
+        <v>444194</v>
       </c>
       <c r="AA21" s="17">
-        <v>265082</v>
+        <v>337548</v>
       </c>
       <c r="AB21" s="17">
-        <v>444194</v>
+        <v>232116</v>
       </c>
       <c r="AC21" s="17">
-        <v>337548</v>
+        <v>322042</v>
       </c>
       <c r="AD21" s="17">
-        <v>232116</v>
+        <v>353012</v>
       </c>
       <c r="AE21" s="17">
-        <v>322042</v>
+        <v>329456</v>
       </c>
       <c r="AF21" s="17">
-        <v>353012</v>
+        <v>285926</v>
       </c>
       <c r="AG21" s="17">
-        <v>329456</v>
+        <v>334629</v>
       </c>
       <c r="AH21" s="17">
-        <v>285926</v>
+        <v>237952</v>
       </c>
       <c r="AI21" s="17">
-        <v>334629</v>
+        <v>353585</v>
       </c>
       <c r="AJ21" s="17">
-        <v>237952</v>
+        <v>271394</v>
       </c>
       <c r="AK21" s="17">
-        <v>353585</v>
+        <v>287339</v>
       </c>
       <c r="AL21" s="17">
-        <v>271394</v>
+        <v>218598</v>
       </c>
       <c r="AM21" s="17">
-        <v>287339</v>
+        <v>354737</v>
       </c>
       <c r="AN21" s="17">
-        <v>218598</v>
+        <v>362094</v>
       </c>
       <c r="AO21" s="17">
-        <v>354737</v>
+        <v>301567</v>
       </c>
       <c r="AP21" s="17">
-        <v>362094</v>
+        <v>279611</v>
       </c>
       <c r="AQ21" s="17">
-        <v>301567</v>
+        <v>324491</v>
       </c>
       <c r="AR21" s="17">
-        <v>279611</v>
+        <v>335799</v>
       </c>
       <c r="AS21" s="17">
-        <v>324491</v>
+        <v>270539</v>
       </c>
       <c r="AT21" s="17">
-        <v>335799</v>
+        <v>208505</v>
       </c>
       <c r="AU21" s="17">
-        <v>270539</v>
+        <v>355950</v>
       </c>
       <c r="AV21" s="17">
-        <v>257822</v>
+        <v>356064</v>
       </c>
       <c r="AW21" s="17">
-        <v>355950</v>
+        <v>330706</v>
       </c>
       <c r="AX21" s="17">
-        <v>356064</v>
+        <v>298225</v>
       </c>
       <c r="AY21" s="17">
-        <v>330706</v>
+        <v>252542</v>
       </c>
       <c r="AZ21" s="17">
-        <v>310588</v>
+        <v>418294</v>
       </c>
       <c r="BA21" s="17">
-        <v>252722</v>
+        <v>404227</v>
       </c>
       <c r="BB21" s="17">
-        <v>418294</v>
+        <v>384279</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3522,154 +3522,154 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>3680000</v>
+        <v>10875000</v>
       </c>
       <c r="F28" s="11">
-        <v>18800740</v>
+        <v>180600</v>
       </c>
       <c r="G28" s="11">
-        <v>10875000</v>
+        <v>1545390</v>
       </c>
       <c r="H28" s="11">
-        <v>180600</v>
+        <v>7814740</v>
       </c>
       <c r="I28" s="11">
-        <v>1545390</v>
+        <v>1303190</v>
       </c>
       <c r="J28" s="11">
-        <v>7814740</v>
+        <v>0</v>
       </c>
       <c r="K28" s="11">
-        <v>1303190</v>
+        <v>3259800</v>
       </c>
       <c r="L28" s="11">
-        <v>0</v>
+        <v>2299850</v>
       </c>
       <c r="M28" s="11">
-        <v>3259800</v>
+        <v>18308480</v>
       </c>
       <c r="N28" s="11">
-        <v>2299850</v>
+        <v>12168990</v>
       </c>
       <c r="O28" s="11">
-        <v>18308480</v>
+        <v>14552100</v>
       </c>
       <c r="P28" s="11">
-        <v>12168990</v>
+        <v>13785790</v>
       </c>
       <c r="Q28" s="11">
-        <v>14552100</v>
+        <v>15481152</v>
       </c>
       <c r="R28" s="11">
-        <v>13785790</v>
+        <v>7851220</v>
       </c>
       <c r="S28" s="11">
-        <v>15481152</v>
+        <v>10056320</v>
       </c>
       <c r="T28" s="11">
-        <v>7851220</v>
+        <v>4907520</v>
       </c>
       <c r="U28" s="11">
-        <v>10056320</v>
+        <v>9034000</v>
       </c>
       <c r="V28" s="11">
-        <v>4907520</v>
+        <v>2855</v>
       </c>
       <c r="W28" s="11">
-        <v>9034000</v>
+        <v>12487</v>
       </c>
       <c r="X28" s="11">
-        <v>2855</v>
+        <v>16532</v>
       </c>
       <c r="Y28" s="11">
-        <v>12487</v>
+        <v>12375</v>
       </c>
       <c r="Z28" s="11">
-        <v>16532</v>
+        <v>3506</v>
       </c>
       <c r="AA28" s="11">
-        <v>12375</v>
+        <v>8122</v>
       </c>
       <c r="AB28" s="11">
-        <v>3506</v>
+        <v>10724</v>
       </c>
       <c r="AC28" s="11">
-        <v>8122</v>
+        <v>2180</v>
       </c>
       <c r="AD28" s="11">
-        <v>10724</v>
+        <v>11142</v>
       </c>
       <c r="AE28" s="11">
-        <v>2180</v>
+        <v>2937</v>
       </c>
       <c r="AF28" s="11">
-        <v>11142</v>
+        <v>9547</v>
       </c>
       <c r="AG28" s="11">
-        <v>2937</v>
+        <v>12648</v>
       </c>
       <c r="AH28" s="11">
-        <v>9547</v>
+        <v>1331</v>
       </c>
       <c r="AI28" s="11">
-        <v>12648</v>
+        <v>10411</v>
       </c>
       <c r="AJ28" s="11">
-        <v>1331</v>
+        <v>10400</v>
       </c>
       <c r="AK28" s="11">
-        <v>10411</v>
+        <v>10400</v>
       </c>
       <c r="AL28" s="11">
-        <v>10400</v>
+        <v>15100</v>
       </c>
       <c r="AM28" s="11">
-        <v>10400</v>
+        <v>20558</v>
       </c>
       <c r="AN28" s="11">
-        <v>15100</v>
+        <v>17286</v>
       </c>
       <c r="AO28" s="11">
-        <v>20558</v>
+        <v>14121</v>
       </c>
       <c r="AP28" s="11">
-        <v>17286</v>
+        <v>6933</v>
       </c>
       <c r="AQ28" s="11">
-        <v>14121</v>
+        <v>16008</v>
       </c>
       <c r="AR28" s="11">
-        <v>6933</v>
+        <v>16339</v>
       </c>
       <c r="AS28" s="11">
-        <v>16008</v>
+        <v>5284</v>
       </c>
       <c r="AT28" s="11">
-        <v>16339</v>
+        <v>9425</v>
       </c>
       <c r="AU28" s="11">
-        <v>5284</v>
+        <v>14611</v>
       </c>
       <c r="AV28" s="11">
-        <v>9425</v>
+        <v>10877</v>
       </c>
       <c r="AW28" s="11">
-        <v>14611</v>
+        <v>6751</v>
       </c>
       <c r="AX28" s="11">
-        <v>10877</v>
+        <v>24094</v>
       </c>
       <c r="AY28" s="11">
-        <v>6751</v>
+        <v>6455</v>
       </c>
       <c r="AZ28" s="11">
-        <v>24094</v>
+        <v>10072</v>
       </c>
       <c r="BA28" s="11">
-        <v>6455</v>
+        <v>7454</v>
       </c>
       <c r="BB28" s="11">
-        <v>10072</v>
+        <v>11236</v>
       </c>
     </row>
     <row r="29" spans="2:54" x14ac:dyDescent="0.3">
@@ -3731,89 +3731,89 @@
       <c r="U29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V29" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W29" s="13" t="s">
-        <v>58</v>
+      <c r="V29" s="13">
+        <v>137085</v>
+      </c>
+      <c r="W29" s="13">
+        <v>216993</v>
       </c>
       <c r="X29" s="13">
-        <v>137085</v>
+        <v>190755</v>
       </c>
       <c r="Y29" s="13">
-        <v>216993</v>
+        <v>259464</v>
       </c>
       <c r="Z29" s="13">
-        <v>190755</v>
+        <v>290475</v>
       </c>
       <c r="AA29" s="13">
-        <v>259464</v>
+        <v>345930</v>
       </c>
       <c r="AB29" s="13">
-        <v>290475</v>
+        <v>226218</v>
       </c>
       <c r="AC29" s="13">
-        <v>345930</v>
+        <v>319178</v>
       </c>
       <c r="AD29" s="13">
-        <v>226218</v>
+        <v>330991</v>
       </c>
       <c r="AE29" s="13">
-        <v>319178</v>
+        <v>324522</v>
       </c>
       <c r="AF29" s="13">
-        <v>330991</v>
+        <v>283623</v>
       </c>
       <c r="AG29" s="13">
-        <v>324522</v>
+        <v>320708</v>
       </c>
       <c r="AH29" s="13">
-        <v>283623</v>
+        <v>213982</v>
       </c>
       <c r="AI29" s="13">
-        <v>320708</v>
+        <v>372952</v>
       </c>
       <c r="AJ29" s="13">
-        <v>213982</v>
+        <v>328574</v>
       </c>
       <c r="AK29" s="13">
-        <v>372952</v>
+        <v>296840</v>
       </c>
       <c r="AL29" s="13">
-        <v>328574</v>
+        <v>205151</v>
       </c>
       <c r="AM29" s="13">
-        <v>296840</v>
+        <v>364175</v>
       </c>
       <c r="AN29" s="13">
-        <v>205151</v>
+        <v>350725</v>
       </c>
       <c r="AO29" s="13">
-        <v>364175</v>
+        <v>262978</v>
       </c>
       <c r="AP29" s="13">
-        <v>350725</v>
+        <v>265830</v>
       </c>
       <c r="AQ29" s="13">
-        <v>262978</v>
+        <v>274767</v>
       </c>
       <c r="AR29" s="13">
-        <v>265830</v>
+        <v>284009</v>
       </c>
       <c r="AS29" s="13">
-        <v>274767</v>
+        <v>306228</v>
       </c>
       <c r="AT29" s="13">
-        <v>284009</v>
+        <v>239273</v>
       </c>
       <c r="AU29" s="13">
-        <v>306228</v>
-      </c>
-      <c r="AV29" s="13">
-        <v>239273</v>
-      </c>
-      <c r="AW29" s="13">
         <v>252795</v>
+      </c>
+      <c r="AV29" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW29" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX29" s="13" t="s">
         <v>58</v>
@@ -3840,154 +3840,154 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>44303</v>
+        <v>53963</v>
       </c>
       <c r="F30" s="11">
-        <v>35751</v>
+        <v>54469</v>
       </c>
       <c r="G30" s="11">
-        <v>53963</v>
+        <v>39647</v>
       </c>
       <c r="H30" s="11">
-        <v>54469</v>
+        <v>3975</v>
       </c>
       <c r="I30" s="11">
-        <v>39647</v>
+        <v>697</v>
       </c>
       <c r="J30" s="11">
-        <v>3975</v>
+        <v>0</v>
       </c>
       <c r="K30" s="11">
-        <v>697</v>
+        <v>0</v>
       </c>
       <c r="L30" s="11">
         <v>0</v>
       </c>
       <c r="M30" s="11">
-        <v>0</v>
+        <v>12475</v>
       </c>
       <c r="N30" s="11">
-        <v>0</v>
+        <v>37170</v>
       </c>
       <c r="O30" s="11">
-        <v>12475</v>
+        <v>45701</v>
       </c>
       <c r="P30" s="11">
-        <v>37170</v>
+        <v>109913</v>
       </c>
       <c r="Q30" s="11">
-        <v>45701</v>
+        <v>98036</v>
       </c>
       <c r="R30" s="11">
-        <v>109913</v>
+        <v>126779</v>
       </c>
       <c r="S30" s="11">
-        <v>98036</v>
+        <v>85344</v>
       </c>
       <c r="T30" s="11">
-        <v>126779</v>
+        <v>102450</v>
       </c>
       <c r="U30" s="11">
-        <v>85344</v>
+        <v>0</v>
       </c>
       <c r="V30" s="11">
-        <v>102450</v>
+        <v>63</v>
       </c>
       <c r="W30" s="11">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="X30" s="11">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="Y30" s="11">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="Z30" s="11">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="AA30" s="11">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="AB30" s="11">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="AC30" s="11">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="AD30" s="11">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AE30" s="11">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="AF30" s="11">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AG30" s="11">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="AH30" s="11">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="AI30" s="11">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AJ30" s="11">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="AK30" s="11">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="AL30" s="11">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AM30" s="11">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AN30" s="11">
-        <v>101</v>
+        <v>159</v>
       </c>
       <c r="AO30" s="11">
-        <v>150</v>
+        <v>124</v>
       </c>
       <c r="AP30" s="11">
-        <v>159</v>
+        <v>102</v>
       </c>
       <c r="AQ30" s="11">
-        <v>124</v>
+        <v>25</v>
       </c>
       <c r="AR30" s="11">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="AS30" s="11">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="AT30" s="11">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="AU30" s="11">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="AV30" s="11">
-        <v>65</v>
+        <v>237</v>
       </c>
       <c r="AW30" s="11">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="AX30" s="11">
-        <v>237</v>
+        <v>23</v>
       </c>
       <c r="AY30" s="11">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="AZ30" s="11">
-        <v>2363</v>
+        <v>45</v>
       </c>
       <c r="BA30" s="11">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="BB30" s="11">
-        <v>45</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:54" x14ac:dyDescent="0.3">
@@ -3999,61 +3999,61 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>272428670</v>
+        <v>284564400</v>
       </c>
       <c r="F31" s="13">
-        <v>148485705</v>
+        <v>253767397</v>
       </c>
       <c r="G31" s="13">
-        <v>284564400</v>
+        <v>226798781</v>
       </c>
       <c r="H31" s="13">
-        <v>253767397</v>
+        <v>197883664</v>
       </c>
       <c r="I31" s="13">
-        <v>226798781</v>
+        <v>194144920</v>
       </c>
       <c r="J31" s="13">
-        <v>197883664</v>
+        <v>148278170</v>
       </c>
       <c r="K31" s="13">
-        <v>194144920</v>
+        <v>201674660</v>
       </c>
       <c r="L31" s="13">
-        <v>148278170</v>
+        <v>199331900</v>
       </c>
       <c r="M31" s="13">
-        <v>201674660</v>
+        <v>174032940</v>
       </c>
       <c r="N31" s="13">
-        <v>199331900</v>
+        <v>228109280</v>
       </c>
       <c r="O31" s="13">
-        <v>174032940</v>
+        <v>263966760</v>
       </c>
       <c r="P31" s="13">
-        <v>228109280</v>
+        <v>262244240</v>
       </c>
       <c r="Q31" s="13">
-        <v>263966760</v>
+        <v>313954180</v>
       </c>
       <c r="R31" s="13">
-        <v>262244240</v>
+        <v>255855550</v>
       </c>
       <c r="S31" s="13">
-        <v>313954180</v>
+        <v>332460370</v>
       </c>
       <c r="T31" s="13">
-        <v>255855550</v>
+        <v>265046590</v>
       </c>
       <c r="U31" s="13">
-        <v>332460370</v>
-      </c>
-      <c r="V31" s="13">
-        <v>265046590</v>
-      </c>
-      <c r="W31" s="13">
         <v>193394230</v>
+      </c>
+      <c r="V31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W31" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="X31" s="13" t="s">
         <v>58</v>
@@ -4158,61 +4158,61 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>510636</v>
+        <v>470566</v>
       </c>
       <c r="F32" s="11">
-        <v>539303</v>
+        <v>887106</v>
       </c>
       <c r="G32" s="11">
-        <v>470566</v>
+        <v>839238</v>
       </c>
       <c r="H32" s="11">
-        <v>887106</v>
+        <v>557758</v>
       </c>
       <c r="I32" s="11">
-        <v>839238</v>
+        <v>415072</v>
       </c>
       <c r="J32" s="11">
-        <v>557758</v>
+        <v>498009</v>
       </c>
       <c r="K32" s="11">
-        <v>415072</v>
+        <v>437427</v>
       </c>
       <c r="L32" s="11">
-        <v>498009</v>
+        <v>653354</v>
       </c>
       <c r="M32" s="11">
-        <v>437427</v>
+        <v>447723</v>
       </c>
       <c r="N32" s="11">
-        <v>653354</v>
+        <v>852737</v>
       </c>
       <c r="O32" s="11">
-        <v>447723</v>
+        <v>750481</v>
       </c>
       <c r="P32" s="11">
-        <v>852737</v>
+        <v>914960</v>
       </c>
       <c r="Q32" s="11">
-        <v>750481</v>
+        <v>828386</v>
       </c>
       <c r="R32" s="11">
-        <v>914960</v>
+        <v>820771</v>
       </c>
       <c r="S32" s="11">
-        <v>828386</v>
+        <v>688739</v>
       </c>
       <c r="T32" s="11">
-        <v>820771</v>
+        <v>737207</v>
       </c>
       <c r="U32" s="11">
-        <v>688739</v>
-      </c>
-      <c r="V32" s="11">
-        <v>737207</v>
-      </c>
-      <c r="W32" s="11">
         <v>731761</v>
+      </c>
+      <c r="V32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W32" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="X32" s="11" t="s">
         <v>58</v>
@@ -4367,104 +4367,104 @@
       <c r="U33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W33" s="13" t="s">
-        <v>58</v>
+      <c r="V33" s="13">
+        <v>653</v>
+      </c>
+      <c r="W33" s="13">
+        <v>829</v>
       </c>
       <c r="X33" s="13">
-        <v>653</v>
+        <v>882</v>
       </c>
       <c r="Y33" s="13">
-        <v>829</v>
+        <v>761</v>
       </c>
       <c r="Z33" s="13">
-        <v>882</v>
+        <v>1133</v>
       </c>
       <c r="AA33" s="13">
-        <v>761</v>
+        <v>1053</v>
       </c>
       <c r="AB33" s="13">
-        <v>1133</v>
+        <v>684</v>
       </c>
       <c r="AC33" s="13">
-        <v>1053</v>
+        <v>742</v>
       </c>
       <c r="AD33" s="13">
-        <v>684</v>
+        <v>984</v>
       </c>
       <c r="AE33" s="13">
-        <v>742</v>
+        <v>800</v>
       </c>
       <c r="AF33" s="13">
-        <v>984</v>
+        <v>843</v>
       </c>
       <c r="AG33" s="13">
-        <v>800</v>
+        <v>469</v>
       </c>
       <c r="AH33" s="13">
-        <v>843</v>
+        <v>466</v>
       </c>
       <c r="AI33" s="13">
-        <v>469</v>
+        <v>1154</v>
       </c>
       <c r="AJ33" s="13">
-        <v>466</v>
+        <v>938</v>
       </c>
       <c r="AK33" s="13">
-        <v>1154</v>
+        <v>938</v>
       </c>
       <c r="AL33" s="13">
-        <v>938</v>
+        <v>681</v>
       </c>
       <c r="AM33" s="13">
-        <v>938</v>
+        <v>675</v>
       </c>
       <c r="AN33" s="13">
-        <v>681</v>
+        <v>874</v>
       </c>
       <c r="AO33" s="13">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="AP33" s="13">
-        <v>874</v>
+        <v>786</v>
       </c>
       <c r="AQ33" s="13">
-        <v>690</v>
+        <v>555</v>
       </c>
       <c r="AR33" s="13">
-        <v>786</v>
+        <v>1046</v>
       </c>
       <c r="AS33" s="13">
-        <v>555</v>
+        <v>1009</v>
       </c>
       <c r="AT33" s="13">
-        <v>1046</v>
+        <v>501</v>
       </c>
       <c r="AU33" s="13">
-        <v>1009</v>
+        <v>859</v>
       </c>
       <c r="AV33" s="13">
-        <v>501</v>
+        <v>776</v>
       </c>
       <c r="AW33" s="13">
-        <v>859</v>
+        <v>485</v>
       </c>
       <c r="AX33" s="13">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="AY33" s="13">
-        <v>485</v>
+        <v>290</v>
       </c>
       <c r="AZ33" s="13">
-        <v>793</v>
+        <v>414</v>
       </c>
       <c r="BA33" s="13">
-        <v>470</v>
+        <v>1650</v>
       </c>
       <c r="BB33" s="13">
-        <v>414</v>
+        <v>1388</v>
       </c>
     </row>
     <row r="34" spans="2:54" x14ac:dyDescent="0.3">
@@ -4604,26 +4604,26 @@
       <c r="AU34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW34" s="11" t="s">
-        <v>58</v>
+      <c r="AV34" s="11">
+        <v>371793</v>
+      </c>
+      <c r="AW34" s="11">
+        <v>271081</v>
       </c>
       <c r="AX34" s="11">
-        <v>371793</v>
+        <v>303542</v>
       </c>
       <c r="AY34" s="11">
-        <v>271081</v>
+        <v>184058</v>
       </c>
       <c r="AZ34" s="11">
-        <v>301048</v>
+        <v>426346</v>
       </c>
       <c r="BA34" s="11">
-        <v>187590</v>
+        <v>418527</v>
       </c>
       <c r="BB34" s="11">
-        <v>426346</v>
+        <v>332840</v>
       </c>
     </row>
     <row r="35" spans="2:54" x14ac:dyDescent="0.3">
@@ -4778,14 +4778,14 @@
       <c r="AG36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH36" s="11" t="s">
-        <v>58</v>
+      <c r="AH36" s="11">
+        <v>0</v>
       </c>
       <c r="AI36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AJ36" s="11">
-        <v>0</v>
+      <c r="AJ36" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AK36" s="11" t="s">
         <v>58</v>
@@ -4908,11 +4908,11 @@
       <c r="X37" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y37" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z37" s="15" t="s">
-        <v>58</v>
+      <c r="Y37" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="15">
+        <v>0</v>
       </c>
       <c r="AA37" s="15">
         <v>0</v>
@@ -5122,11 +5122,11 @@
       <c r="X39" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y39" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z39" s="17" t="s">
-        <v>58</v>
+      <c r="Y39" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="17">
+        <v>0</v>
       </c>
       <c r="AA39" s="17">
         <v>0</v>
@@ -5220,154 +5220,154 @@
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15">
-        <v>276663609</v>
+        <v>295963929</v>
       </c>
       <c r="F40" s="15">
-        <v>167861499</v>
+        <v>254889572</v>
       </c>
       <c r="G40" s="15">
-        <v>295963929</v>
+        <v>229223056</v>
       </c>
       <c r="H40" s="15">
-        <v>254889572</v>
+        <v>206260137</v>
       </c>
       <c r="I40" s="15">
-        <v>229223056</v>
+        <v>195863879</v>
       </c>
       <c r="J40" s="15">
-        <v>206260137</v>
+        <v>148776179</v>
       </c>
       <c r="K40" s="15">
-        <v>195863879</v>
+        <v>205371887</v>
       </c>
       <c r="L40" s="15">
-        <v>148776179</v>
+        <v>202285104</v>
       </c>
       <c r="M40" s="15">
-        <v>205371887</v>
+        <v>192801618</v>
       </c>
       <c r="N40" s="15">
-        <v>202285104</v>
+        <v>241168177</v>
       </c>
       <c r="O40" s="15">
-        <v>192801618</v>
+        <v>279315042</v>
       </c>
       <c r="P40" s="15">
-        <v>241168177</v>
+        <v>277054903</v>
       </c>
       <c r="Q40" s="15">
-        <v>279315042</v>
+        <v>330361754</v>
       </c>
       <c r="R40" s="15">
-        <v>277054903</v>
+        <v>264654320</v>
       </c>
       <c r="S40" s="15">
-        <v>330361754</v>
+        <v>343290773</v>
       </c>
       <c r="T40" s="15">
-        <v>264654320</v>
+        <v>270793767</v>
       </c>
       <c r="U40" s="15">
-        <v>343290773</v>
+        <v>203159991</v>
       </c>
       <c r="V40" s="15">
-        <v>270793767</v>
+        <v>140656</v>
       </c>
       <c r="W40" s="15">
-        <v>203159991</v>
+        <v>230402</v>
       </c>
       <c r="X40" s="15">
-        <v>140656</v>
+        <v>208223</v>
       </c>
       <c r="Y40" s="15">
-        <v>230402</v>
+        <v>272707</v>
       </c>
       <c r="Z40" s="15">
-        <v>208223</v>
+        <v>295206</v>
       </c>
       <c r="AA40" s="15">
-        <v>272707</v>
+        <v>355176</v>
       </c>
       <c r="AB40" s="15">
-        <v>295206</v>
+        <v>237693</v>
       </c>
       <c r="AC40" s="15">
-        <v>355176</v>
+        <v>322183</v>
       </c>
       <c r="AD40" s="15">
-        <v>237693</v>
+        <v>343168</v>
       </c>
       <c r="AE40" s="15">
-        <v>322183</v>
+        <v>328280</v>
       </c>
       <c r="AF40" s="15">
-        <v>343168</v>
+        <v>294107</v>
       </c>
       <c r="AG40" s="15">
-        <v>328280</v>
+        <v>333889</v>
       </c>
       <c r="AH40" s="15">
-        <v>294107</v>
+        <v>215814</v>
       </c>
       <c r="AI40" s="15">
-        <v>333889</v>
+        <v>384616</v>
       </c>
       <c r="AJ40" s="15">
-        <v>215814</v>
+        <v>339973</v>
       </c>
       <c r="AK40" s="15">
-        <v>384616</v>
+        <v>308240</v>
       </c>
       <c r="AL40" s="15">
-        <v>339973</v>
+        <v>221033</v>
       </c>
       <c r="AM40" s="15">
-        <v>308240</v>
+        <v>385558</v>
       </c>
       <c r="AN40" s="15">
-        <v>221033</v>
+        <v>369044</v>
       </c>
       <c r="AO40" s="15">
-        <v>385558</v>
+        <v>277913</v>
       </c>
       <c r="AP40" s="15">
-        <v>369044</v>
+        <v>273651</v>
       </c>
       <c r="AQ40" s="15">
-        <v>277913</v>
+        <v>291355</v>
       </c>
       <c r="AR40" s="15">
-        <v>273651</v>
+        <v>301472</v>
       </c>
       <c r="AS40" s="15">
-        <v>291355</v>
+        <v>312598</v>
       </c>
       <c r="AT40" s="15">
-        <v>301472</v>
+        <v>249264</v>
       </c>
       <c r="AU40" s="15">
-        <v>312598</v>
+        <v>268318</v>
       </c>
       <c r="AV40" s="15">
-        <v>249264</v>
+        <v>383683</v>
       </c>
       <c r="AW40" s="15">
-        <v>268318</v>
+        <v>278317</v>
       </c>
       <c r="AX40" s="15">
-        <v>383683</v>
+        <v>328452</v>
       </c>
       <c r="AY40" s="15">
-        <v>278317</v>
+        <v>190839</v>
       </c>
       <c r="AZ40" s="15">
-        <v>328298</v>
+        <v>436877</v>
       </c>
       <c r="BA40" s="15">
-        <v>194551</v>
+        <v>427644</v>
       </c>
       <c r="BB40" s="15">
-        <v>436877</v>
+        <v>345464</v>
       </c>
     </row>
     <row r="41" spans="2:54" x14ac:dyDescent="0.3">
@@ -5813,154 +5813,154 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>21377</v>
+        <v>19010</v>
       </c>
       <c r="F47" s="11">
-        <v>54303</v>
+        <v>3977</v>
       </c>
       <c r="G47" s="11">
-        <v>19010</v>
+        <v>3563</v>
       </c>
       <c r="H47" s="11">
-        <v>3977</v>
+        <v>8931</v>
       </c>
       <c r="I47" s="11">
-        <v>3563</v>
+        <v>1402</v>
       </c>
       <c r="J47" s="11">
-        <v>8931</v>
+        <v>0</v>
       </c>
       <c r="K47" s="11">
-        <v>1402</v>
+        <v>6494</v>
       </c>
       <c r="L47" s="11">
-        <v>0</v>
+        <v>2401</v>
       </c>
       <c r="M47" s="11">
-        <v>6494</v>
+        <v>48770</v>
       </c>
       <c r="N47" s="11">
-        <v>2401</v>
+        <v>26761</v>
       </c>
       <c r="O47" s="11">
-        <v>48770</v>
+        <v>24062</v>
       </c>
       <c r="P47" s="11">
-        <v>26761</v>
+        <v>39518</v>
       </c>
       <c r="Q47" s="11">
-        <v>24062</v>
+        <v>32645</v>
       </c>
       <c r="R47" s="11">
-        <v>39518</v>
+        <v>23608</v>
       </c>
       <c r="S47" s="11">
-        <v>32645</v>
+        <v>21730</v>
       </c>
       <c r="T47" s="11">
-        <v>23608</v>
+        <v>13248</v>
       </c>
       <c r="U47" s="11">
-        <v>21730</v>
+        <v>23967</v>
       </c>
       <c r="V47" s="11">
-        <v>13248</v>
+        <v>6762</v>
       </c>
       <c r="W47" s="11">
-        <v>23967</v>
+        <v>40483</v>
       </c>
       <c r="X47" s="11">
-        <v>6762</v>
+        <v>39604</v>
       </c>
       <c r="Y47" s="11">
-        <v>40483</v>
+        <v>37005</v>
       </c>
       <c r="Z47" s="11">
-        <v>39604</v>
+        <v>5457</v>
       </c>
       <c r="AA47" s="11">
-        <v>37005</v>
+        <v>16515</v>
       </c>
       <c r="AB47" s="11">
-        <v>5457</v>
+        <v>39129</v>
       </c>
       <c r="AC47" s="11">
-        <v>16515</v>
+        <v>11941</v>
       </c>
       <c r="AD47" s="11">
-        <v>39129</v>
+        <v>26706</v>
       </c>
       <c r="AE47" s="11">
-        <v>11941</v>
+        <v>2221</v>
       </c>
       <c r="AF47" s="11">
-        <v>26706</v>
+        <v>22884</v>
       </c>
       <c r="AG47" s="11">
-        <v>2221</v>
+        <v>29431</v>
       </c>
       <c r="AH47" s="11">
-        <v>22884</v>
+        <v>8282</v>
       </c>
       <c r="AI47" s="11">
-        <v>29431</v>
+        <v>68285</v>
       </c>
       <c r="AJ47" s="11">
-        <v>8282</v>
+        <v>68212</v>
       </c>
       <c r="AK47" s="11">
-        <v>68285</v>
+        <v>68212</v>
       </c>
       <c r="AL47" s="11">
-        <v>68212</v>
+        <v>103575</v>
       </c>
       <c r="AM47" s="11">
-        <v>68212</v>
+        <v>92534</v>
       </c>
       <c r="AN47" s="11">
-        <v>103575</v>
+        <v>47591</v>
       </c>
       <c r="AO47" s="11">
-        <v>92534</v>
+        <v>72237</v>
       </c>
       <c r="AP47" s="11">
-        <v>47591</v>
+        <v>22570</v>
       </c>
       <c r="AQ47" s="11">
-        <v>72237</v>
+        <v>70012</v>
       </c>
       <c r="AR47" s="11">
-        <v>22570</v>
+        <v>63242</v>
       </c>
       <c r="AS47" s="11">
-        <v>70012</v>
+        <v>24151</v>
       </c>
       <c r="AT47" s="11">
-        <v>63242</v>
+        <v>52613</v>
       </c>
       <c r="AU47" s="11">
-        <v>24151</v>
+        <v>46181</v>
       </c>
       <c r="AV47" s="11">
-        <v>52613</v>
+        <v>37662</v>
       </c>
       <c r="AW47" s="11">
-        <v>46181</v>
+        <v>32597</v>
       </c>
       <c r="AX47" s="11">
-        <v>37662</v>
+        <v>141359</v>
       </c>
       <c r="AY47" s="11">
-        <v>32597</v>
+        <v>54050</v>
       </c>
       <c r="AZ47" s="11">
-        <v>141359</v>
+        <v>76864</v>
       </c>
       <c r="BA47" s="11">
-        <v>54050</v>
+        <v>43788</v>
       </c>
       <c r="BB47" s="11">
-        <v>76864</v>
+        <v>70948</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6022,89 +6022,89 @@
       <c r="U48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W48" s="13" t="s">
-        <v>58</v>
+      <c r="V48" s="13">
+        <v>141947</v>
+      </c>
+      <c r="W48" s="13">
+        <v>274981</v>
       </c>
       <c r="X48" s="13">
-        <v>141947</v>
+        <v>292600</v>
       </c>
       <c r="Y48" s="13">
-        <v>274981</v>
+        <v>353228</v>
       </c>
       <c r="Z48" s="13">
-        <v>292600</v>
+        <v>474170</v>
       </c>
       <c r="AA48" s="13">
-        <v>353228</v>
+        <v>532462</v>
       </c>
       <c r="AB48" s="13">
-        <v>474170</v>
+        <v>404640</v>
       </c>
       <c r="AC48" s="13">
-        <v>532462</v>
+        <v>548260</v>
       </c>
       <c r="AD48" s="13">
-        <v>404640</v>
+        <v>609187</v>
       </c>
       <c r="AE48" s="13">
-        <v>548260</v>
+        <v>537573</v>
       </c>
       <c r="AF48" s="13">
-        <v>609187</v>
+        <v>522007</v>
       </c>
       <c r="AG48" s="13">
-        <v>537573</v>
+        <v>383702</v>
       </c>
       <c r="AH48" s="13">
-        <v>522007</v>
+        <v>275262</v>
       </c>
       <c r="AI48" s="13">
-        <v>383702</v>
+        <v>549012</v>
       </c>
       <c r="AJ48" s="13">
-        <v>275262</v>
+        <v>483686</v>
       </c>
       <c r="AK48" s="13">
-        <v>549012</v>
+        <v>463686</v>
       </c>
       <c r="AL48" s="13">
-        <v>483686</v>
+        <v>334781</v>
       </c>
       <c r="AM48" s="13">
-        <v>463686</v>
+        <v>530593</v>
       </c>
       <c r="AN48" s="13">
-        <v>334781</v>
+        <v>786507</v>
       </c>
       <c r="AO48" s="13">
-        <v>530593</v>
+        <v>576574</v>
       </c>
       <c r="AP48" s="13">
-        <v>786507</v>
+        <v>429011</v>
       </c>
       <c r="AQ48" s="13">
-        <v>576574</v>
+        <v>427910</v>
       </c>
       <c r="AR48" s="13">
-        <v>429011</v>
+        <v>406316</v>
       </c>
       <c r="AS48" s="13">
-        <v>427910</v>
+        <v>504960</v>
       </c>
       <c r="AT48" s="13">
-        <v>406316</v>
+        <v>421014</v>
       </c>
       <c r="AU48" s="13">
-        <v>504960</v>
-      </c>
-      <c r="AV48" s="13">
-        <v>421014</v>
-      </c>
-      <c r="AW48" s="13">
         <v>458952</v>
+      </c>
+      <c r="AV48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW48" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX48" s="13" t="s">
         <v>58</v>
@@ -6131,154 +6131,154 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>7364</v>
+        <v>5692</v>
       </c>
       <c r="F49" s="11">
-        <v>6345</v>
+        <v>10701</v>
       </c>
       <c r="G49" s="11">
-        <v>5692</v>
+        <v>6402</v>
       </c>
       <c r="H49" s="11">
-        <v>10701</v>
+        <v>60</v>
       </c>
       <c r="I49" s="11">
-        <v>6402</v>
+        <v>8</v>
       </c>
       <c r="J49" s="11">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="K49" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="L49" s="11">
         <v>0</v>
       </c>
       <c r="M49" s="11">
-        <v>0</v>
+        <v>2353</v>
       </c>
       <c r="N49" s="11">
-        <v>0</v>
+        <v>7009</v>
       </c>
       <c r="O49" s="11">
-        <v>2353</v>
+        <v>8441</v>
       </c>
       <c r="P49" s="11">
-        <v>7009</v>
+        <v>20385</v>
       </c>
       <c r="Q49" s="11">
-        <v>8441</v>
+        <v>11434</v>
       </c>
       <c r="R49" s="11">
-        <v>20385</v>
+        <v>24055</v>
       </c>
       <c r="S49" s="11">
-        <v>11434</v>
+        <v>12618</v>
       </c>
       <c r="T49" s="11">
-        <v>24055</v>
+        <v>7223</v>
       </c>
       <c r="U49" s="11">
-        <v>12618</v>
+        <v>0</v>
       </c>
       <c r="V49" s="11">
-        <v>7223</v>
+        <v>4861</v>
       </c>
       <c r="W49" s="11">
-        <v>0</v>
+        <v>17593</v>
       </c>
       <c r="X49" s="11">
-        <v>4861</v>
+        <v>10007</v>
       </c>
       <c r="Y49" s="11">
-        <v>17593</v>
+        <v>20181</v>
       </c>
       <c r="Z49" s="11">
-        <v>10007</v>
+        <v>16628</v>
       </c>
       <c r="AA49" s="11">
-        <v>20181</v>
+        <v>13083</v>
       </c>
       <c r="AB49" s="11">
-        <v>16628</v>
+        <v>9166</v>
       </c>
       <c r="AC49" s="11">
-        <v>13083</v>
+        <v>14008</v>
       </c>
       <c r="AD49" s="11">
-        <v>9166</v>
+        <v>9208</v>
       </c>
       <c r="AE49" s="11">
-        <v>14008</v>
+        <v>1236</v>
       </c>
       <c r="AF49" s="11">
-        <v>9208</v>
+        <v>17009</v>
       </c>
       <c r="AG49" s="11">
-        <v>1236</v>
+        <v>3272</v>
       </c>
       <c r="AH49" s="11">
-        <v>17009</v>
+        <v>6634</v>
       </c>
       <c r="AI49" s="11">
-        <v>3272</v>
+        <v>19912</v>
       </c>
       <c r="AJ49" s="11">
-        <v>6634</v>
+        <v>12402</v>
       </c>
       <c r="AK49" s="11">
-        <v>19912</v>
+        <v>12402</v>
       </c>
       <c r="AL49" s="11">
-        <v>12402</v>
+        <v>20211</v>
       </c>
       <c r="AM49" s="11">
-        <v>12402</v>
+        <v>42188</v>
       </c>
       <c r="AN49" s="11">
-        <v>20211</v>
+        <v>5677</v>
       </c>
       <c r="AO49" s="11">
-        <v>42188</v>
+        <v>4572</v>
       </c>
       <c r="AP49" s="11">
-        <v>5677</v>
+        <v>1923</v>
       </c>
       <c r="AQ49" s="11">
-        <v>4572</v>
+        <v>467</v>
       </c>
       <c r="AR49" s="11">
-        <v>1923</v>
+        <v>1645</v>
       </c>
       <c r="AS49" s="11">
-        <v>467</v>
+        <v>2503</v>
       </c>
       <c r="AT49" s="11">
-        <v>1645</v>
+        <v>2275</v>
       </c>
       <c r="AU49" s="11">
-        <v>2503</v>
+        <v>1812</v>
       </c>
       <c r="AV49" s="11">
-        <v>2275</v>
+        <v>17443</v>
       </c>
       <c r="AW49" s="11">
-        <v>1812</v>
+        <v>0</v>
       </c>
       <c r="AX49" s="11">
-        <v>17443</v>
+        <v>3636</v>
       </c>
       <c r="AY49" s="11">
-        <v>0</v>
+        <v>7361</v>
       </c>
       <c r="AZ49" s="11">
-        <v>3636</v>
+        <v>7658</v>
       </c>
       <c r="BA49" s="11">
-        <v>7361</v>
+        <v>3317</v>
       </c>
       <c r="BB49" s="11">
-        <v>7658</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -6290,61 +6290,61 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>163958</v>
+        <v>221444</v>
       </c>
       <c r="F50" s="13">
-        <v>160861</v>
+        <v>222222</v>
       </c>
       <c r="G50" s="13">
-        <v>221444</v>
+        <v>189511</v>
       </c>
       <c r="H50" s="13">
-        <v>222222</v>
+        <v>221113</v>
       </c>
       <c r="I50" s="13">
-        <v>189511</v>
+        <v>175378</v>
       </c>
       <c r="J50" s="13">
-        <v>221113</v>
+        <v>151965</v>
       </c>
       <c r="K50" s="13">
-        <v>175378</v>
+        <v>221026</v>
       </c>
       <c r="L50" s="13">
-        <v>151965</v>
+        <v>221025</v>
       </c>
       <c r="M50" s="13">
-        <v>221026</v>
+        <v>238903</v>
       </c>
       <c r="N50" s="13">
-        <v>221025</v>
+        <v>248012</v>
       </c>
       <c r="O50" s="13">
-        <v>238903</v>
+        <v>270372</v>
       </c>
       <c r="P50" s="13">
-        <v>248012</v>
+        <v>327994</v>
       </c>
       <c r="Q50" s="13">
-        <v>270372</v>
+        <v>403272</v>
       </c>
       <c r="R50" s="13">
-        <v>327994</v>
+        <v>259584</v>
       </c>
       <c r="S50" s="13">
-        <v>403272</v>
+        <v>388782</v>
       </c>
       <c r="T50" s="13">
-        <v>259584</v>
+        <v>255443</v>
       </c>
       <c r="U50" s="13">
-        <v>388782</v>
-      </c>
-      <c r="V50" s="13">
-        <v>255443</v>
-      </c>
-      <c r="W50" s="13">
         <v>238964</v>
+      </c>
+      <c r="V50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W50" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="X50" s="13" t="s">
         <v>58</v>
@@ -6449,61 +6449,61 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>11346</v>
+        <v>18289</v>
       </c>
       <c r="F51" s="11">
-        <v>17139</v>
+        <v>26843</v>
       </c>
       <c r="G51" s="11">
-        <v>18289</v>
+        <v>24003</v>
       </c>
       <c r="H51" s="11">
-        <v>26843</v>
+        <v>19500</v>
       </c>
       <c r="I51" s="11">
-        <v>24003</v>
+        <v>10902</v>
       </c>
       <c r="J51" s="11">
-        <v>19500</v>
+        <v>13738</v>
       </c>
       <c r="K51" s="11">
-        <v>10902</v>
+        <v>13994</v>
       </c>
       <c r="L51" s="11">
-        <v>13738</v>
+        <v>18875</v>
       </c>
       <c r="M51" s="11">
-        <v>13994</v>
+        <v>16487</v>
       </c>
       <c r="N51" s="11">
-        <v>18875</v>
+        <v>30270</v>
       </c>
       <c r="O51" s="11">
-        <v>16487</v>
+        <v>23571</v>
       </c>
       <c r="P51" s="11">
-        <v>30270</v>
+        <v>25770</v>
       </c>
       <c r="Q51" s="11">
-        <v>23571</v>
+        <v>26803</v>
       </c>
       <c r="R51" s="11">
-        <v>25770</v>
+        <v>24553</v>
       </c>
       <c r="S51" s="11">
-        <v>26803</v>
+        <v>28021</v>
       </c>
       <c r="T51" s="11">
-        <v>24553</v>
+        <v>27165</v>
       </c>
       <c r="U51" s="11">
-        <v>28021</v>
-      </c>
-      <c r="V51" s="11">
-        <v>27165</v>
-      </c>
-      <c r="W51" s="11">
         <v>27693</v>
+      </c>
+      <c r="V51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="X51" s="11" t="s">
         <v>58</v>
@@ -6658,104 +6658,104 @@
       <c r="U52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W52" s="13" t="s">
-        <v>58</v>
+      <c r="V52" s="13">
+        <v>26240</v>
+      </c>
+      <c r="W52" s="13">
+        <v>27713</v>
       </c>
       <c r="X52" s="13">
-        <v>26240</v>
+        <v>29940</v>
       </c>
       <c r="Y52" s="13">
-        <v>27713</v>
+        <v>21231</v>
       </c>
       <c r="Z52" s="13">
-        <v>29940</v>
+        <v>44192</v>
       </c>
       <c r="AA52" s="13">
-        <v>21231</v>
+        <v>38078</v>
       </c>
       <c r="AB52" s="13">
-        <v>44192</v>
+        <v>26933</v>
       </c>
       <c r="AC52" s="13">
-        <v>38078</v>
+        <v>32868</v>
       </c>
       <c r="AD52" s="13">
-        <v>26933</v>
+        <v>56274</v>
       </c>
       <c r="AE52" s="13">
-        <v>32868</v>
+        <v>32842</v>
       </c>
       <c r="AF52" s="13">
-        <v>56274</v>
+        <v>48221</v>
       </c>
       <c r="AG52" s="13">
-        <v>32842</v>
+        <v>48161</v>
       </c>
       <c r="AH52" s="13">
-        <v>48221</v>
+        <v>28093</v>
       </c>
       <c r="AI52" s="13">
-        <v>48161</v>
+        <v>68657</v>
       </c>
       <c r="AJ52" s="13">
-        <v>28093</v>
+        <v>55810</v>
       </c>
       <c r="AK52" s="13">
-        <v>68657</v>
+        <v>55810</v>
       </c>
       <c r="AL52" s="13">
-        <v>55810</v>
+        <v>42539</v>
       </c>
       <c r="AM52" s="13">
-        <v>55810</v>
+        <v>38094</v>
       </c>
       <c r="AN52" s="13">
-        <v>42539</v>
+        <v>36617</v>
       </c>
       <c r="AO52" s="13">
-        <v>38094</v>
+        <v>47117</v>
       </c>
       <c r="AP52" s="13">
-        <v>36617</v>
+        <v>47097</v>
       </c>
       <c r="AQ52" s="13">
-        <v>47117</v>
+        <v>25504</v>
       </c>
       <c r="AR52" s="13">
-        <v>47097</v>
+        <v>99798</v>
       </c>
       <c r="AS52" s="13">
-        <v>25504</v>
+        <v>76587</v>
       </c>
       <c r="AT52" s="13">
-        <v>99798</v>
+        <v>32617</v>
       </c>
       <c r="AU52" s="13">
-        <v>76587</v>
+        <v>49479</v>
       </c>
       <c r="AV52" s="13">
-        <v>32617</v>
+        <v>44695</v>
       </c>
       <c r="AW52" s="13">
-        <v>49479</v>
+        <v>59455</v>
       </c>
       <c r="AX52" s="13">
-        <v>44695</v>
+        <v>85461</v>
       </c>
       <c r="AY52" s="13">
-        <v>59455</v>
+        <v>68977</v>
       </c>
       <c r="AZ52" s="13">
-        <v>85461</v>
+        <v>18343</v>
       </c>
       <c r="BA52" s="13">
-        <v>68977</v>
+        <v>115733</v>
       </c>
       <c r="BB52" s="13">
-        <v>18343</v>
+        <v>153300</v>
       </c>
     </row>
     <row r="53" spans="2:54" x14ac:dyDescent="0.3">
@@ -6895,26 +6895,26 @@
       <c r="AU53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW53" s="11" t="s">
-        <v>58</v>
+      <c r="AV53" s="11">
+        <v>706765</v>
+      </c>
+      <c r="AW53" s="11">
+        <v>750121</v>
       </c>
       <c r="AX53" s="11">
-        <v>706765</v>
+        <v>726860</v>
       </c>
       <c r="AY53" s="11">
-        <v>757101</v>
+        <v>1114746</v>
       </c>
       <c r="AZ53" s="11">
-        <v>821724</v>
+        <v>1158100</v>
       </c>
       <c r="BA53" s="11">
-        <v>1114746</v>
+        <v>1075729</v>
       </c>
       <c r="BB53" s="11">
-        <v>1158100</v>
+        <v>1062881</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7069,11 +7069,11 @@
       <c r="AG55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI55" s="11" t="s">
-        <v>58</v>
+      <c r="AH55" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="11">
+        <v>0</v>
       </c>
       <c r="AJ55" s="11">
         <v>0</v>
@@ -7105,11 +7105,11 @@
       <c r="AS55" s="11">
         <v>0</v>
       </c>
-      <c r="AT55" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU55" s="11">
-        <v>0</v>
+      <c r="AT55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV55" s="11" t="s">
         <v>58</v>
@@ -7201,11 +7201,11 @@
       <c r="X56" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y56" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z56" s="15" t="s">
-        <v>58</v>
+      <c r="Y56" s="15">
+        <v>0</v>
+      </c>
+      <c r="Z56" s="15">
+        <v>0</v>
       </c>
       <c r="AA56" s="15">
         <v>0</v>
@@ -7417,11 +7417,11 @@
       <c r="X58" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="Y58" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z58" s="17" t="s">
-        <v>58</v>
+      <c r="Y58" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z58" s="17">
+        <v>0</v>
       </c>
       <c r="AA58" s="17">
         <v>0</v>
@@ -7633,11 +7633,11 @@
       <c r="X60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="Z60" s="11" t="s">
-        <v>58</v>
+      <c r="Y60" s="11">
+        <v>0</v>
+      </c>
+      <c r="Z60" s="11">
+        <v>0</v>
       </c>
       <c r="AA60" s="11">
         <v>0</v>
@@ -7731,154 +7731,154 @@
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15">
-        <v>204045</v>
+        <v>264435</v>
       </c>
       <c r="F61" s="15">
-        <v>238648</v>
+        <v>263743</v>
       </c>
       <c r="G61" s="15">
-        <v>264435</v>
+        <v>223479</v>
       </c>
       <c r="H61" s="15">
-        <v>263743</v>
+        <v>249604</v>
       </c>
       <c r="I61" s="15">
-        <v>223479</v>
+        <v>187690</v>
       </c>
       <c r="J61" s="15">
-        <v>249604</v>
+        <v>165703</v>
       </c>
       <c r="K61" s="15">
-        <v>187690</v>
+        <v>241514</v>
       </c>
       <c r="L61" s="15">
-        <v>165703</v>
+        <v>242301</v>
       </c>
       <c r="M61" s="15">
-        <v>241514</v>
+        <v>306513</v>
       </c>
       <c r="N61" s="15">
-        <v>242301</v>
+        <v>312052</v>
       </c>
       <c r="O61" s="15">
-        <v>306513</v>
+        <v>326446</v>
       </c>
       <c r="P61" s="15">
-        <v>312052</v>
+        <v>413667</v>
       </c>
       <c r="Q61" s="15">
-        <v>326446</v>
+        <v>474154</v>
       </c>
       <c r="R61" s="15">
-        <v>413667</v>
+        <v>331800</v>
       </c>
       <c r="S61" s="15">
-        <v>474154</v>
+        <v>451151</v>
       </c>
       <c r="T61" s="15">
-        <v>331800</v>
+        <v>303079</v>
       </c>
       <c r="U61" s="15">
-        <v>451151</v>
+        <v>290624</v>
       </c>
       <c r="V61" s="15">
-        <v>303079</v>
+        <v>179810</v>
       </c>
       <c r="W61" s="15">
-        <v>290624</v>
+        <v>360770</v>
       </c>
       <c r="X61" s="15">
-        <v>179810</v>
+        <v>372151</v>
       </c>
       <c r="Y61" s="15">
-        <v>360770</v>
+        <v>431645</v>
       </c>
       <c r="Z61" s="15">
-        <v>372151</v>
+        <v>540447</v>
       </c>
       <c r="AA61" s="15">
-        <v>431645</v>
+        <v>600138</v>
       </c>
       <c r="AB61" s="15">
-        <v>540447</v>
+        <v>479868</v>
       </c>
       <c r="AC61" s="15">
-        <v>600138</v>
+        <v>607077</v>
       </c>
       <c r="AD61" s="15">
-        <v>479868</v>
+        <v>701375</v>
       </c>
       <c r="AE61" s="15">
-        <v>607077</v>
+        <v>573872</v>
       </c>
       <c r="AF61" s="15">
-        <v>701375</v>
+        <v>610121</v>
       </c>
       <c r="AG61" s="15">
-        <v>573872</v>
+        <v>464566</v>
       </c>
       <c r="AH61" s="15">
-        <v>610121</v>
+        <v>318271</v>
       </c>
       <c r="AI61" s="15">
-        <v>464566</v>
+        <v>705866</v>
       </c>
       <c r="AJ61" s="15">
-        <v>318271</v>
+        <v>620110</v>
       </c>
       <c r="AK61" s="15">
-        <v>705866</v>
+        <v>600110</v>
       </c>
       <c r="AL61" s="15">
-        <v>620110</v>
+        <v>501106</v>
       </c>
       <c r="AM61" s="15">
-        <v>600110</v>
+        <v>703409</v>
       </c>
       <c r="AN61" s="15">
-        <v>501106</v>
+        <v>876392</v>
       </c>
       <c r="AO61" s="15">
-        <v>703409</v>
+        <v>700500</v>
       </c>
       <c r="AP61" s="15">
-        <v>876392</v>
+        <v>500601</v>
       </c>
       <c r="AQ61" s="15">
-        <v>700500</v>
+        <v>523893</v>
       </c>
       <c r="AR61" s="15">
-        <v>500601</v>
+        <v>571001</v>
       </c>
       <c r="AS61" s="15">
-        <v>523893</v>
+        <v>608201</v>
       </c>
       <c r="AT61" s="15">
-        <v>571001</v>
+        <v>508519</v>
       </c>
       <c r="AU61" s="15">
-        <v>608201</v>
+        <v>556424</v>
       </c>
       <c r="AV61" s="15">
-        <v>508519</v>
+        <v>806565</v>
       </c>
       <c r="AW61" s="15">
-        <v>556424</v>
+        <v>842173</v>
       </c>
       <c r="AX61" s="15">
-        <v>806565</v>
+        <v>957316</v>
       </c>
       <c r="AY61" s="15">
-        <v>849153</v>
+        <v>1245134</v>
       </c>
       <c r="AZ61" s="15">
-        <v>1052180</v>
+        <v>1260965</v>
       </c>
       <c r="BA61" s="15">
-        <v>1245134</v>
+        <v>1238567</v>
       </c>
       <c r="BB61" s="15">
-        <v>1260965</v>
+        <v>1287129</v>
       </c>
     </row>
     <row r="62" spans="2:54" x14ac:dyDescent="0.3">
@@ -8324,154 +8324,154 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>5809</v>
+        <v>1748</v>
       </c>
       <c r="F68" s="11">
-        <v>2888</v>
+        <v>22021</v>
       </c>
       <c r="G68" s="11">
-        <v>1748</v>
+        <v>2306</v>
       </c>
       <c r="H68" s="11">
-        <v>22021</v>
+        <v>1143</v>
       </c>
       <c r="I68" s="11">
-        <v>2306</v>
+        <v>1076</v>
       </c>
       <c r="J68" s="11">
-        <v>1143</v>
+        <v>0</v>
       </c>
       <c r="K68" s="11">
-        <v>1076</v>
+        <v>1992</v>
       </c>
       <c r="L68" s="11">
-        <v>0</v>
+        <v>1044</v>
       </c>
       <c r="M68" s="11">
-        <v>1992</v>
+        <v>2664</v>
       </c>
       <c r="N68" s="11">
-        <v>1044</v>
+        <v>2199</v>
       </c>
       <c r="O68" s="11">
-        <v>2664</v>
+        <v>1654</v>
       </c>
       <c r="P68" s="11">
-        <v>2199</v>
+        <v>2867</v>
       </c>
       <c r="Q68" s="11">
-        <v>1654</v>
+        <v>2109</v>
       </c>
       <c r="R68" s="11">
-        <v>2867</v>
+        <v>3007</v>
       </c>
       <c r="S68" s="11">
-        <v>2109</v>
+        <v>2161</v>
       </c>
       <c r="T68" s="11">
-        <v>3007</v>
+        <v>2700</v>
       </c>
       <c r="U68" s="11">
-        <v>2161</v>
+        <v>2653</v>
       </c>
       <c r="V68" s="11">
-        <v>2700</v>
+        <v>2368476</v>
       </c>
       <c r="W68" s="11">
-        <v>2653</v>
+        <v>3242012</v>
       </c>
       <c r="X68" s="11">
-        <v>2368476</v>
+        <v>2395596</v>
       </c>
       <c r="Y68" s="11">
-        <v>3242012</v>
+        <v>2990303</v>
       </c>
       <c r="Z68" s="11">
-        <v>2395596</v>
+        <v>1556475</v>
       </c>
       <c r="AA68" s="11">
-        <v>2990303</v>
+        <v>2033366</v>
       </c>
       <c r="AB68" s="11">
-        <v>1556475</v>
+        <v>3648732</v>
       </c>
       <c r="AC68" s="11">
-        <v>2033366</v>
+        <v>5477523</v>
       </c>
       <c r="AD68" s="11">
-        <v>3648732</v>
+        <v>2396877</v>
       </c>
       <c r="AE68" s="11">
-        <v>5477523</v>
+        <v>756214</v>
       </c>
       <c r="AF68" s="11">
-        <v>2396877</v>
+        <v>2396983</v>
       </c>
       <c r="AG68" s="11">
-        <v>756214</v>
+        <v>2326929</v>
       </c>
       <c r="AH68" s="11">
-        <v>2396983</v>
+        <v>6222389</v>
       </c>
       <c r="AI68" s="11">
-        <v>2326929</v>
+        <v>6558928</v>
       </c>
       <c r="AJ68" s="11">
-        <v>6222389</v>
+        <v>6558846</v>
       </c>
       <c r="AK68" s="11">
-        <v>6558928</v>
+        <v>6558846</v>
       </c>
       <c r="AL68" s="11">
-        <v>6558846</v>
+        <v>6859272</v>
       </c>
       <c r="AM68" s="11">
-        <v>6558846</v>
+        <v>4501119</v>
       </c>
       <c r="AN68" s="11">
-        <v>6859272</v>
+        <v>2753153</v>
       </c>
       <c r="AO68" s="11">
-        <v>4501119</v>
+        <v>5115573</v>
       </c>
       <c r="AP68" s="11">
-        <v>2753153</v>
+        <v>3255445</v>
       </c>
       <c r="AQ68" s="11">
-        <v>5115573</v>
+        <v>4373563</v>
       </c>
       <c r="AR68" s="11">
-        <v>3255445</v>
+        <v>3870616</v>
       </c>
       <c r="AS68" s="11">
-        <v>4373563</v>
+        <v>4570590</v>
       </c>
       <c r="AT68" s="11">
-        <v>3870616</v>
+        <v>5582281</v>
       </c>
       <c r="AU68" s="11">
-        <v>4570590</v>
+        <v>3160701</v>
       </c>
       <c r="AV68" s="11">
-        <v>5582281</v>
+        <v>3462536</v>
       </c>
       <c r="AW68" s="11">
-        <v>3160701</v>
+        <v>4828470</v>
       </c>
       <c r="AX68" s="11">
-        <v>3462536</v>
+        <v>5866979</v>
       </c>
       <c r="AY68" s="11">
-        <v>4828470</v>
+        <v>8373354</v>
       </c>
       <c r="AZ68" s="11">
-        <v>5866979</v>
+        <v>7631454</v>
       </c>
       <c r="BA68" s="11">
-        <v>8373354</v>
+        <v>5874430</v>
       </c>
       <c r="BB68" s="11">
-        <v>7631454</v>
+        <v>6314347</v>
       </c>
     </row>
     <row r="69" spans="2:54" x14ac:dyDescent="0.3">
@@ -8533,89 +8533,89 @@
       <c r="U69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W69" s="13" t="s">
-        <v>58</v>
+      <c r="V69" s="13">
+        <v>1035467</v>
+      </c>
+      <c r="W69" s="13">
+        <v>1267234</v>
       </c>
       <c r="X69" s="13">
-        <v>1035467</v>
+        <v>1533905</v>
       </c>
       <c r="Y69" s="13">
-        <v>1267234</v>
+        <v>1361376</v>
       </c>
       <c r="Z69" s="13">
-        <v>1533905</v>
+        <v>1632395</v>
       </c>
       <c r="AA69" s="13">
-        <v>1361376</v>
+        <v>1539219</v>
       </c>
       <c r="AB69" s="13">
-        <v>1632395</v>
+        <v>1788717</v>
       </c>
       <c r="AC69" s="13">
-        <v>1539219</v>
+        <v>1717725</v>
       </c>
       <c r="AD69" s="13">
-        <v>1788717</v>
+        <v>1840494</v>
       </c>
       <c r="AE69" s="13">
-        <v>1717725</v>
+        <v>1656507</v>
       </c>
       <c r="AF69" s="13">
-        <v>1840494</v>
+        <v>1840496</v>
       </c>
       <c r="AG69" s="13">
-        <v>1656507</v>
+        <v>1196422</v>
       </c>
       <c r="AH69" s="13">
-        <v>1840496</v>
+        <v>1286379</v>
       </c>
       <c r="AI69" s="13">
-        <v>1196422</v>
+        <v>1472071</v>
       </c>
       <c r="AJ69" s="13">
-        <v>1286379</v>
+        <v>1472076</v>
       </c>
       <c r="AK69" s="13">
-        <v>1472071</v>
+        <v>1562074</v>
       </c>
       <c r="AL69" s="13">
-        <v>1472076</v>
+        <v>1631876</v>
       </c>
       <c r="AM69" s="13">
-        <v>1562074</v>
+        <v>1456973</v>
       </c>
       <c r="AN69" s="13">
-        <v>1631876</v>
+        <v>2242518</v>
       </c>
       <c r="AO69" s="13">
-        <v>1456973</v>
+        <v>2192480</v>
       </c>
       <c r="AP69" s="13">
-        <v>2242518</v>
+        <v>1613855</v>
       </c>
       <c r="AQ69" s="13">
-        <v>2192480</v>
+        <v>1557356</v>
       </c>
       <c r="AR69" s="13">
-        <v>1613855</v>
+        <v>1430645</v>
       </c>
       <c r="AS69" s="13">
-        <v>1557356</v>
+        <v>1648967</v>
       </c>
       <c r="AT69" s="13">
-        <v>1430645</v>
+        <v>1759555</v>
       </c>
       <c r="AU69" s="13">
-        <v>1648967</v>
-      </c>
-      <c r="AV69" s="13">
-        <v>1759555</v>
-      </c>
-      <c r="AW69" s="13">
         <v>1815511</v>
+      </c>
+      <c r="AV69" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW69" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX69" s="13" t="s">
         <v>58</v>
@@ -8642,154 +8642,154 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>166219</v>
+        <v>105480</v>
       </c>
       <c r="F70" s="11">
-        <v>177478</v>
+        <v>196460</v>
       </c>
       <c r="G70" s="11">
-        <v>105480</v>
+        <v>161475</v>
       </c>
       <c r="H70" s="11">
-        <v>196460</v>
+        <v>15094</v>
       </c>
       <c r="I70" s="11">
-        <v>161475</v>
+        <v>11478</v>
       </c>
       <c r="J70" s="11">
-        <v>15094</v>
+        <v>0</v>
       </c>
       <c r="K70" s="11">
-        <v>11478</v>
+        <v>0</v>
       </c>
       <c r="L70" s="11">
         <v>0</v>
       </c>
       <c r="M70" s="11">
-        <v>0</v>
+        <v>188617</v>
       </c>
       <c r="N70" s="11">
-        <v>0</v>
+        <v>188566</v>
       </c>
       <c r="O70" s="11">
-        <v>188617</v>
+        <v>184701</v>
       </c>
       <c r="P70" s="11">
-        <v>188566</v>
+        <v>185465</v>
       </c>
       <c r="Q70" s="11">
-        <v>184701</v>
+        <v>116631</v>
       </c>
       <c r="R70" s="11">
-        <v>185465</v>
+        <v>189740</v>
       </c>
       <c r="S70" s="11">
-        <v>116631</v>
+        <v>147849</v>
       </c>
       <c r="T70" s="11">
-        <v>189740</v>
+        <v>70503</v>
       </c>
       <c r="U70" s="11">
-        <v>147849</v>
+        <v>0</v>
       </c>
       <c r="V70" s="11">
-        <v>70503</v>
+        <v>77158730</v>
       </c>
       <c r="W70" s="11">
-        <v>0</v>
+        <v>189172043</v>
       </c>
       <c r="X70" s="11">
-        <v>77158730</v>
+        <v>185314815</v>
       </c>
       <c r="Y70" s="11">
-        <v>189172043</v>
+        <v>188607477</v>
       </c>
       <c r="Z70" s="11">
-        <v>185314815</v>
+        <v>180739130</v>
       </c>
       <c r="AA70" s="11">
-        <v>188607477</v>
+        <v>184267606</v>
       </c>
       <c r="AB70" s="11">
-        <v>180739130</v>
+        <v>136805970</v>
       </c>
       <c r="AC70" s="11">
-        <v>184267606</v>
+        <v>168771084</v>
       </c>
       <c r="AD70" s="11">
-        <v>136805970</v>
+        <v>180549020</v>
       </c>
       <c r="AE70" s="11">
-        <v>168771084</v>
+        <v>58857143</v>
       </c>
       <c r="AF70" s="11">
-        <v>180549020</v>
+        <v>180946809</v>
       </c>
       <c r="AG70" s="11">
-        <v>58857143</v>
+        <v>51125000</v>
       </c>
       <c r="AH70" s="11">
-        <v>180946809</v>
+        <v>189542857</v>
       </c>
       <c r="AI70" s="11">
-        <v>51125000</v>
+        <v>201131313</v>
       </c>
       <c r="AJ70" s="11">
-        <v>189542857</v>
+        <v>203311475</v>
       </c>
       <c r="AK70" s="11">
-        <v>201131313</v>
+        <v>200032258</v>
       </c>
       <c r="AL70" s="11">
-        <v>203311475</v>
+        <v>200108911</v>
       </c>
       <c r="AM70" s="11">
-        <v>200032258</v>
+        <v>281253333</v>
       </c>
       <c r="AN70" s="11">
-        <v>200108911</v>
+        <v>35704403</v>
       </c>
       <c r="AO70" s="11">
-        <v>281253333</v>
+        <v>36870968</v>
       </c>
       <c r="AP70" s="11">
-        <v>35704403</v>
+        <v>18852941</v>
       </c>
       <c r="AQ70" s="11">
-        <v>36870968</v>
+        <v>18680000</v>
       </c>
       <c r="AR70" s="11">
-        <v>18852941</v>
+        <v>21089744</v>
       </c>
       <c r="AS70" s="11">
-        <v>18680000</v>
+        <v>32506494</v>
       </c>
       <c r="AT70" s="11">
-        <v>21089744</v>
+        <v>35000000</v>
       </c>
       <c r="AU70" s="11">
-        <v>32506494</v>
+        <v>34188679</v>
       </c>
       <c r="AV70" s="11">
-        <v>35000000</v>
+        <v>73599156</v>
       </c>
       <c r="AW70" s="11">
-        <v>34188679</v>
+        <v>0</v>
       </c>
       <c r="AX70" s="11">
-        <v>73599156</v>
-      </c>
-      <c r="AY70" s="11" t="s">
-        <v>58</v>
+        <v>58856428</v>
+      </c>
+      <c r="AY70" s="11">
+        <v>204472222</v>
       </c>
       <c r="AZ70" s="11">
-        <v>1538722</v>
+        <v>170177778</v>
       </c>
       <c r="BA70" s="11">
-        <v>204472222</v>
-      </c>
-      <c r="BB70" s="11">
-        <v>170177778</v>
+        <v>255153846</v>
+      </c>
+      <c r="BB70" s="11" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -8801,61 +8801,61 @@
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13">
-        <v>602</v>
+        <v>778</v>
       </c>
       <c r="F71" s="13">
-        <v>1083</v>
+        <v>876</v>
       </c>
       <c r="G71" s="13">
-        <v>778</v>
+        <v>836</v>
       </c>
       <c r="H71" s="13">
-        <v>876</v>
+        <v>1117</v>
       </c>
       <c r="I71" s="13">
-        <v>836</v>
+        <v>903</v>
       </c>
       <c r="J71" s="13">
-        <v>1117</v>
+        <v>1025</v>
       </c>
       <c r="K71" s="13">
-        <v>903</v>
+        <v>1096</v>
       </c>
       <c r="L71" s="13">
-        <v>1025</v>
+        <v>1109</v>
       </c>
       <c r="M71" s="13">
-        <v>1096</v>
+        <v>1373</v>
       </c>
       <c r="N71" s="13">
-        <v>1109</v>
+        <v>1087</v>
       </c>
       <c r="O71" s="13">
-        <v>1373</v>
+        <v>1024</v>
       </c>
       <c r="P71" s="13">
-        <v>1087</v>
+        <v>1251</v>
       </c>
       <c r="Q71" s="13">
-        <v>1024</v>
+        <v>1284</v>
       </c>
       <c r="R71" s="13">
-        <v>1251</v>
+        <v>1015</v>
       </c>
       <c r="S71" s="13">
-        <v>1284</v>
+        <v>1169</v>
       </c>
       <c r="T71" s="13">
-        <v>1015</v>
+        <v>964</v>
       </c>
       <c r="U71" s="13">
-        <v>1169</v>
-      </c>
-      <c r="V71" s="13">
-        <v>964</v>
-      </c>
-      <c r="W71" s="13">
         <v>1236</v>
+      </c>
+      <c r="V71" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W71" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="X71" s="13" t="s">
         <v>58</v>
@@ -8960,61 +8960,61 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>22219</v>
+        <v>38866</v>
       </c>
       <c r="F72" s="11">
-        <v>31780</v>
+        <v>30259</v>
       </c>
       <c r="G72" s="11">
-        <v>38866</v>
+        <v>28601</v>
       </c>
       <c r="H72" s="11">
-        <v>30259</v>
+        <v>34961</v>
       </c>
       <c r="I72" s="11">
-        <v>28601</v>
+        <v>26265</v>
       </c>
       <c r="J72" s="11">
-        <v>34961</v>
+        <v>27586</v>
       </c>
       <c r="K72" s="11">
-        <v>26265</v>
+        <v>31992</v>
       </c>
       <c r="L72" s="11">
-        <v>27586</v>
+        <v>28889</v>
       </c>
       <c r="M72" s="11">
-        <v>31992</v>
+        <v>36824</v>
       </c>
       <c r="N72" s="11">
-        <v>28889</v>
+        <v>35497</v>
       </c>
       <c r="O72" s="11">
-        <v>36824</v>
+        <v>31408</v>
       </c>
       <c r="P72" s="11">
-        <v>35497</v>
+        <v>28165</v>
       </c>
       <c r="Q72" s="11">
-        <v>31408</v>
+        <v>32356</v>
       </c>
       <c r="R72" s="11">
-        <v>28165</v>
+        <v>29915</v>
       </c>
       <c r="S72" s="11">
-        <v>32356</v>
+        <v>40684</v>
       </c>
       <c r="T72" s="11">
-        <v>29915</v>
+        <v>36849</v>
       </c>
       <c r="U72" s="11">
-        <v>40684</v>
-      </c>
-      <c r="V72" s="11">
-        <v>36849</v>
-      </c>
-      <c r="W72" s="11">
         <v>37844</v>
+      </c>
+      <c r="V72" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="W72" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="X72" s="11" t="s">
         <v>58</v>
@@ -9169,104 +9169,104 @@
       <c r="U73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W73" s="13" t="s">
-        <v>58</v>
+      <c r="V73" s="13">
+        <v>40183767</v>
+      </c>
+      <c r="W73" s="13">
+        <v>33429433</v>
       </c>
       <c r="X73" s="13">
-        <v>40183767</v>
+        <v>33945578</v>
       </c>
       <c r="Y73" s="13">
-        <v>33429433</v>
+        <v>27898817</v>
       </c>
       <c r="Z73" s="13">
-        <v>33945578</v>
+        <v>39004413</v>
       </c>
       <c r="AA73" s="13">
-        <v>27898817</v>
+        <v>36161443</v>
       </c>
       <c r="AB73" s="13">
-        <v>39004413</v>
+        <v>39375731</v>
       </c>
       <c r="AC73" s="13">
-        <v>36161443</v>
+        <v>44296496</v>
       </c>
       <c r="AD73" s="13">
-        <v>39375731</v>
+        <v>57189024</v>
       </c>
       <c r="AE73" s="13">
-        <v>44296496</v>
+        <v>41052500</v>
       </c>
       <c r="AF73" s="13">
-        <v>57189024</v>
+        <v>57201661</v>
       </c>
       <c r="AG73" s="13">
-        <v>41052500</v>
+        <v>102688699</v>
       </c>
       <c r="AH73" s="13">
-        <v>57201661</v>
+        <v>60285408</v>
       </c>
       <c r="AI73" s="13">
-        <v>102688699</v>
+        <v>59494801</v>
       </c>
       <c r="AJ73" s="13">
-        <v>60285408</v>
+        <v>59498934</v>
       </c>
       <c r="AK73" s="13">
-        <v>59494801</v>
+        <v>59498934</v>
       </c>
       <c r="AL73" s="13">
-        <v>59498934</v>
+        <v>62465492</v>
       </c>
       <c r="AM73" s="13">
-        <v>59498934</v>
+        <v>56435556</v>
       </c>
       <c r="AN73" s="13">
-        <v>62465492</v>
+        <v>41895881</v>
       </c>
       <c r="AO73" s="13">
-        <v>56435556</v>
+        <v>68285507</v>
       </c>
       <c r="AP73" s="13">
-        <v>41895881</v>
+        <v>59919847</v>
       </c>
       <c r="AQ73" s="13">
-        <v>68285507</v>
+        <v>45953153</v>
       </c>
       <c r="AR73" s="13">
-        <v>59919847</v>
+        <v>95409178</v>
       </c>
       <c r="AS73" s="13">
-        <v>45953153</v>
+        <v>75903865</v>
       </c>
       <c r="AT73" s="13">
-        <v>95409178</v>
+        <v>65103792</v>
       </c>
       <c r="AU73" s="13">
-        <v>75903865</v>
+        <v>57600698</v>
       </c>
       <c r="AV73" s="13">
-        <v>65103792</v>
+        <v>57596649</v>
       </c>
       <c r="AW73" s="13">
-        <v>57600698</v>
+        <v>122587629</v>
       </c>
       <c r="AX73" s="13">
-        <v>57596649</v>
+        <v>107769231</v>
       </c>
       <c r="AY73" s="13">
-        <v>122587629</v>
+        <v>151022169</v>
       </c>
       <c r="AZ73" s="13">
-        <v>107769231</v>
+        <v>44306763</v>
       </c>
       <c r="BA73" s="13">
-        <v>146759574</v>
+        <v>70141212</v>
       </c>
       <c r="BB73" s="13">
-        <v>44306763</v>
+        <v>110446686</v>
       </c>
     </row>
     <row r="74" spans="2:54" x14ac:dyDescent="0.3">
@@ -9406,26 +9406,26 @@
       <c r="AU74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AV74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW74" s="11" t="s">
-        <v>58</v>
+      <c r="AV74" s="11">
+        <v>1900964</v>
+      </c>
+      <c r="AW74" s="11">
+        <v>2786746</v>
       </c>
       <c r="AX74" s="11">
-        <v>1900964</v>
+        <v>2659784</v>
       </c>
       <c r="AY74" s="11">
-        <v>2792896</v>
+        <v>5948053</v>
       </c>
       <c r="AZ74" s="11">
-        <v>2729545</v>
+        <v>2716338</v>
       </c>
       <c r="BA74" s="11">
-        <v>5942460</v>
+        <v>2570274</v>
       </c>
       <c r="BB74" s="11">
-        <v>2716338</v>
+        <v>3193369</v>
       </c>
     </row>
     <row r="75" spans="2:54" x14ac:dyDescent="0.3">
@@ -9580,11 +9580,11 @@
       <c r="AG76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH76" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI76" s="11" t="s">
-        <v>58</v>
+      <c r="AH76" s="11">
+        <v>0</v>
+      </c>
+      <c r="AI76" s="11">
+        <v>0</v>
       </c>
       <c r="AJ76" s="11">
         <v>0</v>
@@ -9616,11 +9616,11 @@
       <c r="AS76" s="11">
         <v>0</v>
       </c>
-      <c r="AT76" s="11">
-        <v>0</v>
-      </c>
-      <c r="AU76" s="11">
-        <v>0</v>
+      <c r="AT76" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU76" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV76" s="11" t="s">
         <v>58</v>

--- a/database/industries/darou/desobhan/product/monthly.xlsx
+++ b/database/industries/darou/desobhan/product/monthly.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\darou\desobhan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\darou\desobhan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{521C5DA3-EC66-4C81-842E-4FEF81AC5CA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B08B61F-BD96-4D65-BE66-820023406F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1180" uniqueCount="89">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>دسبحان-سبحان دارو</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>کپسول</t>
@@ -769,12 +769,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -829,7 +829,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -886,7 +886,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -943,7 +943,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -998,7 +998,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1055,7 +1055,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1112,7 +1112,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1167,7 +1167,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1324,7 +1324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1379,7 +1379,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>4</v>
       </c>
@@ -1436,7 +1436,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>55</v>
       </c>
@@ -1445,157 +1445,157 @@
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
-        <v>11858720</v>
+        <v>5629180</v>
       </c>
       <c r="F11" s="11">
-        <v>1965390</v>
+        <v>0</v>
       </c>
       <c r="G11" s="11">
-        <v>5629180</v>
+        <v>1421400</v>
       </c>
       <c r="H11" s="11">
         <v>0</v>
       </c>
       <c r="I11" s="11">
-        <v>1421400</v>
+        <v>6757430</v>
       </c>
       <c r="J11" s="11">
-        <v>0</v>
+        <v>3698900</v>
       </c>
       <c r="K11" s="11">
-        <v>6757430</v>
+        <v>17754200</v>
       </c>
       <c r="L11" s="11">
-        <v>3698900</v>
+        <v>8151450</v>
       </c>
       <c r="M11" s="11">
-        <v>17754200</v>
+        <v>0</v>
       </c>
       <c r="N11" s="11">
-        <v>8151450</v>
+        <v>11355800</v>
       </c>
       <c r="O11" s="11">
-        <v>0</v>
+        <v>15880572</v>
       </c>
       <c r="P11" s="11">
-        <v>11355800</v>
+        <v>7392280</v>
       </c>
       <c r="Q11" s="11">
-        <v>15880572</v>
+        <v>8872060</v>
       </c>
       <c r="R11" s="11">
-        <v>7392280</v>
+        <v>6086980</v>
       </c>
       <c r="S11" s="11">
-        <v>8872060</v>
+        <v>10024360</v>
       </c>
       <c r="T11" s="11">
-        <v>6086980</v>
+        <v>0</v>
       </c>
       <c r="U11" s="11">
-        <v>10024360</v>
+        <v>14396</v>
       </c>
       <c r="V11" s="11">
-        <v>0</v>
+        <v>17477</v>
       </c>
       <c r="W11" s="11">
-        <v>14396</v>
+        <v>11800</v>
       </c>
       <c r="X11" s="11">
-        <v>17477</v>
+        <v>859</v>
       </c>
       <c r="Y11" s="11">
-        <v>11800</v>
+        <v>7792</v>
       </c>
       <c r="Z11" s="11">
-        <v>859</v>
+        <v>11158</v>
       </c>
       <c r="AA11" s="11">
-        <v>7792</v>
+        <v>3107</v>
       </c>
       <c r="AB11" s="11">
-        <v>11158</v>
+        <v>11045</v>
       </c>
       <c r="AC11" s="11">
-        <v>3107</v>
+        <v>3258</v>
       </c>
       <c r="AD11" s="11">
-        <v>11045</v>
+        <v>9632</v>
       </c>
       <c r="AE11" s="11">
-        <v>3258</v>
+        <v>12533</v>
       </c>
       <c r="AF11" s="11">
-        <v>9632</v>
+        <v>1331</v>
       </c>
       <c r="AG11" s="11">
-        <v>12533</v>
+        <v>10505</v>
       </c>
       <c r="AH11" s="11">
-        <v>1331</v>
+        <v>12587</v>
       </c>
       <c r="AI11" s="11">
-        <v>10505</v>
+        <v>3124</v>
       </c>
       <c r="AJ11" s="11">
-        <v>12587</v>
+        <v>15087</v>
       </c>
       <c r="AK11" s="11">
-        <v>3124</v>
+        <v>19050</v>
       </c>
       <c r="AL11" s="11">
-        <v>15087</v>
+        <v>16463</v>
       </c>
       <c r="AM11" s="11">
-        <v>19050</v>
+        <v>16389</v>
       </c>
       <c r="AN11" s="11">
-        <v>16463</v>
+        <v>6933</v>
       </c>
       <c r="AO11" s="11">
-        <v>16389</v>
+        <v>20758</v>
       </c>
       <c r="AP11" s="11">
-        <v>6933</v>
+        <v>12736</v>
       </c>
       <c r="AQ11" s="11">
-        <v>20758</v>
+        <v>5007</v>
       </c>
       <c r="AR11" s="11">
-        <v>12736</v>
+        <v>11391</v>
       </c>
       <c r="AS11" s="11">
-        <v>5007</v>
+        <v>14129</v>
       </c>
       <c r="AT11" s="11">
-        <v>9924</v>
+        <v>14506</v>
       </c>
       <c r="AU11" s="11">
-        <v>14129</v>
+        <v>19263</v>
       </c>
       <c r="AV11" s="11">
-        <v>14506</v>
+        <v>10507</v>
       </c>
       <c r="AW11" s="11">
-        <v>19263</v>
+        <v>6731</v>
       </c>
       <c r="AX11" s="11">
-        <v>10507</v>
+        <v>13171</v>
       </c>
       <c r="AY11" s="11">
-        <v>6731</v>
+        <v>2030</v>
       </c>
       <c r="AZ11" s="11">
-        <v>13171</v>
+        <v>14335</v>
       </c>
       <c r="BA11" s="11">
-        <v>2030</v>
+        <v>12032</v>
       </c>
       <c r="BB11" s="11">
-        <v>14335</v>
+        <v>2659</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>57</v>
       </c>
@@ -1648,90 +1648,90 @@
       <c r="S12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U12" s="13" t="s">
-        <v>58</v>
+      <c r="T12" s="13">
+        <v>145947</v>
+      </c>
+      <c r="U12" s="13">
+        <v>236415</v>
       </c>
       <c r="V12" s="13">
-        <v>145947</v>
+        <v>176353</v>
       </c>
       <c r="W12" s="13">
-        <v>236415</v>
+        <v>252168</v>
       </c>
       <c r="X12" s="13">
-        <v>176353</v>
+        <v>442389</v>
       </c>
       <c r="Y12" s="13">
-        <v>252168</v>
+        <v>328679</v>
       </c>
       <c r="Z12" s="13">
-        <v>442389</v>
+        <v>220255</v>
       </c>
       <c r="AA12" s="13">
-        <v>328679</v>
+        <v>318170</v>
       </c>
       <c r="AB12" s="13">
-        <v>220255</v>
+        <v>340943</v>
       </c>
       <c r="AC12" s="13">
-        <v>318170</v>
+        <v>325353</v>
       </c>
       <c r="AD12" s="13">
-        <v>340943</v>
+        <v>275345</v>
       </c>
       <c r="AE12" s="13">
-        <v>325353</v>
+        <v>321575</v>
       </c>
       <c r="AF12" s="13">
-        <v>275345</v>
+        <v>236035</v>
       </c>
       <c r="AG12" s="13">
-        <v>321575</v>
+        <v>341898</v>
       </c>
       <c r="AH12" s="13">
-        <v>236035</v>
+        <v>257870</v>
       </c>
       <c r="AI12" s="13">
-        <v>341898</v>
+        <v>283228</v>
       </c>
       <c r="AJ12" s="13">
-        <v>257870</v>
+        <v>202727</v>
       </c>
       <c r="AK12" s="13">
-        <v>283228</v>
+        <v>334981</v>
       </c>
       <c r="AL12" s="13">
-        <v>202727</v>
+        <v>344551</v>
       </c>
       <c r="AM12" s="13">
-        <v>334981</v>
+        <v>284301</v>
       </c>
       <c r="AN12" s="13">
-        <v>344551</v>
+        <v>271738</v>
       </c>
       <c r="AO12" s="13">
-        <v>284301</v>
+        <v>302959</v>
       </c>
       <c r="AP12" s="13">
-        <v>271738</v>
+        <v>321910</v>
       </c>
       <c r="AQ12" s="13">
-        <v>302959</v>
+        <v>264716</v>
       </c>
       <c r="AR12" s="13">
-        <v>321910</v>
+        <v>223022</v>
       </c>
       <c r="AS12" s="13">
-        <v>264716</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>197954</v>
-      </c>
-      <c r="AU12" s="13">
         <v>340733</v>
       </c>
+      <c r="AT12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU12" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV12" s="13" t="s">
         <v>58</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>59</v>
       </c>
@@ -1763,157 +1763,157 @@
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11">
-        <v>83053</v>
+        <v>0</v>
       </c>
       <c r="F13" s="11">
-        <v>66177</v>
+        <v>12000</v>
       </c>
       <c r="G13" s="11">
-        <v>0</v>
+        <v>26233</v>
       </c>
       <c r="H13" s="11">
-        <v>12000</v>
+        <v>0</v>
       </c>
       <c r="I13" s="11">
-        <v>26233</v>
+        <v>0</v>
       </c>
       <c r="J13" s="11">
         <v>0</v>
       </c>
       <c r="K13" s="11">
-        <v>0</v>
+        <v>21087</v>
       </c>
       <c r="L13" s="11">
-        <v>0</v>
+        <v>30914</v>
       </c>
       <c r="M13" s="11">
-        <v>21087</v>
+        <v>68647</v>
       </c>
       <c r="N13" s="11">
-        <v>30914</v>
+        <v>100460</v>
       </c>
       <c r="O13" s="11">
-        <v>68647</v>
+        <v>98684</v>
       </c>
       <c r="P13" s="11">
-        <v>100460</v>
+        <v>112658</v>
       </c>
       <c r="Q13" s="11">
-        <v>98684</v>
+        <v>125133</v>
       </c>
       <c r="R13" s="11">
-        <v>112658</v>
+        <v>76246</v>
       </c>
       <c r="S13" s="11">
-        <v>125133</v>
+        <v>0</v>
       </c>
       <c r="T13" s="11">
-        <v>76246</v>
+        <v>49</v>
       </c>
       <c r="U13" s="11">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="V13" s="11">
+        <v>78</v>
+      </c>
+      <c r="W13" s="11">
+        <v>119</v>
+      </c>
+      <c r="X13" s="11">
+        <v>59</v>
+      </c>
+      <c r="Y13" s="11">
+        <v>122</v>
+      </c>
+      <c r="Z13" s="11">
+        <v>69</v>
+      </c>
+      <c r="AA13" s="11">
+        <v>56</v>
+      </c>
+      <c r="AB13" s="11">
         <v>49</v>
       </c>
-      <c r="W13" s="11">
-        <v>133</v>
-      </c>
-      <c r="X13" s="11">
-        <v>78</v>
-      </c>
-      <c r="Y13" s="11">
-        <v>119</v>
-      </c>
-      <c r="Z13" s="11">
-        <v>59</v>
-      </c>
-      <c r="AA13" s="11">
-        <v>122</v>
-      </c>
-      <c r="AB13" s="11">
-        <v>69</v>
-      </c>
       <c r="AC13" s="11">
-        <v>56</v>
+        <v>24</v>
       </c>
       <c r="AD13" s="11">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="AE13" s="11">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AF13" s="11">
+        <v>48</v>
+      </c>
+      <c r="AG13" s="11">
+        <v>87</v>
+      </c>
+      <c r="AH13" s="11">
+        <v>9</v>
+      </c>
+      <c r="AI13" s="11">
+        <v>80</v>
+      </c>
+      <c r="AJ13" s="11">
+        <v>102</v>
+      </c>
+      <c r="AK13" s="11">
+        <v>144</v>
+      </c>
+      <c r="AL13" s="11">
+        <v>157</v>
+      </c>
+      <c r="AM13" s="11">
+        <v>132</v>
+      </c>
+      <c r="AN13" s="11">
+        <v>90</v>
+      </c>
+      <c r="AO13" s="11">
+        <v>25</v>
+      </c>
+      <c r="AP13" s="11">
+        <v>104</v>
+      </c>
+      <c r="AQ13" s="11">
+        <v>116</v>
+      </c>
+      <c r="AR13" s="11">
+        <v>26</v>
+      </c>
+      <c r="AS13" s="11">
+        <v>146</v>
+      </c>
+      <c r="AT13" s="11">
+        <v>118</v>
+      </c>
+      <c r="AU13" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="11">
         <v>98</v>
       </c>
-      <c r="AG13" s="11">
-        <v>20</v>
-      </c>
-      <c r="AH13" s="11">
-        <v>48</v>
-      </c>
-      <c r="AI13" s="11">
-        <v>87</v>
-      </c>
-      <c r="AJ13" s="11">
-        <v>9</v>
-      </c>
-      <c r="AK13" s="11">
-        <v>80</v>
-      </c>
-      <c r="AL13" s="11">
-        <v>102</v>
-      </c>
-      <c r="AM13" s="11">
-        <v>144</v>
-      </c>
-      <c r="AN13" s="11">
-        <v>157</v>
-      </c>
-      <c r="AO13" s="11">
-        <v>132</v>
-      </c>
-      <c r="AP13" s="11">
-        <v>90</v>
-      </c>
-      <c r="AQ13" s="11">
-        <v>25</v>
-      </c>
-      <c r="AR13" s="11">
-        <v>104</v>
-      </c>
-      <c r="AS13" s="11">
-        <v>116</v>
-      </c>
-      <c r="AT13" s="11">
-        <v>26</v>
-      </c>
-      <c r="AU13" s="11">
-        <v>146</v>
-      </c>
-      <c r="AV13" s="11">
-        <v>118</v>
-      </c>
       <c r="AW13" s="11">
         <v>0</v>
       </c>
       <c r="AX13" s="11">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="AY13" s="11">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AZ13" s="11">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="BA13" s="11">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="BB13" s="11">
-        <v>0</v>
+        <v>145</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1922,56 +1922,56 @@
       </c>
       <c r="D14" s="13"/>
       <c r="E14" s="13">
-        <v>260974470</v>
+        <v>228822031</v>
       </c>
       <c r="F14" s="13">
-        <v>269035385</v>
+        <v>219891160</v>
       </c>
       <c r="G14" s="13">
-        <v>228822031</v>
+        <v>181457150</v>
       </c>
       <c r="H14" s="13">
-        <v>219891160</v>
+        <v>104625560</v>
       </c>
       <c r="I14" s="13">
-        <v>181457150</v>
+        <v>177681440</v>
       </c>
       <c r="J14" s="13">
-        <v>104625560</v>
+        <v>184031090</v>
       </c>
       <c r="K14" s="13">
-        <v>177681440</v>
+        <v>207459160</v>
       </c>
       <c r="L14" s="13">
-        <v>184031090</v>
+        <v>177895940</v>
       </c>
       <c r="M14" s="13">
-        <v>207459160</v>
+        <v>256339260</v>
       </c>
       <c r="N14" s="13">
-        <v>177895940</v>
+        <v>273692740</v>
       </c>
       <c r="O14" s="13">
-        <v>256339260</v>
+        <v>311757590</v>
       </c>
       <c r="P14" s="13">
-        <v>273692740</v>
+        <v>255580610</v>
       </c>
       <c r="Q14" s="13">
-        <v>311757590</v>
+        <v>344862390</v>
       </c>
       <c r="R14" s="13">
-        <v>255580610</v>
+        <v>265232000</v>
       </c>
       <c r="S14" s="13">
-        <v>344862390</v>
-      </c>
-      <c r="T14" s="13">
-        <v>265232000</v>
-      </c>
-      <c r="U14" s="13">
         <v>193529810</v>
       </c>
+      <c r="T14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U14" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>63</v>
       </c>
@@ -2081,56 +2081,56 @@
       </c>
       <c r="D15" s="11"/>
       <c r="E15" s="11">
-        <v>866142</v>
+        <v>765800</v>
       </c>
       <c r="F15" s="11">
-        <v>808633</v>
+        <v>531952</v>
       </c>
       <c r="G15" s="11">
-        <v>765800</v>
+        <v>622791</v>
       </c>
       <c r="H15" s="11">
-        <v>531952</v>
+        <v>108812</v>
       </c>
       <c r="I15" s="11">
-        <v>622791</v>
+        <v>727233</v>
       </c>
       <c r="J15" s="11">
-        <v>108812</v>
+        <v>634008</v>
       </c>
       <c r="K15" s="11">
-        <v>727233</v>
+        <v>636595</v>
       </c>
       <c r="L15" s="11">
-        <v>634008</v>
+        <v>565281</v>
       </c>
       <c r="M15" s="11">
-        <v>636595</v>
+        <v>786539</v>
       </c>
       <c r="N15" s="11">
-        <v>565281</v>
+        <v>698732</v>
       </c>
       <c r="O15" s="11">
-        <v>786539</v>
+        <v>818906</v>
       </c>
       <c r="P15" s="11">
-        <v>698732</v>
+        <v>795974</v>
       </c>
       <c r="Q15" s="11">
-        <v>818906</v>
+        <v>857944</v>
       </c>
       <c r="R15" s="11">
-        <v>795974</v>
+        <v>681018</v>
       </c>
       <c r="S15" s="11">
-        <v>857944</v>
-      </c>
-      <c r="T15" s="11">
-        <v>681018</v>
-      </c>
-      <c r="U15" s="11">
         <v>827978</v>
       </c>
+      <c r="T15" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U15" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="V15" s="11" t="s">
         <v>58</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>65</v>
       </c>
@@ -2284,113 +2284,113 @@
       <c r="S16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U16" s="13" t="s">
-        <v>58</v>
+      <c r="T16" s="13">
+        <v>677</v>
+      </c>
+      <c r="U16" s="13">
+        <v>808</v>
       </c>
       <c r="V16" s="13">
-        <v>677</v>
+        <v>853</v>
       </c>
       <c r="W16" s="13">
-        <v>808</v>
+        <v>995</v>
       </c>
       <c r="X16" s="13">
-        <v>853</v>
+        <v>887</v>
       </c>
       <c r="Y16" s="13">
-        <v>995</v>
+        <v>955</v>
       </c>
       <c r="Z16" s="13">
-        <v>887</v>
+        <v>634</v>
       </c>
       <c r="AA16" s="13">
-        <v>955</v>
+        <v>709</v>
       </c>
       <c r="AB16" s="13">
-        <v>634</v>
+        <v>975</v>
       </c>
       <c r="AC16" s="13">
-        <v>709</v>
+        <v>821</v>
       </c>
       <c r="AD16" s="13">
-        <v>975</v>
+        <v>851</v>
       </c>
       <c r="AE16" s="13">
-        <v>821</v>
+        <v>501</v>
       </c>
       <c r="AF16" s="13">
-        <v>851</v>
+        <v>538</v>
       </c>
       <c r="AG16" s="13">
-        <v>501</v>
+        <v>1095</v>
       </c>
       <c r="AH16" s="13">
-        <v>538</v>
+        <v>928</v>
       </c>
       <c r="AI16" s="13">
-        <v>1095</v>
+        <v>907</v>
       </c>
       <c r="AJ16" s="13">
-        <v>928</v>
+        <v>682</v>
       </c>
       <c r="AK16" s="13">
-        <v>907</v>
+        <v>562</v>
       </c>
       <c r="AL16" s="13">
-        <v>682</v>
+        <v>923</v>
       </c>
       <c r="AM16" s="13">
-        <v>562</v>
+        <v>745</v>
       </c>
       <c r="AN16" s="13">
-        <v>923</v>
+        <v>850</v>
       </c>
       <c r="AO16" s="13">
-        <v>745</v>
+        <v>749</v>
       </c>
       <c r="AP16" s="13">
-        <v>850</v>
+        <v>1049</v>
       </c>
       <c r="AQ16" s="13">
-        <v>749</v>
+        <v>700</v>
       </c>
       <c r="AR16" s="13">
-        <v>1049</v>
+        <v>23383</v>
       </c>
       <c r="AS16" s="13">
-        <v>700</v>
+        <v>942</v>
       </c>
       <c r="AT16" s="13">
-        <v>601</v>
+        <v>1033</v>
       </c>
       <c r="AU16" s="13">
-        <v>942</v>
+        <v>1032</v>
       </c>
       <c r="AV16" s="13">
-        <v>1033</v>
+        <v>642</v>
       </c>
       <c r="AW16" s="13">
+        <v>458</v>
+      </c>
+      <c r="AX16" s="13">
+        <v>1192</v>
+      </c>
+      <c r="AY16" s="13">
+        <v>820</v>
+      </c>
+      <c r="AZ16" s="13">
+        <v>1367</v>
+      </c>
+      <c r="BA16" s="13">
         <v>1032</v>
       </c>
-      <c r="AX16" s="13">
-        <v>822</v>
-      </c>
-      <c r="AY16" s="13">
-        <v>278</v>
-      </c>
-      <c r="AZ16" s="13">
-        <v>1192</v>
-      </c>
-      <c r="BA16" s="13">
-        <v>820</v>
-      </c>
       <c r="BB16" s="13">
-        <v>1367</v>
+        <v>640</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>67</v>
       </c>
@@ -2521,35 +2521,35 @@
       <c r="AS17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU17" s="11" t="s">
-        <v>58</v>
+      <c r="AT17" s="11">
+        <v>340407</v>
+      </c>
+      <c r="AU17" s="11">
+        <v>310411</v>
       </c>
       <c r="AV17" s="11">
-        <v>340407</v>
+        <v>299341</v>
       </c>
       <c r="AW17" s="11">
-        <v>310411</v>
+        <v>245533</v>
       </c>
       <c r="AX17" s="11">
-        <v>286837</v>
+        <v>403886</v>
       </c>
       <c r="AY17" s="11">
-        <v>245533</v>
+        <v>401364</v>
       </c>
       <c r="AZ17" s="11">
-        <v>403886</v>
+        <v>368577</v>
       </c>
       <c r="BA17" s="11">
-        <v>401364</v>
+        <v>370149</v>
       </c>
       <c r="BB17" s="11">
-        <v>368577</v>
+        <v>397945</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="8" t="s">
         <v>68</v>
       </c>
@@ -2606,7 +2606,7 @@
       <c r="BA18" s="9"/>
       <c r="BB18" s="9"/>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>69</v>
       </c>
@@ -2695,14 +2695,14 @@
       <c r="AE19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF19" s="11" t="s">
-        <v>58</v>
+      <c r="AF19" s="11">
+        <v>0</v>
       </c>
       <c r="AG19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH19" s="11">
-        <v>0</v>
+      <c r="AH19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI19" s="11" t="s">
         <v>58</v>
@@ -2765,7 +2765,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="14" t="s">
         <v>70</v>
       </c>
@@ -2825,11 +2825,11 @@
       <c r="V20" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W20" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X20" s="15" t="s">
-        <v>58</v>
+      <c r="W20" s="15">
+        <v>0</v>
+      </c>
+      <c r="X20" s="15">
+        <v>0</v>
       </c>
       <c r="Y20" s="15">
         <v>0</v>
@@ -2922,164 +2922,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="16" t="s">
         <v>71</v>
       </c>
       <c r="C21" s="17"/>
       <c r="D21" s="17"/>
       <c r="E21" s="17">
-        <v>273782385</v>
+        <v>235217011</v>
       </c>
       <c r="F21" s="17">
-        <v>271875585</v>
+        <v>220435112</v>
       </c>
       <c r="G21" s="17">
-        <v>235217011</v>
+        <v>183527574</v>
       </c>
       <c r="H21" s="17">
-        <v>220435112</v>
+        <v>104734372</v>
       </c>
       <c r="I21" s="17">
-        <v>183527574</v>
+        <v>185166103</v>
       </c>
       <c r="J21" s="17">
-        <v>104734372</v>
+        <v>188363998</v>
       </c>
       <c r="K21" s="17">
-        <v>185166103</v>
+        <v>225871042</v>
       </c>
       <c r="L21" s="17">
-        <v>188363998</v>
+        <v>186643585</v>
       </c>
       <c r="M21" s="17">
-        <v>225871042</v>
+        <v>257194446</v>
       </c>
       <c r="N21" s="17">
-        <v>186643585</v>
+        <v>285847732</v>
       </c>
       <c r="O21" s="17">
-        <v>257194446</v>
+        <v>328555752</v>
       </c>
       <c r="P21" s="17">
-        <v>285847732</v>
+        <v>263881522</v>
       </c>
       <c r="Q21" s="17">
-        <v>328555752</v>
+        <v>354717527</v>
       </c>
       <c r="R21" s="17">
-        <v>263881522</v>
+        <v>272076244</v>
       </c>
       <c r="S21" s="17">
-        <v>354717527</v>
+        <v>204382148</v>
       </c>
       <c r="T21" s="17">
-        <v>272076244</v>
+        <v>146673</v>
       </c>
       <c r="U21" s="17">
-        <v>204382148</v>
+        <v>251752</v>
       </c>
       <c r="V21" s="17">
-        <v>146673</v>
+        <v>194761</v>
       </c>
       <c r="W21" s="17">
-        <v>251752</v>
+        <v>265082</v>
       </c>
       <c r="X21" s="17">
-        <v>194761</v>
+        <v>444194</v>
       </c>
       <c r="Y21" s="17">
-        <v>265082</v>
+        <v>337548</v>
       </c>
       <c r="Z21" s="17">
-        <v>444194</v>
+        <v>232116</v>
       </c>
       <c r="AA21" s="17">
-        <v>337548</v>
+        <v>322042</v>
       </c>
       <c r="AB21" s="17">
-        <v>232116</v>
+        <v>353012</v>
       </c>
       <c r="AC21" s="17">
-        <v>322042</v>
+        <v>329456</v>
       </c>
       <c r="AD21" s="17">
-        <v>353012</v>
+        <v>285926</v>
       </c>
       <c r="AE21" s="17">
-        <v>329456</v>
+        <v>334629</v>
       </c>
       <c r="AF21" s="17">
-        <v>285926</v>
+        <v>237952</v>
       </c>
       <c r="AG21" s="17">
-        <v>334629</v>
+        <v>353585</v>
       </c>
       <c r="AH21" s="17">
-        <v>237952</v>
+        <v>271394</v>
       </c>
       <c r="AI21" s="17">
-        <v>353585</v>
+        <v>287339</v>
       </c>
       <c r="AJ21" s="17">
-        <v>271394</v>
+        <v>218598</v>
       </c>
       <c r="AK21" s="17">
-        <v>287339</v>
+        <v>354737</v>
       </c>
       <c r="AL21" s="17">
-        <v>218598</v>
+        <v>362094</v>
       </c>
       <c r="AM21" s="17">
-        <v>354737</v>
+        <v>301567</v>
       </c>
       <c r="AN21" s="17">
-        <v>362094</v>
+        <v>279611</v>
       </c>
       <c r="AO21" s="17">
-        <v>301567</v>
+        <v>324491</v>
       </c>
       <c r="AP21" s="17">
-        <v>279611</v>
+        <v>335799</v>
       </c>
       <c r="AQ21" s="17">
-        <v>324491</v>
+        <v>270539</v>
       </c>
       <c r="AR21" s="17">
-        <v>335799</v>
+        <v>257822</v>
       </c>
       <c r="AS21" s="17">
-        <v>270539</v>
+        <v>355950</v>
       </c>
       <c r="AT21" s="17">
-        <v>208505</v>
+        <v>356064</v>
       </c>
       <c r="AU21" s="17">
-        <v>355950</v>
+        <v>330706</v>
       </c>
       <c r="AV21" s="17">
-        <v>356064</v>
+        <v>310588</v>
       </c>
       <c r="AW21" s="17">
-        <v>330706</v>
+        <v>252722</v>
       </c>
       <c r="AX21" s="17">
-        <v>298225</v>
+        <v>418294</v>
       </c>
       <c r="AY21" s="17">
-        <v>252542</v>
+        <v>404227</v>
       </c>
       <c r="AZ21" s="17">
-        <v>418294</v>
+        <v>384279</v>
       </c>
       <c r="BA21" s="17">
-        <v>404227</v>
+        <v>383213</v>
       </c>
       <c r="BB21" s="17">
-        <v>384279</v>
+        <v>401389</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -3134,7 +3134,7 @@
       <c r="BA22" s="1"/>
       <c r="BB22" s="1"/>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3189,7 +3189,7 @@
       <c r="BA23" s="1"/>
       <c r="BB23" s="1"/>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3244,7 +3244,7 @@
       <c r="BA24" s="1"/>
       <c r="BB24" s="1"/>
     </row>
-    <row r="25" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B25" s="7" t="s">
         <v>72</v>
       </c>
@@ -3401,7 +3401,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -3456,7 +3456,7 @@
       <c r="BA26" s="1"/>
       <c r="BB26" s="1"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="8" t="s">
         <v>72</v>
       </c>
@@ -3513,7 +3513,7 @@
       <c r="BA27" s="9"/>
       <c r="BB27" s="9"/>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="10" t="s">
         <v>55</v>
       </c>
@@ -3522,157 +3522,157 @@
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11">
-        <v>10875000</v>
+        <v>1545390</v>
       </c>
       <c r="F28" s="11">
-        <v>180600</v>
+        <v>7814740</v>
       </c>
       <c r="G28" s="11">
-        <v>1545390</v>
+        <v>1303190</v>
       </c>
       <c r="H28" s="11">
-        <v>7814740</v>
+        <v>0</v>
       </c>
       <c r="I28" s="11">
-        <v>1303190</v>
+        <v>3259800</v>
       </c>
       <c r="J28" s="11">
-        <v>0</v>
+        <v>2299850</v>
       </c>
       <c r="K28" s="11">
-        <v>3259800</v>
+        <v>18308480</v>
       </c>
       <c r="L28" s="11">
-        <v>2299850</v>
+        <v>12168990</v>
       </c>
       <c r="M28" s="11">
-        <v>18308480</v>
+        <v>14552100</v>
       </c>
       <c r="N28" s="11">
-        <v>12168990</v>
+        <v>13785790</v>
       </c>
       <c r="O28" s="11">
-        <v>14552100</v>
+        <v>15481152</v>
       </c>
       <c r="P28" s="11">
-        <v>13785790</v>
+        <v>7851220</v>
       </c>
       <c r="Q28" s="11">
-        <v>15481152</v>
+        <v>10056320</v>
       </c>
       <c r="R28" s="11">
-        <v>7851220</v>
+        <v>4907520</v>
       </c>
       <c r="S28" s="11">
-        <v>10056320</v>
+        <v>9034000</v>
       </c>
       <c r="T28" s="11">
-        <v>4907520</v>
+        <v>2855</v>
       </c>
       <c r="U28" s="11">
-        <v>9034000</v>
+        <v>12487</v>
       </c>
       <c r="V28" s="11">
-        <v>2855</v>
+        <v>16532</v>
       </c>
       <c r="W28" s="11">
-        <v>12487</v>
+        <v>12375</v>
       </c>
       <c r="X28" s="11">
-        <v>16532</v>
+        <v>3506</v>
       </c>
       <c r="Y28" s="11">
-        <v>12375</v>
+        <v>8122</v>
       </c>
       <c r="Z28" s="11">
-        <v>3506</v>
+        <v>10724</v>
       </c>
       <c r="AA28" s="11">
-        <v>8122</v>
+        <v>2180</v>
       </c>
       <c r="AB28" s="11">
-        <v>10724</v>
+        <v>11142</v>
       </c>
       <c r="AC28" s="11">
-        <v>2180</v>
+        <v>2937</v>
       </c>
       <c r="AD28" s="11">
-        <v>11142</v>
+        <v>9547</v>
       </c>
       <c r="AE28" s="11">
-        <v>2937</v>
+        <v>12648</v>
       </c>
       <c r="AF28" s="11">
-        <v>9547</v>
+        <v>1331</v>
       </c>
       <c r="AG28" s="11">
-        <v>12648</v>
+        <v>10411</v>
       </c>
       <c r="AH28" s="11">
-        <v>1331</v>
+        <v>10400</v>
       </c>
       <c r="AI28" s="11">
-        <v>10411</v>
+        <v>10400</v>
       </c>
       <c r="AJ28" s="11">
-        <v>10400</v>
+        <v>15100</v>
       </c>
       <c r="AK28" s="11">
-        <v>10400</v>
+        <v>20558</v>
       </c>
       <c r="AL28" s="11">
-        <v>15100</v>
+        <v>17286</v>
       </c>
       <c r="AM28" s="11">
-        <v>20558</v>
+        <v>14121</v>
       </c>
       <c r="AN28" s="11">
-        <v>17286</v>
+        <v>6933</v>
       </c>
       <c r="AO28" s="11">
-        <v>14121</v>
+        <v>16008</v>
       </c>
       <c r="AP28" s="11">
-        <v>6933</v>
+        <v>16339</v>
       </c>
       <c r="AQ28" s="11">
-        <v>16008</v>
+        <v>5284</v>
       </c>
       <c r="AR28" s="11">
-        <v>16339</v>
+        <v>9425</v>
       </c>
       <c r="AS28" s="11">
-        <v>5284</v>
+        <v>14611</v>
       </c>
       <c r="AT28" s="11">
-        <v>9425</v>
+        <v>10877</v>
       </c>
       <c r="AU28" s="11">
-        <v>14611</v>
+        <v>6751</v>
       </c>
       <c r="AV28" s="11">
-        <v>10877</v>
+        <v>24094</v>
       </c>
       <c r="AW28" s="11">
-        <v>6751</v>
+        <v>6455</v>
       </c>
       <c r="AX28" s="11">
-        <v>24094</v>
+        <v>10072</v>
       </c>
       <c r="AY28" s="11">
-        <v>6455</v>
+        <v>7454</v>
       </c>
       <c r="AZ28" s="11">
-        <v>10072</v>
+        <v>11236</v>
       </c>
       <c r="BA28" s="11">
-        <v>7454</v>
+        <v>7922</v>
       </c>
       <c r="BB28" s="11">
-        <v>11236</v>
+        <v>4228</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="12" t="s">
         <v>57</v>
       </c>
@@ -3725,90 +3725,90 @@
       <c r="S29" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T29" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U29" s="13" t="s">
-        <v>58</v>
+      <c r="T29" s="13">
+        <v>137085</v>
+      </c>
+      <c r="U29" s="13">
+        <v>216993</v>
       </c>
       <c r="V29" s="13">
-        <v>137085</v>
+        <v>190755</v>
       </c>
       <c r="W29" s="13">
-        <v>216993</v>
+        <v>259464</v>
       </c>
       <c r="X29" s="13">
-        <v>190755</v>
+        <v>290475</v>
       </c>
       <c r="Y29" s="13">
-        <v>259464</v>
+        <v>345930</v>
       </c>
       <c r="Z29" s="13">
-        <v>290475</v>
+        <v>226218</v>
       </c>
       <c r="AA29" s="13">
-        <v>345930</v>
+        <v>319178</v>
       </c>
       <c r="AB29" s="13">
-        <v>226218</v>
+        <v>330991</v>
       </c>
       <c r="AC29" s="13">
-        <v>319178</v>
+        <v>324522</v>
       </c>
       <c r="AD29" s="13">
-        <v>330991</v>
+        <v>283623</v>
       </c>
       <c r="AE29" s="13">
-        <v>324522</v>
+        <v>320708</v>
       </c>
       <c r="AF29" s="13">
-        <v>283623</v>
+        <v>213982</v>
       </c>
       <c r="AG29" s="13">
-        <v>320708</v>
+        <v>372952</v>
       </c>
       <c r="AH29" s="13">
-        <v>213982</v>
+        <v>328574</v>
       </c>
       <c r="AI29" s="13">
-        <v>372952</v>
+        <v>296840</v>
       </c>
       <c r="AJ29" s="13">
-        <v>328574</v>
+        <v>205151</v>
       </c>
       <c r="AK29" s="13">
-        <v>296840</v>
+        <v>364175</v>
       </c>
       <c r="AL29" s="13">
-        <v>205151</v>
+        <v>350725</v>
       </c>
       <c r="AM29" s="13">
-        <v>364175</v>
+        <v>262978</v>
       </c>
       <c r="AN29" s="13">
-        <v>350725</v>
+        <v>265830</v>
       </c>
       <c r="AO29" s="13">
-        <v>262978</v>
+        <v>274767</v>
       </c>
       <c r="AP29" s="13">
-        <v>265830</v>
+        <v>284009</v>
       </c>
       <c r="AQ29" s="13">
-        <v>274767</v>
+        <v>306228</v>
       </c>
       <c r="AR29" s="13">
-        <v>284009</v>
+        <v>239273</v>
       </c>
       <c r="AS29" s="13">
-        <v>306228</v>
-      </c>
-      <c r="AT29" s="13">
-        <v>239273</v>
-      </c>
-      <c r="AU29" s="13">
         <v>252795</v>
       </c>
+      <c r="AT29" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU29" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV29" s="13" t="s">
         <v>58</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="10" t="s">
         <v>59</v>
       </c>
@@ -3840,157 +3840,157 @@
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11">
-        <v>53963</v>
+        <v>39647</v>
       </c>
       <c r="F30" s="11">
-        <v>54469</v>
+        <v>3975</v>
       </c>
       <c r="G30" s="11">
-        <v>39647</v>
+        <v>697</v>
       </c>
       <c r="H30" s="11">
-        <v>3975</v>
+        <v>0</v>
       </c>
       <c r="I30" s="11">
-        <v>697</v>
+        <v>0</v>
       </c>
       <c r="J30" s="11">
         <v>0</v>
       </c>
       <c r="K30" s="11">
-        <v>0</v>
+        <v>12475</v>
       </c>
       <c r="L30" s="11">
-        <v>0</v>
+        <v>37170</v>
       </c>
       <c r="M30" s="11">
-        <v>12475</v>
+        <v>45701</v>
       </c>
       <c r="N30" s="11">
-        <v>37170</v>
+        <v>109913</v>
       </c>
       <c r="O30" s="11">
-        <v>45701</v>
+        <v>98036</v>
       </c>
       <c r="P30" s="11">
-        <v>109913</v>
+        <v>126779</v>
       </c>
       <c r="Q30" s="11">
-        <v>98036</v>
+        <v>85344</v>
       </c>
       <c r="R30" s="11">
-        <v>126779</v>
+        <v>102450</v>
       </c>
       <c r="S30" s="11">
-        <v>85344</v>
+        <v>0</v>
       </c>
       <c r="T30" s="11">
-        <v>102450</v>
+        <v>63</v>
       </c>
       <c r="U30" s="11">
-        <v>0</v>
+        <v>93</v>
       </c>
       <c r="V30" s="11">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="W30" s="11">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="X30" s="11">
-        <v>54</v>
+        <v>92</v>
       </c>
       <c r="Y30" s="11">
-        <v>107</v>
+        <v>71</v>
       </c>
       <c r="Z30" s="11">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="AA30" s="11">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="AB30" s="11">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AC30" s="11">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="AD30" s="11">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="AE30" s="11">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="AF30" s="11">
-        <v>94</v>
+        <v>35</v>
       </c>
       <c r="AG30" s="11">
-        <v>64</v>
+        <v>99</v>
       </c>
       <c r="AH30" s="11">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="AI30" s="11">
-        <v>99</v>
+        <v>62</v>
       </c>
       <c r="AJ30" s="11">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="AK30" s="11">
-        <v>62</v>
+        <v>150</v>
       </c>
       <c r="AL30" s="11">
+        <v>159</v>
+      </c>
+      <c r="AM30" s="11">
+        <v>124</v>
+      </c>
+      <c r="AN30" s="11">
+        <v>102</v>
+      </c>
+      <c r="AO30" s="11">
+        <v>25</v>
+      </c>
+      <c r="AP30" s="11">
+        <v>78</v>
+      </c>
+      <c r="AQ30" s="11">
+        <v>77</v>
+      </c>
+      <c r="AR30" s="11">
+        <v>65</v>
+      </c>
+      <c r="AS30" s="11">
+        <v>53</v>
+      </c>
+      <c r="AT30" s="11">
+        <v>237</v>
+      </c>
+      <c r="AU30" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="11">
+        <v>2363</v>
+      </c>
+      <c r="AW30" s="11">
+        <v>36</v>
+      </c>
+      <c r="AX30" s="11">
+        <v>45</v>
+      </c>
+      <c r="AY30" s="11">
+        <v>13</v>
+      </c>
+      <c r="AZ30" s="11">
+        <v>0</v>
+      </c>
+      <c r="BA30" s="11">
+        <v>0</v>
+      </c>
+      <c r="BB30" s="11">
         <v>101</v>
       </c>
-      <c r="AM30" s="11">
-        <v>150</v>
-      </c>
-      <c r="AN30" s="11">
-        <v>159</v>
-      </c>
-      <c r="AO30" s="11">
-        <v>124</v>
-      </c>
-      <c r="AP30" s="11">
-        <v>102</v>
-      </c>
-      <c r="AQ30" s="11">
-        <v>25</v>
-      </c>
-      <c r="AR30" s="11">
-        <v>78</v>
-      </c>
-      <c r="AS30" s="11">
-        <v>77</v>
-      </c>
-      <c r="AT30" s="11">
-        <v>65</v>
-      </c>
-      <c r="AU30" s="11">
-        <v>53</v>
-      </c>
-      <c r="AV30" s="11">
-        <v>237</v>
-      </c>
-      <c r="AW30" s="11">
-        <v>0</v>
-      </c>
-      <c r="AX30" s="11">
-        <v>23</v>
-      </c>
-      <c r="AY30" s="11">
-        <v>36</v>
-      </c>
-      <c r="AZ30" s="11">
-        <v>45</v>
-      </c>
-      <c r="BA30" s="11">
-        <v>13</v>
-      </c>
-      <c r="BB30" s="11">
-        <v>0</v>
-      </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="12" t="s">
         <v>61</v>
       </c>
@@ -3999,56 +3999,56 @@
       </c>
       <c r="D31" s="13"/>
       <c r="E31" s="13">
-        <v>284564400</v>
+        <v>226798781</v>
       </c>
       <c r="F31" s="13">
-        <v>253767397</v>
+        <v>197883664</v>
       </c>
       <c r="G31" s="13">
-        <v>226798781</v>
+        <v>194144920</v>
       </c>
       <c r="H31" s="13">
-        <v>197883664</v>
+        <v>148278170</v>
       </c>
       <c r="I31" s="13">
-        <v>194144920</v>
+        <v>201674660</v>
       </c>
       <c r="J31" s="13">
-        <v>148278170</v>
+        <v>199331900</v>
       </c>
       <c r="K31" s="13">
-        <v>201674660</v>
+        <v>174032940</v>
       </c>
       <c r="L31" s="13">
-        <v>199331900</v>
+        <v>228109280</v>
       </c>
       <c r="M31" s="13">
-        <v>174032940</v>
+        <v>263966760</v>
       </c>
       <c r="N31" s="13">
-        <v>228109280</v>
+        <v>262244240</v>
       </c>
       <c r="O31" s="13">
-        <v>263966760</v>
+        <v>313954180</v>
       </c>
       <c r="P31" s="13">
-        <v>262244240</v>
+        <v>255855550</v>
       </c>
       <c r="Q31" s="13">
-        <v>313954180</v>
+        <v>332460370</v>
       </c>
       <c r="R31" s="13">
-        <v>255855550</v>
+        <v>265046590</v>
       </c>
       <c r="S31" s="13">
-        <v>332460370</v>
-      </c>
-      <c r="T31" s="13">
-        <v>265046590</v>
-      </c>
-      <c r="U31" s="13">
         <v>193394230</v>
       </c>
+      <c r="T31" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U31" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="V31" s="13" t="s">
         <v>58</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
         <v>63</v>
       </c>
@@ -4158,56 +4158,56 @@
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
-        <v>470566</v>
+        <v>839238</v>
       </c>
       <c r="F32" s="11">
-        <v>887106</v>
+        <v>557758</v>
       </c>
       <c r="G32" s="11">
-        <v>839238</v>
+        <v>415072</v>
       </c>
       <c r="H32" s="11">
-        <v>557758</v>
+        <v>498009</v>
       </c>
       <c r="I32" s="11">
-        <v>415072</v>
+        <v>437427</v>
       </c>
       <c r="J32" s="11">
-        <v>498009</v>
+        <v>653354</v>
       </c>
       <c r="K32" s="11">
-        <v>437427</v>
+        <v>447723</v>
       </c>
       <c r="L32" s="11">
-        <v>653354</v>
+        <v>852737</v>
       </c>
       <c r="M32" s="11">
-        <v>447723</v>
+        <v>750481</v>
       </c>
       <c r="N32" s="11">
-        <v>852737</v>
+        <v>914960</v>
       </c>
       <c r="O32" s="11">
-        <v>750481</v>
+        <v>828386</v>
       </c>
       <c r="P32" s="11">
-        <v>914960</v>
+        <v>820771</v>
       </c>
       <c r="Q32" s="11">
-        <v>828386</v>
+        <v>688739</v>
       </c>
       <c r="R32" s="11">
-        <v>820771</v>
+        <v>737207</v>
       </c>
       <c r="S32" s="11">
-        <v>688739</v>
-      </c>
-      <c r="T32" s="11">
-        <v>737207</v>
-      </c>
-      <c r="U32" s="11">
         <v>731761</v>
       </c>
+      <c r="T32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U32" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="V32" s="11" t="s">
         <v>58</v>
       </c>
@@ -4308,7 +4308,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
         <v>65</v>
       </c>
@@ -4361,113 +4361,113 @@
       <c r="S33" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T33" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U33" s="13" t="s">
-        <v>58</v>
+      <c r="T33" s="13">
+        <v>653</v>
+      </c>
+      <c r="U33" s="13">
+        <v>829</v>
       </c>
       <c r="V33" s="13">
-        <v>653</v>
+        <v>882</v>
       </c>
       <c r="W33" s="13">
-        <v>829</v>
+        <v>761</v>
       </c>
       <c r="X33" s="13">
-        <v>882</v>
+        <v>1133</v>
       </c>
       <c r="Y33" s="13">
-        <v>761</v>
+        <v>1053</v>
       </c>
       <c r="Z33" s="13">
-        <v>1133</v>
+        <v>684</v>
       </c>
       <c r="AA33" s="13">
-        <v>1053</v>
+        <v>742</v>
       </c>
       <c r="AB33" s="13">
-        <v>684</v>
+        <v>984</v>
       </c>
       <c r="AC33" s="13">
-        <v>742</v>
+        <v>800</v>
       </c>
       <c r="AD33" s="13">
-        <v>984</v>
+        <v>843</v>
       </c>
       <c r="AE33" s="13">
-        <v>800</v>
+        <v>469</v>
       </c>
       <c r="AF33" s="13">
-        <v>843</v>
+        <v>466</v>
       </c>
       <c r="AG33" s="13">
-        <v>469</v>
+        <v>1154</v>
       </c>
       <c r="AH33" s="13">
-        <v>466</v>
+        <v>938</v>
       </c>
       <c r="AI33" s="13">
-        <v>1154</v>
+        <v>938</v>
       </c>
       <c r="AJ33" s="13">
-        <v>938</v>
+        <v>681</v>
       </c>
       <c r="AK33" s="13">
-        <v>938</v>
+        <v>675</v>
       </c>
       <c r="AL33" s="13">
-        <v>681</v>
+        <v>874</v>
       </c>
       <c r="AM33" s="13">
-        <v>675</v>
+        <v>690</v>
       </c>
       <c r="AN33" s="13">
-        <v>874</v>
+        <v>786</v>
       </c>
       <c r="AO33" s="13">
-        <v>690</v>
+        <v>555</v>
       </c>
       <c r="AP33" s="13">
-        <v>786</v>
+        <v>1046</v>
       </c>
       <c r="AQ33" s="13">
-        <v>555</v>
+        <v>1009</v>
       </c>
       <c r="AR33" s="13">
-        <v>1046</v>
+        <v>501</v>
       </c>
       <c r="AS33" s="13">
-        <v>1009</v>
+        <v>859</v>
       </c>
       <c r="AT33" s="13">
-        <v>501</v>
+        <v>776</v>
       </c>
       <c r="AU33" s="13">
-        <v>859</v>
+        <v>485</v>
       </c>
       <c r="AV33" s="13">
-        <v>776</v>
+        <v>793</v>
       </c>
       <c r="AW33" s="13">
-        <v>485</v>
+        <v>470</v>
       </c>
       <c r="AX33" s="13">
-        <v>793</v>
+        <v>414</v>
       </c>
       <c r="AY33" s="13">
-        <v>290</v>
+        <v>1650</v>
       </c>
       <c r="AZ33" s="13">
-        <v>414</v>
+        <v>1388</v>
       </c>
       <c r="BA33" s="13">
-        <v>1650</v>
+        <v>1320</v>
       </c>
       <c r="BB33" s="13">
-        <v>1388</v>
+        <v>758</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="10" t="s">
         <v>67</v>
       </c>
@@ -4598,35 +4598,35 @@
       <c r="AS34" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU34" s="11" t="s">
-        <v>58</v>
+      <c r="AT34" s="11">
+        <v>371793</v>
+      </c>
+      <c r="AU34" s="11">
+        <v>271081</v>
       </c>
       <c r="AV34" s="11">
-        <v>371793</v>
+        <v>301048</v>
       </c>
       <c r="AW34" s="11">
-        <v>271081</v>
+        <v>187590</v>
       </c>
       <c r="AX34" s="11">
-        <v>303542</v>
+        <v>426346</v>
       </c>
       <c r="AY34" s="11">
-        <v>184058</v>
+        <v>418527</v>
       </c>
       <c r="AZ34" s="11">
-        <v>426346</v>
+        <v>332840</v>
       </c>
       <c r="BA34" s="11">
-        <v>418527</v>
+        <v>282249</v>
       </c>
       <c r="BB34" s="11">
-        <v>332840</v>
+        <v>328496</v>
       </c>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="8" t="s">
         <v>68</v>
       </c>
@@ -4683,7 +4683,7 @@
       <c r="BA35" s="9"/>
       <c r="BB35" s="9"/>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="10" t="s">
         <v>69</v>
       </c>
@@ -4772,14 +4772,14 @@
       <c r="AE36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF36" s="11" t="s">
-        <v>58</v>
+      <c r="AF36" s="11">
+        <v>0</v>
       </c>
       <c r="AG36" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AH36" s="11">
-        <v>0</v>
+      <c r="AH36" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI36" s="11" t="s">
         <v>58</v>
@@ -4842,7 +4842,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
         <v>70</v>
       </c>
@@ -4902,11 +4902,11 @@
       <c r="V37" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W37" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X37" s="15" t="s">
-        <v>58</v>
+      <c r="W37" s="15">
+        <v>0</v>
+      </c>
+      <c r="X37" s="15">
+        <v>0</v>
       </c>
       <c r="Y37" s="15">
         <v>0</v>
@@ -4999,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="18" t="s">
         <v>73</v>
       </c>
@@ -5056,7 +5056,7 @@
       <c r="BA38" s="19"/>
       <c r="BB38" s="19"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="16" t="s">
         <v>74</v>
       </c>
@@ -5116,11 +5116,11 @@
       <c r="V39" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W39" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X39" s="17" t="s">
-        <v>58</v>
+      <c r="W39" s="17">
+        <v>0</v>
+      </c>
+      <c r="X39" s="17">
+        <v>0</v>
       </c>
       <c r="Y39" s="17">
         <v>0</v>
@@ -5213,164 +5213,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B40" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C40" s="15"/>
       <c r="D40" s="15"/>
       <c r="E40" s="15">
-        <v>295963929</v>
+        <v>229223056</v>
       </c>
       <c r="F40" s="15">
-        <v>254889572</v>
+        <v>206260137</v>
       </c>
       <c r="G40" s="15">
-        <v>229223056</v>
+        <v>195863879</v>
       </c>
       <c r="H40" s="15">
-        <v>206260137</v>
+        <v>148776179</v>
       </c>
       <c r="I40" s="15">
-        <v>195863879</v>
+        <v>205371887</v>
       </c>
       <c r="J40" s="15">
-        <v>148776179</v>
+        <v>202285104</v>
       </c>
       <c r="K40" s="15">
-        <v>205371887</v>
+        <v>192801618</v>
       </c>
       <c r="L40" s="15">
-        <v>202285104</v>
+        <v>241168177</v>
       </c>
       <c r="M40" s="15">
-        <v>192801618</v>
+        <v>279315042</v>
       </c>
       <c r="N40" s="15">
-        <v>241168177</v>
+        <v>277054903</v>
       </c>
       <c r="O40" s="15">
-        <v>279315042</v>
+        <v>330361754</v>
       </c>
       <c r="P40" s="15">
-        <v>277054903</v>
+        <v>264654320</v>
       </c>
       <c r="Q40" s="15">
-        <v>330361754</v>
+        <v>343290773</v>
       </c>
       <c r="R40" s="15">
-        <v>264654320</v>
+        <v>270793767</v>
       </c>
       <c r="S40" s="15">
-        <v>343290773</v>
+        <v>203159991</v>
       </c>
       <c r="T40" s="15">
-        <v>270793767</v>
+        <v>140656</v>
       </c>
       <c r="U40" s="15">
-        <v>203159991</v>
+        <v>230402</v>
       </c>
       <c r="V40" s="15">
-        <v>140656</v>
+        <v>208223</v>
       </c>
       <c r="W40" s="15">
-        <v>230402</v>
+        <v>272707</v>
       </c>
       <c r="X40" s="15">
-        <v>208223</v>
+        <v>295206</v>
       </c>
       <c r="Y40" s="15">
-        <v>272707</v>
+        <v>355176</v>
       </c>
       <c r="Z40" s="15">
-        <v>295206</v>
+        <v>237693</v>
       </c>
       <c r="AA40" s="15">
-        <v>355176</v>
+        <v>322183</v>
       </c>
       <c r="AB40" s="15">
-        <v>237693</v>
+        <v>343168</v>
       </c>
       <c r="AC40" s="15">
-        <v>322183</v>
+        <v>328280</v>
       </c>
       <c r="AD40" s="15">
-        <v>343168</v>
+        <v>294107</v>
       </c>
       <c r="AE40" s="15">
-        <v>328280</v>
+        <v>333889</v>
       </c>
       <c r="AF40" s="15">
-        <v>294107</v>
+        <v>215814</v>
       </c>
       <c r="AG40" s="15">
-        <v>333889</v>
+        <v>384616</v>
       </c>
       <c r="AH40" s="15">
-        <v>215814</v>
+        <v>339973</v>
       </c>
       <c r="AI40" s="15">
-        <v>384616</v>
+        <v>308240</v>
       </c>
       <c r="AJ40" s="15">
-        <v>339973</v>
+        <v>221033</v>
       </c>
       <c r="AK40" s="15">
-        <v>308240</v>
+        <v>385558</v>
       </c>
       <c r="AL40" s="15">
-        <v>221033</v>
+        <v>369044</v>
       </c>
       <c r="AM40" s="15">
-        <v>385558</v>
+        <v>277913</v>
       </c>
       <c r="AN40" s="15">
-        <v>369044</v>
+        <v>273651</v>
       </c>
       <c r="AO40" s="15">
-        <v>277913</v>
+        <v>291355</v>
       </c>
       <c r="AP40" s="15">
-        <v>273651</v>
+        <v>301472</v>
       </c>
       <c r="AQ40" s="15">
-        <v>291355</v>
+        <v>312598</v>
       </c>
       <c r="AR40" s="15">
-        <v>301472</v>
+        <v>249264</v>
       </c>
       <c r="AS40" s="15">
-        <v>312598</v>
+        <v>268318</v>
       </c>
       <c r="AT40" s="15">
-        <v>249264</v>
+        <v>383683</v>
       </c>
       <c r="AU40" s="15">
-        <v>268318</v>
+        <v>278317</v>
       </c>
       <c r="AV40" s="15">
-        <v>383683</v>
+        <v>328298</v>
       </c>
       <c r="AW40" s="15">
-        <v>278317</v>
+        <v>194551</v>
       </c>
       <c r="AX40" s="15">
-        <v>328452</v>
+        <v>436877</v>
       </c>
       <c r="AY40" s="15">
-        <v>190839</v>
+        <v>427644</v>
       </c>
       <c r="AZ40" s="15">
-        <v>436877</v>
+        <v>345464</v>
       </c>
       <c r="BA40" s="15">
-        <v>427644</v>
+        <v>291491</v>
       </c>
       <c r="BB40" s="15">
-        <v>345464</v>
+        <v>333583</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5425,7 +5425,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -5480,7 +5480,7 @@
       <c r="BA42" s="1"/>
       <c r="BB42" s="1"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -5535,7 +5535,7 @@
       <c r="BA43" s="1"/>
       <c r="BB43" s="1"/>
     </row>
-    <row r="44" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
         <v>75</v>
       </c>
@@ -5692,7 +5692,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -5747,7 +5747,7 @@
       <c r="BA45" s="1"/>
       <c r="BB45" s="1"/>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>75</v>
       </c>
@@ -5804,7 +5804,7 @@
       <c r="BA46" s="9"/>
       <c r="BB46" s="9"/>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>55</v>
       </c>
@@ -5813,157 +5813,157 @@
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
-        <v>19010</v>
+        <v>3563</v>
       </c>
       <c r="F47" s="11">
-        <v>3977</v>
+        <v>8931</v>
       </c>
       <c r="G47" s="11">
-        <v>3563</v>
+        <v>1402</v>
       </c>
       <c r="H47" s="11">
-        <v>8931</v>
+        <v>0</v>
       </c>
       <c r="I47" s="11">
-        <v>1402</v>
+        <v>6494</v>
       </c>
       <c r="J47" s="11">
-        <v>0</v>
+        <v>2401</v>
       </c>
       <c r="K47" s="11">
-        <v>6494</v>
+        <v>48770</v>
       </c>
       <c r="L47" s="11">
-        <v>2401</v>
+        <v>26761</v>
       </c>
       <c r="M47" s="11">
-        <v>48770</v>
+        <v>24062</v>
       </c>
       <c r="N47" s="11">
-        <v>26761</v>
+        <v>39518</v>
       </c>
       <c r="O47" s="11">
-        <v>24062</v>
+        <v>32645</v>
       </c>
       <c r="P47" s="11">
-        <v>39518</v>
+        <v>23608</v>
       </c>
       <c r="Q47" s="11">
-        <v>32645</v>
+        <v>21730</v>
       </c>
       <c r="R47" s="11">
-        <v>23608</v>
+        <v>13248</v>
       </c>
       <c r="S47" s="11">
-        <v>21730</v>
+        <v>23967</v>
       </c>
       <c r="T47" s="11">
-        <v>13248</v>
+        <v>6762</v>
       </c>
       <c r="U47" s="11">
-        <v>23967</v>
+        <v>40483</v>
       </c>
       <c r="V47" s="11">
-        <v>6762</v>
+        <v>39604</v>
       </c>
       <c r="W47" s="11">
-        <v>40483</v>
+        <v>37005</v>
       </c>
       <c r="X47" s="11">
-        <v>39604</v>
+        <v>5457</v>
       </c>
       <c r="Y47" s="11">
-        <v>37005</v>
+        <v>16515</v>
       </c>
       <c r="Z47" s="11">
-        <v>5457</v>
+        <v>39129</v>
       </c>
       <c r="AA47" s="11">
-        <v>16515</v>
+        <v>11941</v>
       </c>
       <c r="AB47" s="11">
-        <v>39129</v>
+        <v>26706</v>
       </c>
       <c r="AC47" s="11">
-        <v>11941</v>
+        <v>2221</v>
       </c>
       <c r="AD47" s="11">
-        <v>26706</v>
+        <v>22884</v>
       </c>
       <c r="AE47" s="11">
-        <v>2221</v>
+        <v>29431</v>
       </c>
       <c r="AF47" s="11">
-        <v>22884</v>
+        <v>8282</v>
       </c>
       <c r="AG47" s="11">
-        <v>29431</v>
+        <v>68285</v>
       </c>
       <c r="AH47" s="11">
-        <v>8282</v>
+        <v>68212</v>
       </c>
       <c r="AI47" s="11">
-        <v>68285</v>
+        <v>68212</v>
       </c>
       <c r="AJ47" s="11">
-        <v>68212</v>
+        <v>103575</v>
       </c>
       <c r="AK47" s="11">
-        <v>68212</v>
+        <v>92534</v>
       </c>
       <c r="AL47" s="11">
-        <v>103575</v>
+        <v>47591</v>
       </c>
       <c r="AM47" s="11">
-        <v>92534</v>
+        <v>72237</v>
       </c>
       <c r="AN47" s="11">
-        <v>47591</v>
+        <v>22570</v>
       </c>
       <c r="AO47" s="11">
-        <v>72237</v>
+        <v>70012</v>
       </c>
       <c r="AP47" s="11">
-        <v>22570</v>
+        <v>63242</v>
       </c>
       <c r="AQ47" s="11">
-        <v>70012</v>
+        <v>24151</v>
       </c>
       <c r="AR47" s="11">
-        <v>63242</v>
+        <v>52613</v>
       </c>
       <c r="AS47" s="11">
-        <v>24151</v>
+        <v>46181</v>
       </c>
       <c r="AT47" s="11">
-        <v>52613</v>
+        <v>37662</v>
       </c>
       <c r="AU47" s="11">
-        <v>46181</v>
+        <v>32597</v>
       </c>
       <c r="AV47" s="11">
-        <v>37662</v>
+        <v>141359</v>
       </c>
       <c r="AW47" s="11">
-        <v>32597</v>
+        <v>54050</v>
       </c>
       <c r="AX47" s="11">
-        <v>141359</v>
+        <v>76864</v>
       </c>
       <c r="AY47" s="11">
-        <v>54050</v>
+        <v>43788</v>
       </c>
       <c r="AZ47" s="11">
-        <v>76864</v>
+        <v>70948</v>
       </c>
       <c r="BA47" s="11">
-        <v>43788</v>
+        <v>43869</v>
       </c>
       <c r="BB47" s="11">
-        <v>70948</v>
+        <v>37974</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>57</v>
       </c>
@@ -6016,90 +6016,90 @@
       <c r="S48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U48" s="13" t="s">
-        <v>58</v>
+      <c r="T48" s="13">
+        <v>141947</v>
+      </c>
+      <c r="U48" s="13">
+        <v>274981</v>
       </c>
       <c r="V48" s="13">
-        <v>141947</v>
+        <v>292600</v>
       </c>
       <c r="W48" s="13">
-        <v>274981</v>
+        <v>353228</v>
       </c>
       <c r="X48" s="13">
-        <v>292600</v>
+        <v>474170</v>
       </c>
       <c r="Y48" s="13">
-        <v>353228</v>
+        <v>532462</v>
       </c>
       <c r="Z48" s="13">
-        <v>474170</v>
+        <v>404640</v>
       </c>
       <c r="AA48" s="13">
-        <v>532462</v>
+        <v>548260</v>
       </c>
       <c r="AB48" s="13">
-        <v>404640</v>
+        <v>609187</v>
       </c>
       <c r="AC48" s="13">
-        <v>548260</v>
+        <v>537573</v>
       </c>
       <c r="AD48" s="13">
-        <v>609187</v>
+        <v>522007</v>
       </c>
       <c r="AE48" s="13">
-        <v>537573</v>
+        <v>383702</v>
       </c>
       <c r="AF48" s="13">
-        <v>522007</v>
+        <v>275262</v>
       </c>
       <c r="AG48" s="13">
-        <v>383702</v>
+        <v>549012</v>
       </c>
       <c r="AH48" s="13">
-        <v>275262</v>
+        <v>483686</v>
       </c>
       <c r="AI48" s="13">
-        <v>549012</v>
+        <v>463686</v>
       </c>
       <c r="AJ48" s="13">
-        <v>483686</v>
+        <v>334781</v>
       </c>
       <c r="AK48" s="13">
-        <v>463686</v>
+        <v>530593</v>
       </c>
       <c r="AL48" s="13">
-        <v>334781</v>
+        <v>786507</v>
       </c>
       <c r="AM48" s="13">
-        <v>530593</v>
+        <v>576574</v>
       </c>
       <c r="AN48" s="13">
-        <v>786507</v>
+        <v>429011</v>
       </c>
       <c r="AO48" s="13">
-        <v>576574</v>
+        <v>427910</v>
       </c>
       <c r="AP48" s="13">
-        <v>429011</v>
+        <v>406316</v>
       </c>
       <c r="AQ48" s="13">
-        <v>427910</v>
+        <v>504960</v>
       </c>
       <c r="AR48" s="13">
-        <v>406316</v>
+        <v>421014</v>
       </c>
       <c r="AS48" s="13">
-        <v>504960</v>
-      </c>
-      <c r="AT48" s="13">
-        <v>421014</v>
-      </c>
-      <c r="AU48" s="13">
         <v>458952</v>
       </c>
+      <c r="AT48" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU48" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV48" s="13" t="s">
         <v>58</v>
       </c>
@@ -6122,7 +6122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>59</v>
       </c>
@@ -6131,157 +6131,157 @@
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
-        <v>5692</v>
+        <v>6402</v>
       </c>
       <c r="F49" s="11">
-        <v>10701</v>
+        <v>60</v>
       </c>
       <c r="G49" s="11">
-        <v>6402</v>
+        <v>8</v>
       </c>
       <c r="H49" s="11">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="I49" s="11">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J49" s="11">
         <v>0</v>
       </c>
       <c r="K49" s="11">
-        <v>0</v>
+        <v>2353</v>
       </c>
       <c r="L49" s="11">
-        <v>0</v>
+        <v>7009</v>
       </c>
       <c r="M49" s="11">
-        <v>2353</v>
+        <v>8441</v>
       </c>
       <c r="N49" s="11">
-        <v>7009</v>
+        <v>20385</v>
       </c>
       <c r="O49" s="11">
-        <v>8441</v>
+        <v>11434</v>
       </c>
       <c r="P49" s="11">
-        <v>20385</v>
+        <v>24055</v>
       </c>
       <c r="Q49" s="11">
-        <v>11434</v>
+        <v>12618</v>
       </c>
       <c r="R49" s="11">
-        <v>24055</v>
+        <v>7223</v>
       </c>
       <c r="S49" s="11">
-        <v>12618</v>
+        <v>0</v>
       </c>
       <c r="T49" s="11">
-        <v>7223</v>
+        <v>4861</v>
       </c>
       <c r="U49" s="11">
-        <v>0</v>
+        <v>17593</v>
       </c>
       <c r="V49" s="11">
-        <v>4861</v>
+        <v>10007</v>
       </c>
       <c r="W49" s="11">
-        <v>17593</v>
+        <v>20181</v>
       </c>
       <c r="X49" s="11">
-        <v>10007</v>
+        <v>16628</v>
       </c>
       <c r="Y49" s="11">
-        <v>20181</v>
+        <v>13083</v>
       </c>
       <c r="Z49" s="11">
-        <v>16628</v>
+        <v>9166</v>
       </c>
       <c r="AA49" s="11">
-        <v>13083</v>
+        <v>14008</v>
       </c>
       <c r="AB49" s="11">
-        <v>9166</v>
+        <v>9208</v>
       </c>
       <c r="AC49" s="11">
-        <v>14008</v>
+        <v>1236</v>
       </c>
       <c r="AD49" s="11">
-        <v>9208</v>
+        <v>17009</v>
       </c>
       <c r="AE49" s="11">
-        <v>1236</v>
+        <v>3272</v>
       </c>
       <c r="AF49" s="11">
-        <v>17009</v>
+        <v>6634</v>
       </c>
       <c r="AG49" s="11">
-        <v>3272</v>
+        <v>19912</v>
       </c>
       <c r="AH49" s="11">
-        <v>6634</v>
+        <v>12402</v>
       </c>
       <c r="AI49" s="11">
-        <v>19912</v>
+        <v>12402</v>
       </c>
       <c r="AJ49" s="11">
-        <v>12402</v>
+        <v>20211</v>
       </c>
       <c r="AK49" s="11">
-        <v>12402</v>
+        <v>42188</v>
       </c>
       <c r="AL49" s="11">
-        <v>20211</v>
+        <v>5677</v>
       </c>
       <c r="AM49" s="11">
-        <v>42188</v>
+        <v>4572</v>
       </c>
       <c r="AN49" s="11">
-        <v>5677</v>
+        <v>1923</v>
       </c>
       <c r="AO49" s="11">
-        <v>4572</v>
+        <v>467</v>
       </c>
       <c r="AP49" s="11">
-        <v>1923</v>
+        <v>1645</v>
       </c>
       <c r="AQ49" s="11">
-        <v>467</v>
+        <v>2503</v>
       </c>
       <c r="AR49" s="11">
-        <v>1645</v>
+        <v>2275</v>
       </c>
       <c r="AS49" s="11">
-        <v>2503</v>
+        <v>1812</v>
       </c>
       <c r="AT49" s="11">
-        <v>2275</v>
+        <v>17443</v>
       </c>
       <c r="AU49" s="11">
-        <v>1812</v>
+        <v>0</v>
       </c>
       <c r="AV49" s="11">
-        <v>17443</v>
+        <v>3636</v>
       </c>
       <c r="AW49" s="11">
-        <v>0</v>
+        <v>7361</v>
       </c>
       <c r="AX49" s="11">
-        <v>3636</v>
+        <v>7658</v>
       </c>
       <c r="AY49" s="11">
-        <v>7361</v>
+        <v>3317</v>
       </c>
       <c r="AZ49" s="11">
-        <v>7658</v>
+        <v>0</v>
       </c>
       <c r="BA49" s="11">
-        <v>3317</v>
+        <v>0</v>
       </c>
       <c r="BB49" s="11">
-        <v>0</v>
+        <v>4821</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>61</v>
       </c>
@@ -6290,56 +6290,56 @@
       </c>
       <c r="D50" s="13"/>
       <c r="E50" s="13">
-        <v>221444</v>
+        <v>189511</v>
       </c>
       <c r="F50" s="13">
-        <v>222222</v>
+        <v>221113</v>
       </c>
       <c r="G50" s="13">
-        <v>189511</v>
+        <v>175378</v>
       </c>
       <c r="H50" s="13">
-        <v>221113</v>
+        <v>151965</v>
       </c>
       <c r="I50" s="13">
-        <v>175378</v>
+        <v>221026</v>
       </c>
       <c r="J50" s="13">
-        <v>151965</v>
+        <v>221025</v>
       </c>
       <c r="K50" s="13">
-        <v>221026</v>
+        <v>238903</v>
       </c>
       <c r="L50" s="13">
-        <v>221025</v>
+        <v>248012</v>
       </c>
       <c r="M50" s="13">
-        <v>238903</v>
+        <v>270372</v>
       </c>
       <c r="N50" s="13">
-        <v>248012</v>
+        <v>327994</v>
       </c>
       <c r="O50" s="13">
-        <v>270372</v>
+        <v>403272</v>
       </c>
       <c r="P50" s="13">
-        <v>327994</v>
+        <v>259584</v>
       </c>
       <c r="Q50" s="13">
-        <v>403272</v>
+        <v>388782</v>
       </c>
       <c r="R50" s="13">
-        <v>259584</v>
+        <v>255443</v>
       </c>
       <c r="S50" s="13">
-        <v>388782</v>
-      </c>
-      <c r="T50" s="13">
-        <v>255443</v>
-      </c>
-      <c r="U50" s="13">
         <v>238964</v>
       </c>
+      <c r="T50" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U50" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="V50" s="13" t="s">
         <v>58</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>63</v>
       </c>
@@ -6449,56 +6449,56 @@
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11">
-        <v>18289</v>
+        <v>24003</v>
       </c>
       <c r="F51" s="11">
-        <v>26843</v>
+        <v>19500</v>
       </c>
       <c r="G51" s="11">
-        <v>24003</v>
+        <v>10902</v>
       </c>
       <c r="H51" s="11">
-        <v>19500</v>
+        <v>13738</v>
       </c>
       <c r="I51" s="11">
-        <v>10902</v>
+        <v>13994</v>
       </c>
       <c r="J51" s="11">
-        <v>13738</v>
+        <v>18875</v>
       </c>
       <c r="K51" s="11">
-        <v>13994</v>
+        <v>16487</v>
       </c>
       <c r="L51" s="11">
-        <v>18875</v>
+        <v>30270</v>
       </c>
       <c r="M51" s="11">
-        <v>16487</v>
+        <v>23571</v>
       </c>
       <c r="N51" s="11">
-        <v>30270</v>
+        <v>25770</v>
       </c>
       <c r="O51" s="11">
-        <v>23571</v>
+        <v>26803</v>
       </c>
       <c r="P51" s="11">
-        <v>25770</v>
+        <v>24553</v>
       </c>
       <c r="Q51" s="11">
-        <v>26803</v>
+        <v>28021</v>
       </c>
       <c r="R51" s="11">
-        <v>24553</v>
+        <v>27165</v>
       </c>
       <c r="S51" s="11">
-        <v>28021</v>
-      </c>
-      <c r="T51" s="11">
-        <v>27165</v>
-      </c>
-      <c r="U51" s="11">
         <v>27693</v>
       </c>
+      <c r="T51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U51" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="V51" s="11" t="s">
         <v>58</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>65</v>
       </c>
@@ -6652,113 +6652,113 @@
       <c r="S52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U52" s="13" t="s">
-        <v>58</v>
+      <c r="T52" s="13">
+        <v>26240</v>
+      </c>
+      <c r="U52" s="13">
+        <v>27713</v>
       </c>
       <c r="V52" s="13">
-        <v>26240</v>
+        <v>29940</v>
       </c>
       <c r="W52" s="13">
-        <v>27713</v>
+        <v>21231</v>
       </c>
       <c r="X52" s="13">
-        <v>29940</v>
+        <v>44192</v>
       </c>
       <c r="Y52" s="13">
-        <v>21231</v>
+        <v>38078</v>
       </c>
       <c r="Z52" s="13">
-        <v>44192</v>
+        <v>26933</v>
       </c>
       <c r="AA52" s="13">
-        <v>38078</v>
+        <v>32868</v>
       </c>
       <c r="AB52" s="13">
-        <v>26933</v>
+        <v>56274</v>
       </c>
       <c r="AC52" s="13">
-        <v>32868</v>
+        <v>32842</v>
       </c>
       <c r="AD52" s="13">
-        <v>56274</v>
+        <v>48221</v>
       </c>
       <c r="AE52" s="13">
-        <v>32842</v>
+        <v>48161</v>
       </c>
       <c r="AF52" s="13">
-        <v>48221</v>
+        <v>28093</v>
       </c>
       <c r="AG52" s="13">
-        <v>48161</v>
+        <v>68657</v>
       </c>
       <c r="AH52" s="13">
-        <v>28093</v>
+        <v>55810</v>
       </c>
       <c r="AI52" s="13">
-        <v>68657</v>
+        <v>55810</v>
       </c>
       <c r="AJ52" s="13">
-        <v>55810</v>
+        <v>42539</v>
       </c>
       <c r="AK52" s="13">
-        <v>55810</v>
+        <v>38094</v>
       </c>
       <c r="AL52" s="13">
-        <v>42539</v>
+        <v>36617</v>
       </c>
       <c r="AM52" s="13">
-        <v>38094</v>
+        <v>47117</v>
       </c>
       <c r="AN52" s="13">
-        <v>36617</v>
+        <v>47097</v>
       </c>
       <c r="AO52" s="13">
-        <v>47117</v>
+        <v>25504</v>
       </c>
       <c r="AP52" s="13">
-        <v>47097</v>
+        <v>99798</v>
       </c>
       <c r="AQ52" s="13">
-        <v>25504</v>
+        <v>76587</v>
       </c>
       <c r="AR52" s="13">
-        <v>99798</v>
+        <v>32617</v>
       </c>
       <c r="AS52" s="13">
-        <v>76587</v>
+        <v>49479</v>
       </c>
       <c r="AT52" s="13">
-        <v>32617</v>
+        <v>44695</v>
       </c>
       <c r="AU52" s="13">
-        <v>49479</v>
+        <v>59455</v>
       </c>
       <c r="AV52" s="13">
-        <v>44695</v>
+        <v>85461</v>
       </c>
       <c r="AW52" s="13">
-        <v>59455</v>
+        <v>68977</v>
       </c>
       <c r="AX52" s="13">
-        <v>85461</v>
+        <v>18343</v>
       </c>
       <c r="AY52" s="13">
-        <v>68977</v>
+        <v>115733</v>
       </c>
       <c r="AZ52" s="13">
-        <v>18343</v>
+        <v>153300</v>
       </c>
       <c r="BA52" s="13">
-        <v>115733</v>
+        <v>150643</v>
       </c>
       <c r="BB52" s="13">
-        <v>153300</v>
+        <v>65291</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>67</v>
       </c>
@@ -6889,35 +6889,35 @@
       <c r="AS53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU53" s="11" t="s">
-        <v>58</v>
+      <c r="AT53" s="11">
+        <v>706765</v>
+      </c>
+      <c r="AU53" s="11">
+        <v>757101</v>
       </c>
       <c r="AV53" s="11">
-        <v>706765</v>
+        <v>821724</v>
       </c>
       <c r="AW53" s="11">
-        <v>750121</v>
+        <v>1114746</v>
       </c>
       <c r="AX53" s="11">
-        <v>726860</v>
+        <v>1158100</v>
       </c>
       <c r="AY53" s="11">
-        <v>1114746</v>
+        <v>1075729</v>
       </c>
       <c r="AZ53" s="11">
-        <v>1158100</v>
+        <v>1062881</v>
       </c>
       <c r="BA53" s="11">
-        <v>1075729</v>
+        <v>1175744</v>
       </c>
       <c r="BB53" s="11">
-        <v>1062881</v>
+        <v>1275162</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="8" t="s">
         <v>77</v>
       </c>
@@ -6974,7 +6974,7 @@
       <c r="BA54" s="9"/>
       <c r="BB54" s="9"/>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>69</v>
       </c>
@@ -7063,11 +7063,11 @@
       <c r="AE55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG55" s="11" t="s">
-        <v>58</v>
+      <c r="AF55" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG55" s="11">
+        <v>0</v>
       </c>
       <c r="AH55" s="11">
         <v>0</v>
@@ -7099,11 +7099,11 @@
       <c r="AQ55" s="11">
         <v>0</v>
       </c>
-      <c r="AR55" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS55" s="11">
-        <v>0</v>
+      <c r="AR55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT55" s="11" t="s">
         <v>58</v>
@@ -7133,7 +7133,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="14" t="s">
         <v>70</v>
       </c>
@@ -7195,11 +7195,11 @@
       <c r="V56" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W56" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X56" s="15" t="s">
-        <v>58</v>
+      <c r="W56" s="15">
+        <v>0</v>
+      </c>
+      <c r="X56" s="15">
+        <v>0</v>
       </c>
       <c r="Y56" s="15">
         <v>0</v>
@@ -7292,7 +7292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="18" t="s">
         <v>78</v>
       </c>
@@ -7349,7 +7349,7 @@
       <c r="BA57" s="19"/>
       <c r="BB57" s="19"/>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="16" t="s">
         <v>74</v>
       </c>
@@ -7411,11 +7411,11 @@
       <c r="V58" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="W58" s="17" t="s">
-        <v>58</v>
-      </c>
-      <c r="X58" s="17" t="s">
-        <v>58</v>
+      <c r="W58" s="17">
+        <v>0</v>
+      </c>
+      <c r="X58" s="17">
+        <v>0</v>
       </c>
       <c r="Y58" s="17">
         <v>0</v>
@@ -7508,7 +7508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="8" t="s">
         <v>79</v>
       </c>
@@ -7565,7 +7565,7 @@
       <c r="BA59" s="9"/>
       <c r="BB59" s="9"/>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="10" t="s">
         <v>80</v>
       </c>
@@ -7627,11 +7627,11 @@
       <c r="V60" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W60" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X60" s="11" t="s">
-        <v>58</v>
+      <c r="W60" s="11">
+        <v>0</v>
+      </c>
+      <c r="X60" s="11">
+        <v>0</v>
       </c>
       <c r="Y60" s="11">
         <v>0</v>
@@ -7724,164 +7724,164 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="14" t="s">
         <v>71</v>
       </c>
       <c r="C61" s="15"/>
       <c r="D61" s="15"/>
       <c r="E61" s="15">
-        <v>264435</v>
+        <v>223479</v>
       </c>
       <c r="F61" s="15">
-        <v>263743</v>
+        <v>249604</v>
       </c>
       <c r="G61" s="15">
-        <v>223479</v>
+        <v>187690</v>
       </c>
       <c r="H61" s="15">
-        <v>249604</v>
+        <v>165703</v>
       </c>
       <c r="I61" s="15">
-        <v>187690</v>
+        <v>241514</v>
       </c>
       <c r="J61" s="15">
-        <v>165703</v>
+        <v>242301</v>
       </c>
       <c r="K61" s="15">
-        <v>241514</v>
+        <v>306513</v>
       </c>
       <c r="L61" s="15">
-        <v>242301</v>
+        <v>312052</v>
       </c>
       <c r="M61" s="15">
-        <v>306513</v>
+        <v>326446</v>
       </c>
       <c r="N61" s="15">
-        <v>312052</v>
+        <v>413667</v>
       </c>
       <c r="O61" s="15">
-        <v>326446</v>
+        <v>474154</v>
       </c>
       <c r="P61" s="15">
-        <v>413667</v>
+        <v>331800</v>
       </c>
       <c r="Q61" s="15">
-        <v>474154</v>
+        <v>451151</v>
       </c>
       <c r="R61" s="15">
-        <v>331800</v>
+        <v>303079</v>
       </c>
       <c r="S61" s="15">
-        <v>451151</v>
+        <v>290624</v>
       </c>
       <c r="T61" s="15">
-        <v>303079</v>
+        <v>179810</v>
       </c>
       <c r="U61" s="15">
-        <v>290624</v>
+        <v>360770</v>
       </c>
       <c r="V61" s="15">
-        <v>179810</v>
+        <v>372151</v>
       </c>
       <c r="W61" s="15">
-        <v>360770</v>
+        <v>431645</v>
       </c>
       <c r="X61" s="15">
-        <v>372151</v>
+        <v>540447</v>
       </c>
       <c r="Y61" s="15">
-        <v>431645</v>
+        <v>600138</v>
       </c>
       <c r="Z61" s="15">
-        <v>540447</v>
+        <v>479868</v>
       </c>
       <c r="AA61" s="15">
-        <v>600138</v>
+        <v>607077</v>
       </c>
       <c r="AB61" s="15">
-        <v>479868</v>
+        <v>701375</v>
       </c>
       <c r="AC61" s="15">
-        <v>607077</v>
+        <v>573872</v>
       </c>
       <c r="AD61" s="15">
-        <v>701375</v>
+        <v>610121</v>
       </c>
       <c r="AE61" s="15">
-        <v>573872</v>
+        <v>464566</v>
       </c>
       <c r="AF61" s="15">
-        <v>610121</v>
+        <v>318271</v>
       </c>
       <c r="AG61" s="15">
-        <v>464566</v>
+        <v>705866</v>
       </c>
       <c r="AH61" s="15">
-        <v>318271</v>
+        <v>620110</v>
       </c>
       <c r="AI61" s="15">
-        <v>705866</v>
+        <v>600110</v>
       </c>
       <c r="AJ61" s="15">
-        <v>620110</v>
+        <v>501106</v>
       </c>
       <c r="AK61" s="15">
-        <v>600110</v>
+        <v>703409</v>
       </c>
       <c r="AL61" s="15">
-        <v>501106</v>
+        <v>876392</v>
       </c>
       <c r="AM61" s="15">
-        <v>703409</v>
+        <v>700500</v>
       </c>
       <c r="AN61" s="15">
-        <v>876392</v>
+        <v>500601</v>
       </c>
       <c r="AO61" s="15">
-        <v>700500</v>
+        <v>523893</v>
       </c>
       <c r="AP61" s="15">
-        <v>500601</v>
+        <v>571001</v>
       </c>
       <c r="AQ61" s="15">
-        <v>523893</v>
+        <v>608201</v>
       </c>
       <c r="AR61" s="15">
-        <v>571001</v>
+        <v>508519</v>
       </c>
       <c r="AS61" s="15">
-        <v>608201</v>
+        <v>556424</v>
       </c>
       <c r="AT61" s="15">
-        <v>508519</v>
+        <v>806565</v>
       </c>
       <c r="AU61" s="15">
-        <v>556424</v>
+        <v>849153</v>
       </c>
       <c r="AV61" s="15">
-        <v>806565</v>
+        <v>1052180</v>
       </c>
       <c r="AW61" s="15">
-        <v>842173</v>
+        <v>1245134</v>
       </c>
       <c r="AX61" s="15">
-        <v>957316</v>
+        <v>1260965</v>
       </c>
       <c r="AY61" s="15">
-        <v>1245134</v>
+        <v>1238567</v>
       </c>
       <c r="AZ61" s="15">
-        <v>1260965</v>
+        <v>1287129</v>
       </c>
       <c r="BA61" s="15">
-        <v>1238567</v>
+        <v>1370256</v>
       </c>
       <c r="BB61" s="15">
-        <v>1287129</v>
+        <v>1383248</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -7936,7 +7936,7 @@
       <c r="BA62" s="1"/>
       <c r="BB62" s="1"/>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -7991,7 +7991,7 @@
       <c r="BA63" s="1"/>
       <c r="BB63" s="1"/>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -8046,7 +8046,7 @@
       <c r="BA64" s="1"/>
       <c r="BB64" s="1"/>
     </row>
-    <row r="65" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B65" s="7" t="s">
         <v>81</v>
       </c>
@@ -8203,7 +8203,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -8258,7 +8258,7 @@
       <c r="BA66" s="1"/>
       <c r="BB66" s="1"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="8" t="s">
         <v>82</v>
       </c>
@@ -8315,7 +8315,7 @@
       <c r="BA67" s="9"/>
       <c r="BB67" s="9"/>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="10" t="s">
         <v>55</v>
       </c>
@@ -8324,157 +8324,157 @@
       </c>
       <c r="D68" s="11"/>
       <c r="E68" s="11">
-        <v>1748</v>
+        <v>2306</v>
       </c>
       <c r="F68" s="11">
-        <v>22021</v>
+        <v>1143</v>
       </c>
       <c r="G68" s="11">
-        <v>2306</v>
+        <v>1076</v>
       </c>
       <c r="H68" s="11">
-        <v>1143</v>
+        <v>0</v>
       </c>
       <c r="I68" s="11">
-        <v>1076</v>
+        <v>1992</v>
       </c>
       <c r="J68" s="11">
-        <v>0</v>
+        <v>1044</v>
       </c>
       <c r="K68" s="11">
-        <v>1992</v>
+        <v>2664</v>
       </c>
       <c r="L68" s="11">
-        <v>1044</v>
+        <v>2199</v>
       </c>
       <c r="M68" s="11">
-        <v>2664</v>
+        <v>1654</v>
       </c>
       <c r="N68" s="11">
-        <v>2199</v>
+        <v>2867</v>
       </c>
       <c r="O68" s="11">
-        <v>1654</v>
+        <v>2109</v>
       </c>
       <c r="P68" s="11">
-        <v>2867</v>
+        <v>3007</v>
       </c>
       <c r="Q68" s="11">
-        <v>2109</v>
+        <v>2161</v>
       </c>
       <c r="R68" s="11">
-        <v>3007</v>
+        <v>2700</v>
       </c>
       <c r="S68" s="11">
-        <v>2161</v>
+        <v>2653</v>
       </c>
       <c r="T68" s="11">
-        <v>2700</v>
+        <v>2368476</v>
       </c>
       <c r="U68" s="11">
-        <v>2653</v>
+        <v>3242012</v>
       </c>
       <c r="V68" s="11">
-        <v>2368476</v>
+        <v>2395596</v>
       </c>
       <c r="W68" s="11">
-        <v>3242012</v>
+        <v>2990303</v>
       </c>
       <c r="X68" s="11">
-        <v>2395596</v>
+        <v>1556475</v>
       </c>
       <c r="Y68" s="11">
-        <v>2990303</v>
+        <v>2033366</v>
       </c>
       <c r="Z68" s="11">
-        <v>1556475</v>
+        <v>3648732</v>
       </c>
       <c r="AA68" s="11">
-        <v>2033366</v>
+        <v>5477523</v>
       </c>
       <c r="AB68" s="11">
-        <v>3648732</v>
+        <v>2396877</v>
       </c>
       <c r="AC68" s="11">
-        <v>5477523</v>
+        <v>756214</v>
       </c>
       <c r="AD68" s="11">
-        <v>2396877</v>
+        <v>2396983</v>
       </c>
       <c r="AE68" s="11">
-        <v>756214</v>
+        <v>2326929</v>
       </c>
       <c r="AF68" s="11">
-        <v>2396983</v>
+        <v>6222389</v>
       </c>
       <c r="AG68" s="11">
-        <v>2326929</v>
+        <v>6558928</v>
       </c>
       <c r="AH68" s="11">
-        <v>6222389</v>
+        <v>6558846</v>
       </c>
       <c r="AI68" s="11">
-        <v>6558928</v>
+        <v>6558846</v>
       </c>
       <c r="AJ68" s="11">
-        <v>6558846</v>
+        <v>6859272</v>
       </c>
       <c r="AK68" s="11">
-        <v>6558846</v>
+        <v>4501119</v>
       </c>
       <c r="AL68" s="11">
-        <v>6859272</v>
+        <v>2753153</v>
       </c>
       <c r="AM68" s="11">
-        <v>4501119</v>
+        <v>5115573</v>
       </c>
       <c r="AN68" s="11">
-        <v>2753153</v>
+        <v>3255445</v>
       </c>
       <c r="AO68" s="11">
-        <v>5115573</v>
+        <v>4373563</v>
       </c>
       <c r="AP68" s="11">
-        <v>3255445</v>
+        <v>3870616</v>
       </c>
       <c r="AQ68" s="11">
-        <v>4373563</v>
+        <v>4570590</v>
       </c>
       <c r="AR68" s="11">
-        <v>3870616</v>
+        <v>5582281</v>
       </c>
       <c r="AS68" s="11">
-        <v>4570590</v>
+        <v>3160701</v>
       </c>
       <c r="AT68" s="11">
-        <v>5582281</v>
+        <v>3462536</v>
       </c>
       <c r="AU68" s="11">
-        <v>3160701</v>
+        <v>4828470</v>
       </c>
       <c r="AV68" s="11">
-        <v>3462536</v>
+        <v>5866979</v>
       </c>
       <c r="AW68" s="11">
-        <v>4828470</v>
+        <v>8373354</v>
       </c>
       <c r="AX68" s="11">
-        <v>5866979</v>
+        <v>7631454</v>
       </c>
       <c r="AY68" s="11">
-        <v>8373354</v>
+        <v>5874430</v>
       </c>
       <c r="AZ68" s="11">
-        <v>7631454</v>
+        <v>6314347</v>
       </c>
       <c r="BA68" s="11">
-        <v>5874430</v>
+        <v>5537617</v>
       </c>
       <c r="BB68" s="11">
-        <v>6314347</v>
+        <v>8981552</v>
       </c>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
         <v>57</v>
       </c>
@@ -8527,90 +8527,90 @@
       <c r="S69" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T69" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U69" s="13" t="s">
-        <v>58</v>
+      <c r="T69" s="13">
+        <v>1035467</v>
+      </c>
+      <c r="U69" s="13">
+        <v>1267234</v>
       </c>
       <c r="V69" s="13">
-        <v>1035467</v>
+        <v>1533905</v>
       </c>
       <c r="W69" s="13">
-        <v>1267234</v>
+        <v>1361376</v>
       </c>
       <c r="X69" s="13">
-        <v>1533905</v>
+        <v>1632395</v>
       </c>
       <c r="Y69" s="13">
-        <v>1361376</v>
+        <v>1539219</v>
       </c>
       <c r="Z69" s="13">
-        <v>1632395</v>
+        <v>1788717</v>
       </c>
       <c r="AA69" s="13">
-        <v>1539219</v>
+        <v>1717725</v>
       </c>
       <c r="AB69" s="13">
-        <v>1788717</v>
+        <v>1840494</v>
       </c>
       <c r="AC69" s="13">
-        <v>1717725</v>
+        <v>1656507</v>
       </c>
       <c r="AD69" s="13">
-        <v>1840494</v>
+        <v>1840496</v>
       </c>
       <c r="AE69" s="13">
-        <v>1656507</v>
+        <v>1196422</v>
       </c>
       <c r="AF69" s="13">
-        <v>1840496</v>
+        <v>1286379</v>
       </c>
       <c r="AG69" s="13">
-        <v>1196422</v>
+        <v>1472071</v>
       </c>
       <c r="AH69" s="13">
-        <v>1286379</v>
+        <v>1472076</v>
       </c>
       <c r="AI69" s="13">
-        <v>1472071</v>
+        <v>1562074</v>
       </c>
       <c r="AJ69" s="13">
-        <v>1472076</v>
+        <v>1631876</v>
       </c>
       <c r="AK69" s="13">
-        <v>1562074</v>
+        <v>1456973</v>
       </c>
       <c r="AL69" s="13">
-        <v>1631876</v>
+        <v>2242518</v>
       </c>
       <c r="AM69" s="13">
-        <v>1456973</v>
+        <v>2192480</v>
       </c>
       <c r="AN69" s="13">
-        <v>2242518</v>
+        <v>1613855</v>
       </c>
       <c r="AO69" s="13">
-        <v>2192480</v>
+        <v>1557356</v>
       </c>
       <c r="AP69" s="13">
-        <v>1613855</v>
+        <v>1430645</v>
       </c>
       <c r="AQ69" s="13">
-        <v>1557356</v>
+        <v>1648967</v>
       </c>
       <c r="AR69" s="13">
-        <v>1430645</v>
+        <v>1759555</v>
       </c>
       <c r="AS69" s="13">
-        <v>1648967</v>
-      </c>
-      <c r="AT69" s="13">
-        <v>1759555</v>
-      </c>
-      <c r="AU69" s="13">
         <v>1815511</v>
       </c>
+      <c r="AT69" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AU69" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AV69" s="13" t="s">
         <v>58</v>
       </c>
@@ -8633,7 +8633,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="10" t="s">
         <v>59</v>
       </c>
@@ -8642,157 +8642,157 @@
       </c>
       <c r="D70" s="11"/>
       <c r="E70" s="11">
-        <v>105480</v>
+        <v>161475</v>
       </c>
       <c r="F70" s="11">
-        <v>196460</v>
+        <v>15094</v>
       </c>
       <c r="G70" s="11">
-        <v>161475</v>
+        <v>11478</v>
       </c>
       <c r="H70" s="11">
-        <v>15094</v>
+        <v>0</v>
       </c>
       <c r="I70" s="11">
-        <v>11478</v>
+        <v>0</v>
       </c>
       <c r="J70" s="11">
         <v>0</v>
       </c>
       <c r="K70" s="11">
-        <v>0</v>
+        <v>188617</v>
       </c>
       <c r="L70" s="11">
-        <v>0</v>
+        <v>188566</v>
       </c>
       <c r="M70" s="11">
-        <v>188617</v>
+        <v>184701</v>
       </c>
       <c r="N70" s="11">
-        <v>188566</v>
+        <v>185465</v>
       </c>
       <c r="O70" s="11">
-        <v>184701</v>
+        <v>116631</v>
       </c>
       <c r="P70" s="11">
-        <v>185465</v>
+        <v>189740</v>
       </c>
       <c r="Q70" s="11">
-        <v>116631</v>
+        <v>147849</v>
       </c>
       <c r="R70" s="11">
-        <v>189740</v>
+        <v>70503</v>
       </c>
       <c r="S70" s="11">
-        <v>147849</v>
+        <v>0</v>
       </c>
       <c r="T70" s="11">
-        <v>70503</v>
+        <v>77158730</v>
       </c>
       <c r="U70" s="11">
-        <v>0</v>
+        <v>189172043</v>
       </c>
       <c r="V70" s="11">
-        <v>77158730</v>
+        <v>185314815</v>
       </c>
       <c r="W70" s="11">
-        <v>189172043</v>
+        <v>188607477</v>
       </c>
       <c r="X70" s="11">
-        <v>185314815</v>
+        <v>180739130</v>
       </c>
       <c r="Y70" s="11">
-        <v>188607477</v>
+        <v>184267606</v>
       </c>
       <c r="Z70" s="11">
-        <v>180739130</v>
+        <v>136805970</v>
       </c>
       <c r="AA70" s="11">
-        <v>184267606</v>
+        <v>168771084</v>
       </c>
       <c r="AB70" s="11">
-        <v>136805970</v>
+        <v>180549020</v>
       </c>
       <c r="AC70" s="11">
-        <v>168771084</v>
+        <v>58857143</v>
       </c>
       <c r="AD70" s="11">
-        <v>180549020</v>
+        <v>180946809</v>
       </c>
       <c r="AE70" s="11">
-        <v>58857143</v>
+        <v>51125000</v>
       </c>
       <c r="AF70" s="11">
-        <v>180946809</v>
+        <v>189542857</v>
       </c>
       <c r="AG70" s="11">
-        <v>51125000</v>
+        <v>201131313</v>
       </c>
       <c r="AH70" s="11">
-        <v>189542857</v>
+        <v>203311475</v>
       </c>
       <c r="AI70" s="11">
-        <v>201131313</v>
+        <v>200032258</v>
       </c>
       <c r="AJ70" s="11">
-        <v>203311475</v>
+        <v>200108911</v>
       </c>
       <c r="AK70" s="11">
-        <v>200032258</v>
+        <v>281253333</v>
       </c>
       <c r="AL70" s="11">
-        <v>200108911</v>
+        <v>35704403</v>
       </c>
       <c r="AM70" s="11">
-        <v>281253333</v>
+        <v>36870968</v>
       </c>
       <c r="AN70" s="11">
-        <v>35704403</v>
+        <v>18852941</v>
       </c>
       <c r="AO70" s="11">
-        <v>36870968</v>
+        <v>18680000</v>
       </c>
       <c r="AP70" s="11">
-        <v>18852941</v>
+        <v>21089744</v>
       </c>
       <c r="AQ70" s="11">
-        <v>18680000</v>
+        <v>32506494</v>
       </c>
       <c r="AR70" s="11">
-        <v>21089744</v>
+        <v>35000000</v>
       </c>
       <c r="AS70" s="11">
-        <v>32506494</v>
+        <v>34188679</v>
       </c>
       <c r="AT70" s="11">
-        <v>35000000</v>
-      </c>
-      <c r="AU70" s="11">
-        <v>34188679</v>
+        <v>73599156</v>
+      </c>
+      <c r="AU70" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV70" s="11">
-        <v>73599156</v>
+        <v>1538722</v>
       </c>
       <c r="AW70" s="11">
-        <v>0</v>
+        <v>204472222</v>
       </c>
       <c r="AX70" s="11">
-        <v>58856428</v>
+        <v>170177778</v>
       </c>
       <c r="AY70" s="11">
-        <v>204472222</v>
-      </c>
-      <c r="AZ70" s="11">
-        <v>170177778</v>
-      </c>
-      <c r="BA70" s="11">
         <v>255153846</v>
       </c>
-      <c r="BB70" s="11" t="s">
-        <v>58</v>
+      <c r="AZ70" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA70" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="BB70" s="11">
+        <v>47732673</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="12" t="s">
         <v>61</v>
       </c>
@@ -8801,56 +8801,56 @@
       </c>
       <c r="D71" s="13"/>
       <c r="E71" s="13">
-        <v>778</v>
+        <v>836</v>
       </c>
       <c r="F71" s="13">
-        <v>876</v>
+        <v>1117</v>
       </c>
       <c r="G71" s="13">
-        <v>836</v>
+        <v>903</v>
       </c>
       <c r="H71" s="13">
-        <v>1117</v>
+        <v>1025</v>
       </c>
       <c r="I71" s="13">
-        <v>903</v>
+        <v>1096</v>
       </c>
       <c r="J71" s="13">
-        <v>1025</v>
+        <v>1109</v>
       </c>
       <c r="K71" s="13">
-        <v>1096</v>
+        <v>1373</v>
       </c>
       <c r="L71" s="13">
-        <v>1109</v>
+        <v>1087</v>
       </c>
       <c r="M71" s="13">
-        <v>1373</v>
+        <v>1024</v>
       </c>
       <c r="N71" s="13">
-        <v>1087</v>
+        <v>1251</v>
       </c>
       <c r="O71" s="13">
-        <v>1024</v>
+        <v>1284</v>
       </c>
       <c r="P71" s="13">
-        <v>1251</v>
+        <v>1015</v>
       </c>
       <c r="Q71" s="13">
-        <v>1284</v>
+        <v>1169</v>
       </c>
       <c r="R71" s="13">
-        <v>1015</v>
+        <v>964</v>
       </c>
       <c r="S71" s="13">
-        <v>1169</v>
-      </c>
-      <c r="T71" s="13">
-        <v>964</v>
-      </c>
-      <c r="U71" s="13">
         <v>1236</v>
       </c>
+      <c r="T71" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="U71" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="V71" s="13" t="s">
         <v>58</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="10" t="s">
         <v>63</v>
       </c>
@@ -8960,56 +8960,56 @@
       </c>
       <c r="D72" s="11"/>
       <c r="E72" s="11">
-        <v>38866</v>
+        <v>28601</v>
       </c>
       <c r="F72" s="11">
-        <v>30259</v>
+        <v>34961</v>
       </c>
       <c r="G72" s="11">
-        <v>28601</v>
+        <v>26265</v>
       </c>
       <c r="H72" s="11">
-        <v>34961</v>
+        <v>27586</v>
       </c>
       <c r="I72" s="11">
-        <v>26265</v>
+        <v>31992</v>
       </c>
       <c r="J72" s="11">
-        <v>27586</v>
+        <v>28889</v>
       </c>
       <c r="K72" s="11">
-        <v>31992</v>
+        <v>36824</v>
       </c>
       <c r="L72" s="11">
-        <v>28889</v>
+        <v>35497</v>
       </c>
       <c r="M72" s="11">
-        <v>36824</v>
+        <v>31408</v>
       </c>
       <c r="N72" s="11">
-        <v>35497</v>
+        <v>28165</v>
       </c>
       <c r="O72" s="11">
-        <v>31408</v>
+        <v>32356</v>
       </c>
       <c r="P72" s="11">
-        <v>28165</v>
+        <v>29915</v>
       </c>
       <c r="Q72" s="11">
-        <v>32356</v>
+        <v>40684</v>
       </c>
       <c r="R72" s="11">
-        <v>29915</v>
+        <v>36849</v>
       </c>
       <c r="S72" s="11">
-        <v>40684</v>
-      </c>
-      <c r="T72" s="11">
-        <v>36849</v>
-      </c>
-      <c r="U72" s="11">
         <v>37844</v>
       </c>
+      <c r="T72" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="U72" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="V72" s="11" t="s">
         <v>58</v>
       </c>
@@ -9110,7 +9110,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="12" t="s">
         <v>65</v>
       </c>
@@ -9163,113 +9163,113 @@
       <c r="S73" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T73" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="U73" s="13" t="s">
-        <v>58</v>
+      <c r="T73" s="13">
+        <v>40183767</v>
+      </c>
+      <c r="U73" s="13">
+        <v>33429433</v>
       </c>
       <c r="V73" s="13">
-        <v>40183767</v>
+        <v>33945578</v>
       </c>
       <c r="W73" s="13">
-        <v>33429433</v>
+        <v>27898817</v>
       </c>
       <c r="X73" s="13">
-        <v>33945578</v>
+        <v>39004413</v>
       </c>
       <c r="Y73" s="13">
-        <v>27898817</v>
+        <v>36161443</v>
       </c>
       <c r="Z73" s="13">
-        <v>39004413</v>
+        <v>39375731</v>
       </c>
       <c r="AA73" s="13">
-        <v>36161443</v>
+        <v>44296496</v>
       </c>
       <c r="AB73" s="13">
-        <v>39375731</v>
+        <v>57189024</v>
       </c>
       <c r="AC73" s="13">
-        <v>44296496</v>
+        <v>41052500</v>
       </c>
       <c r="AD73" s="13">
-        <v>57189024</v>
+        <v>57201661</v>
       </c>
       <c r="AE73" s="13">
-        <v>41052500</v>
+        <v>102688699</v>
       </c>
       <c r="AF73" s="13">
-        <v>57201661</v>
+        <v>60285408</v>
       </c>
       <c r="AG73" s="13">
-        <v>102688699</v>
+        <v>59494801</v>
       </c>
       <c r="AH73" s="13">
-        <v>60285408</v>
+        <v>59498934</v>
       </c>
       <c r="AI73" s="13">
-        <v>59494801</v>
+        <v>59498934</v>
       </c>
       <c r="AJ73" s="13">
-        <v>59498934</v>
+        <v>62465492</v>
       </c>
       <c r="AK73" s="13">
-        <v>59498934</v>
+        <v>56435556</v>
       </c>
       <c r="AL73" s="13">
-        <v>62465492</v>
+        <v>41895881</v>
       </c>
       <c r="AM73" s="13">
-        <v>56435556</v>
+        <v>68285507</v>
       </c>
       <c r="AN73" s="13">
-        <v>41895881</v>
+        <v>59919847</v>
       </c>
       <c r="AO73" s="13">
-        <v>68285507</v>
+        <v>45953153</v>
       </c>
       <c r="AP73" s="13">
-        <v>59919847</v>
+        <v>95409178</v>
       </c>
       <c r="AQ73" s="13">
-        <v>45953153</v>
+        <v>75903865</v>
       </c>
       <c r="AR73" s="13">
-        <v>95409178</v>
+        <v>65103792</v>
       </c>
       <c r="AS73" s="13">
-        <v>75903865</v>
+        <v>57600698</v>
       </c>
       <c r="AT73" s="13">
-        <v>65103792</v>
+        <v>57596649</v>
       </c>
       <c r="AU73" s="13">
-        <v>57600698</v>
+        <v>122587629</v>
       </c>
       <c r="AV73" s="13">
-        <v>57596649</v>
+        <v>107769231</v>
       </c>
       <c r="AW73" s="13">
-        <v>122587629</v>
+        <v>146759574</v>
       </c>
       <c r="AX73" s="13">
-        <v>107769231</v>
+        <v>44306763</v>
       </c>
       <c r="AY73" s="13">
-        <v>151022169</v>
+        <v>70141212</v>
       </c>
       <c r="AZ73" s="13">
-        <v>44306763</v>
+        <v>110446686</v>
       </c>
       <c r="BA73" s="13">
-        <v>70141212</v>
+        <v>114123485</v>
       </c>
       <c r="BB73" s="13">
-        <v>110446686</v>
+        <v>86135884</v>
       </c>
     </row>
-    <row r="74" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B74" s="10" t="s">
         <v>67</v>
       </c>
@@ -9400,35 +9400,35 @@
       <c r="AS74" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT74" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU74" s="11" t="s">
-        <v>58</v>
+      <c r="AT74" s="11">
+        <v>1900964</v>
+      </c>
+      <c r="AU74" s="11">
+        <v>2792896</v>
       </c>
       <c r="AV74" s="11">
-        <v>1900964</v>
+        <v>2729545</v>
       </c>
       <c r="AW74" s="11">
-        <v>2786746</v>
+        <v>5942460</v>
       </c>
       <c r="AX74" s="11">
-        <v>2659784</v>
+        <v>2716338</v>
       </c>
       <c r="AY74" s="11">
-        <v>5948053</v>
+        <v>2570274</v>
       </c>
       <c r="AZ74" s="11">
-        <v>2716338</v>
+        <v>3193369</v>
       </c>
       <c r="BA74" s="11">
-        <v>2570274</v>
+        <v>4165627</v>
       </c>
       <c r="BB74" s="11">
-        <v>3193369</v>
+        <v>3881819</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
         <v>88</v>
       </c>
@@ -9485,7 +9485,7 @@
       <c r="BA75" s="9"/>
       <c r="BB75" s="9"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
         <v>69</v>
       </c>
@@ -9574,11 +9574,11 @@
       <c r="AE76" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF76" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG76" s="11" t="s">
-        <v>58</v>
+      <c r="AF76" s="11">
+        <v>0</v>
+      </c>
+      <c r="AG76" s="11">
+        <v>0</v>
       </c>
       <c r="AH76" s="11">
         <v>0</v>
@@ -9610,11 +9610,11 @@
       <c r="AQ76" s="11">
         <v>0</v>
       </c>
-      <c r="AR76" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS76" s="11">
-        <v>0</v>
+      <c r="AR76" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS76" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT76" s="11" t="s">
         <v>58</v>
